--- a/backend/config/nickname_song.xlsx
+++ b/backend/config/nickname_song.xlsx
@@ -8,11 +8,12 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId3"/>
   </sheets>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="1007">
   <si>
     <t/>
   </si>
@@ -1502,13 +1503,13 @@
     <t>金色へのプレリュード</t>
   </si>
   <si>
-    <t>金色</t>
+    <t>金色雨</t>
   </si>
   <si>
     <t>メリッサ</t>
   </si>
   <si>
-    <t>melissa,香蜂草,钢炼</t>
+    <t>melissa,香蜂草,钢炼,梅丽莎</t>
   </si>
   <si>
     <t>Bad Apple!! feat. nomico</t>
@@ -2987,16 +2988,43 @@
     <t>極彩色</t>
   </si>
   <si>
+    <t>极彩色</t>
+  </si>
+  <si>
     <t>詩超絆</t>
   </si>
   <si>
+    <t>诗超绊</t>
+  </si>
+  <si>
     <t>ボクらの夏's☆ショーたいむっ！！</t>
   </si>
   <si>
     <t>ふぁいぶスマイル◯オールインっ！</t>
   </si>
   <si>
+    <t>迷路日々</t>
+  </si>
+  <si>
+    <t>迷路日日,melody</t>
+  </si>
+  <si>
+    <t>燦々</t>
+  </si>
+  <si>
+    <t>sensen</t>
+  </si>
+  <si>
+    <t>ほな！</t>
+  </si>
+  <si>
     <t>你又来啦？</t>
+  </si>
+  <si>
+    <t>チルドレンレコード(Re:boot)</t>
+  </si>
+  <si>
+    <t>孩童记录</t>
   </si>
   <si>
     <t>彩虹节拍</t>
@@ -3462,7 +3490,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="Z522"/>
+  <dimension ref="Z526"/>
   <sheetViews>
     <sheetView showGridLines="true" rightToLeft="false" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="A2" state="frozen"/>
@@ -10015,7 +10043,7 @@
         <v>388</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>997</v>
+        <v>1006</v>
       </c>
       <c r="D193" s="5" t="s"/>
       <c r="E193" s="5" t="s"/>
@@ -20648,7 +20676,9 @@
       <c r="B507" s="16" t="s">
         <v>990</v>
       </c>
-      <c r="C507" s="17" t="s"/>
+      <c r="C507" s="17" t="s">
+        <v>991</v>
+      </c>
       <c r="D507" s="18" t="s"/>
       <c r="E507" s="18" t="s"/>
       <c r="F507" s="18" t="s"/>
@@ -20678,9 +20708,11 @@
         <v>522</v>
       </c>
       <c r="B508" s="16" t="s">
-        <v>991</v>
-      </c>
-      <c r="C508" s="17" t="s"/>
+        <v>992</v>
+      </c>
+      <c r="C508" s="17" t="s">
+        <v>993</v>
+      </c>
       <c r="D508" s="18" t="s"/>
       <c r="E508" s="18" t="s"/>
       <c r="F508" s="18" t="s"/>
@@ -20710,7 +20742,7 @@
         <v>523</v>
       </c>
       <c r="B509" s="16" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="C509" s="17" t="s"/>
       <c r="D509" s="18" t="s"/>
@@ -20742,7 +20774,7 @@
         <v>524</v>
       </c>
       <c r="B510" s="16" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="C510" s="17" t="s"/>
       <c r="D510" s="18" t="s"/>
@@ -20771,17 +20803,15 @@
     </row>
     <row r="511" spans="1:26">
       <c r="A511" s="16">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B511" s="16" t="s">
-        <v>733</v>
+        <v>996</v>
       </c>
       <c r="C511" s="17" t="s">
-        <v>734</v>
-      </c>
-      <c r="D511" s="18" t="s">
-        <v>994</v>
-      </c>
+        <v>997</v>
+      </c>
+      <c r="D511" s="18" t="s"/>
       <c r="E511" s="18" t="s"/>
       <c r="F511" s="18" t="s"/>
       <c r="G511" s="18" t="s"/>
@@ -20806,127 +20836,151 @@
       <c r="Z511" s="18" t="s"/>
     </row>
     <row r="512" spans="1:26">
-      <c r="A512" s="6">
+      <c r="A512" s="16">
+        <v>526</v>
+      </c>
+      <c r="B512" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="C512" s="17" t="s">
+        <v>999</v>
+      </c>
+      <c r="D512" s="18" t="s"/>
+      <c r="E512" s="18" t="s"/>
+      <c r="F512" s="18" t="s"/>
+      <c r="G512" s="18" t="s"/>
+      <c r="H512" s="18" t="s"/>
+      <c r="I512" s="18" t="s"/>
+      <c r="J512" s="18" t="s"/>
+      <c r="K512" s="18" t="s"/>
+      <c r="L512" s="18" t="s"/>
+      <c r="M512" s="18" t="s"/>
+      <c r="N512" s="18" t="s"/>
+      <c r="O512" s="18" t="s"/>
+      <c r="P512" s="18" t="s"/>
+      <c r="Q512" s="18" t="s"/>
+      <c r="R512" s="18" t="s"/>
+      <c r="S512" s="18" t="s"/>
+      <c r="T512" s="18" t="s"/>
+      <c r="U512" s="18" t="s"/>
+      <c r="V512" s="18" t="s"/>
+      <c r="W512" s="18" t="s"/>
+      <c r="X512" s="18" t="s"/>
+      <c r="Y512" s="18" t="s"/>
+      <c r="Z512" s="18" t="s"/>
+    </row>
+    <row r="513" spans="1:26">
+      <c r="A513" s="16">
+        <v>527</v>
+      </c>
+      <c r="B513" s="16" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C513" s="17" t="s"/>
+      <c r="D513" s="18" t="s"/>
+      <c r="E513" s="18" t="s"/>
+      <c r="F513" s="18" t="s"/>
+      <c r="G513" s="18" t="s"/>
+      <c r="H513" s="18" t="s"/>
+      <c r="I513" s="18" t="s"/>
+      <c r="J513" s="18" t="s"/>
+      <c r="K513" s="18" t="s"/>
+      <c r="L513" s="18" t="s"/>
+      <c r="M513" s="18" t="s"/>
+      <c r="N513" s="18" t="s"/>
+      <c r="O513" s="18" t="s"/>
+      <c r="P513" s="18" t="s"/>
+      <c r="Q513" s="18" t="s"/>
+      <c r="R513" s="18" t="s"/>
+      <c r="S513" s="18" t="s"/>
+      <c r="T513" s="18" t="s"/>
+      <c r="U513" s="18" t="s"/>
+      <c r="V513" s="18" t="s"/>
+      <c r="W513" s="18" t="s"/>
+      <c r="X513" s="18" t="s"/>
+      <c r="Y513" s="18" t="s"/>
+      <c r="Z513" s="18" t="s"/>
+    </row>
+    <row r="514" spans="1:26">
+      <c r="A514" s="16">
+        <v>528</v>
+      </c>
+      <c r="B514" s="16" t="s">
+        <v>733</v>
+      </c>
+      <c r="C514" s="17" t="s">
+        <v>734</v>
+      </c>
+      <c r="D514" s="18" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E514" s="18" t="s"/>
+      <c r="F514" s="18" t="s"/>
+      <c r="G514" s="18" t="s"/>
+      <c r="H514" s="18" t="s"/>
+      <c r="I514" s="18" t="s"/>
+      <c r="J514" s="18" t="s"/>
+      <c r="K514" s="18" t="s"/>
+      <c r="L514" s="18" t="s"/>
+      <c r="M514" s="18" t="s"/>
+      <c r="N514" s="18" t="s"/>
+      <c r="O514" s="18" t="s"/>
+      <c r="P514" s="18" t="s"/>
+      <c r="Q514" s="18" t="s"/>
+      <c r="R514" s="18" t="s"/>
+      <c r="S514" s="18" t="s"/>
+      <c r="T514" s="18" t="s"/>
+      <c r="U514" s="18" t="s"/>
+      <c r="V514" s="18" t="s"/>
+      <c r="W514" s="18" t="s"/>
+      <c r="X514" s="18" t="s"/>
+      <c r="Y514" s="18" t="s"/>
+      <c r="Z514" s="18" t="s"/>
+    </row>
+    <row r="515" spans="1:26">
+      <c r="A515" s="16">
+        <v>529</v>
+      </c>
+      <c r="B515" s="16" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C515" s="17" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D515" s="18" t="s"/>
+      <c r="E515" s="18" t="s"/>
+      <c r="F515" s="18" t="s"/>
+      <c r="G515" s="18" t="s"/>
+      <c r="H515" s="18" t="s"/>
+      <c r="I515" s="18" t="s"/>
+      <c r="J515" s="18" t="s"/>
+      <c r="K515" s="18" t="s"/>
+      <c r="L515" s="18" t="s"/>
+      <c r="M515" s="18" t="s"/>
+      <c r="N515" s="18" t="s"/>
+      <c r="O515" s="18" t="s"/>
+      <c r="P515" s="18" t="s"/>
+      <c r="Q515" s="18" t="s"/>
+      <c r="R515" s="18" t="s"/>
+      <c r="S515" s="18" t="s"/>
+      <c r="T515" s="18" t="s"/>
+      <c r="U515" s="18" t="s"/>
+      <c r="V515" s="18" t="s"/>
+      <c r="W515" s="18" t="s"/>
+      <c r="X515" s="18" t="s"/>
+      <c r="Y515" s="18" t="s"/>
+      <c r="Z515" s="18" t="s"/>
+    </row>
+    <row r="516" spans="1:26">
+      <c r="A516" s="6">
         <v>10001</v>
       </c>
-      <c r="B512" s="7" t="s">
-        <v>995</v>
-      </c>
-      <c r="C512" s="8" t="s">
-        <v>996</v>
-      </c>
-      <c r="E512" s="5" t="s"/>
-      <c r="F512" s="5" t="s"/>
-      <c r="G512" s="5" t="s"/>
-      <c r="H512" s="5" t="s"/>
-      <c r="I512" s="5" t="s"/>
-      <c r="J512" s="5" t="s"/>
-      <c r="K512" s="5" t="s"/>
-      <c r="L512" s="5" t="s"/>
-      <c r="M512" s="5" t="s"/>
-      <c r="N512" s="5" t="s"/>
-      <c r="O512" s="5" t="s"/>
-      <c r="P512" s="5" t="s"/>
-      <c r="Q512" s="5" t="s"/>
-      <c r="R512" s="5" t="s"/>
-      <c r="S512" s="5" t="s"/>
-      <c r="T512" s="5" t="s"/>
-      <c r="U512" s="5" t="s"/>
-      <c r="V512" s="5" t="s"/>
-      <c r="W512" s="5" t="s"/>
-      <c r="X512" s="5" t="s"/>
-      <c r="Y512" s="5" t="s"/>
-      <c r="Z512" s="5" t="s"/>
-    </row>
-    <row r="513" spans="1:26">
-      <c r="A513" s="6" t="s"/>
-      <c r="B513" s="7" t="s"/>
-      <c r="C513" s="8" t="s"/>
-      <c r="D513" s="5" t="s"/>
-      <c r="E513" s="5" t="s"/>
-      <c r="F513" s="5" t="s"/>
-      <c r="G513" s="5" t="s"/>
-      <c r="H513" s="5" t="s"/>
-      <c r="I513" s="5" t="s"/>
-      <c r="J513" s="5" t="s"/>
-      <c r="K513" s="5" t="s"/>
-      <c r="L513" s="5" t="s"/>
-      <c r="M513" s="5" t="s"/>
-      <c r="N513" s="5" t="s"/>
-      <c r="O513" s="5" t="s"/>
-      <c r="P513" s="5" t="s"/>
-      <c r="Q513" s="5" t="s"/>
-      <c r="R513" s="5" t="s"/>
-      <c r="S513" s="5" t="s"/>
-      <c r="T513" s="5" t="s"/>
-      <c r="U513" s="5" t="s"/>
-      <c r="V513" s="5" t="s"/>
-      <c r="W513" s="5" t="s"/>
-      <c r="X513" s="5" t="s"/>
-      <c r="Y513" s="5" t="s"/>
-      <c r="Z513" s="5" t="s"/>
-    </row>
-    <row r="514" spans="1:26">
-      <c r="A514" s="6" t="s"/>
-      <c r="B514" s="7" t="s"/>
-      <c r="C514" s="8" t="s"/>
-      <c r="D514" s="5" t="s"/>
-      <c r="E514" s="5" t="s"/>
-      <c r="F514" s="5" t="s"/>
-      <c r="G514" s="5" t="s"/>
-      <c r="H514" s="5" t="s"/>
-      <c r="I514" s="5" t="s"/>
-      <c r="J514" s="5" t="s"/>
-      <c r="K514" s="5" t="s"/>
-      <c r="L514" s="5" t="s"/>
-      <c r="M514" s="5" t="s"/>
-      <c r="N514" s="5" t="s"/>
-      <c r="O514" s="5" t="s"/>
-      <c r="P514" s="5" t="s"/>
-      <c r="Q514" s="5" t="s"/>
-      <c r="R514" s="5" t="s"/>
-      <c r="S514" s="5" t="s"/>
-      <c r="T514" s="5" t="s"/>
-      <c r="U514" s="5" t="s"/>
-      <c r="V514" s="5" t="s"/>
-      <c r="W514" s="5" t="s"/>
-      <c r="X514" s="5" t="s"/>
-      <c r="Y514" s="5" t="s"/>
-      <c r="Z514" s="5" t="s"/>
-    </row>
-    <row r="515" spans="1:26">
-      <c r="A515" s="6" t="s"/>
-      <c r="B515" s="7" t="s"/>
-      <c r="C515" s="8" t="s"/>
-      <c r="D515" s="5" t="s"/>
-      <c r="E515" s="5" t="s"/>
-      <c r="F515" s="5" t="s"/>
-      <c r="G515" s="5" t="s"/>
-      <c r="H515" s="5" t="s"/>
-      <c r="I515" s="5" t="s"/>
-      <c r="J515" s="5" t="s"/>
-      <c r="K515" s="5" t="s"/>
-      <c r="L515" s="5" t="s"/>
-      <c r="M515" s="5" t="s"/>
-      <c r="N515" s="5" t="s"/>
-      <c r="O515" s="5" t="s"/>
-      <c r="P515" s="5" t="s"/>
-      <c r="Q515" s="5" t="s"/>
-      <c r="R515" s="5" t="s"/>
-      <c r="S515" s="5" t="s"/>
-      <c r="T515" s="5" t="s"/>
-      <c r="U515" s="5" t="s"/>
-      <c r="V515" s="5" t="s"/>
-      <c r="W515" s="5" t="s"/>
-      <c r="X515" s="5" t="s"/>
-      <c r="Y515" s="5" t="s"/>
-      <c r="Z515" s="5" t="s"/>
-    </row>
-    <row r="516" spans="1:26">
-      <c r="A516" s="6" t="s"/>
-      <c r="B516" s="7" t="s"/>
-      <c r="C516" s="8" t="s"/>
-      <c r="D516" s="5" t="s"/>
+      <c r="B516" s="7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C516" s="8" t="s">
+        <v>1005</v>
+      </c>
       <c r="E516" s="5" t="s"/>
       <c r="F516" s="5" t="s"/>
       <c r="G516" s="5" t="s"/>
@@ -21118,8 +21172,120 @@
       <c r="Y522" s="5" t="s"/>
       <c r="Z522" s="5" t="s"/>
     </row>
+    <row r="523" spans="1:26">
+      <c r="A523" s="6" t="s"/>
+      <c r="B523" s="7" t="s"/>
+      <c r="C523" s="8" t="s"/>
+      <c r="D523" s="5" t="s"/>
+      <c r="E523" s="5" t="s"/>
+      <c r="F523" s="5" t="s"/>
+      <c r="G523" s="5" t="s"/>
+      <c r="H523" s="5" t="s"/>
+      <c r="I523" s="5" t="s"/>
+      <c r="J523" s="5" t="s"/>
+      <c r="K523" s="5" t="s"/>
+      <c r="L523" s="5" t="s"/>
+      <c r="M523" s="5" t="s"/>
+      <c r="N523" s="5" t="s"/>
+      <c r="O523" s="5" t="s"/>
+      <c r="P523" s="5" t="s"/>
+      <c r="Q523" s="5" t="s"/>
+      <c r="R523" s="5" t="s"/>
+      <c r="S523" s="5" t="s"/>
+      <c r="T523" s="5" t="s"/>
+      <c r="U523" s="5" t="s"/>
+      <c r="V523" s="5" t="s"/>
+      <c r="W523" s="5" t="s"/>
+      <c r="X523" s="5" t="s"/>
+      <c r="Y523" s="5" t="s"/>
+      <c r="Z523" s="5" t="s"/>
+    </row>
+    <row r="524" spans="1:26">
+      <c r="A524" s="6" t="s"/>
+      <c r="B524" s="7" t="s"/>
+      <c r="C524" s="8" t="s"/>
+      <c r="D524" s="5" t="s"/>
+      <c r="E524" s="5" t="s"/>
+      <c r="F524" s="5" t="s"/>
+      <c r="G524" s="5" t="s"/>
+      <c r="H524" s="5" t="s"/>
+      <c r="I524" s="5" t="s"/>
+      <c r="J524" s="5" t="s"/>
+      <c r="K524" s="5" t="s"/>
+      <c r="L524" s="5" t="s"/>
+      <c r="M524" s="5" t="s"/>
+      <c r="N524" s="5" t="s"/>
+      <c r="O524" s="5" t="s"/>
+      <c r="P524" s="5" t="s"/>
+      <c r="Q524" s="5" t="s"/>
+      <c r="R524" s="5" t="s"/>
+      <c r="S524" s="5" t="s"/>
+      <c r="T524" s="5" t="s"/>
+      <c r="U524" s="5" t="s"/>
+      <c r="V524" s="5" t="s"/>
+      <c r="W524" s="5" t="s"/>
+      <c r="X524" s="5" t="s"/>
+      <c r="Y524" s="5" t="s"/>
+      <c r="Z524" s="5" t="s"/>
+    </row>
+    <row r="525" spans="1:26">
+      <c r="A525" s="6" t="s"/>
+      <c r="B525" s="7" t="s"/>
+      <c r="C525" s="8" t="s"/>
+      <c r="D525" s="5" t="s"/>
+      <c r="E525" s="5" t="s"/>
+      <c r="F525" s="5" t="s"/>
+      <c r="G525" s="5" t="s"/>
+      <c r="H525" s="5" t="s"/>
+      <c r="I525" s="5" t="s"/>
+      <c r="J525" s="5" t="s"/>
+      <c r="K525" s="5" t="s"/>
+      <c r="L525" s="5" t="s"/>
+      <c r="M525" s="5" t="s"/>
+      <c r="N525" s="5" t="s"/>
+      <c r="O525" s="5" t="s"/>
+      <c r="P525" s="5" t="s"/>
+      <c r="Q525" s="5" t="s"/>
+      <c r="R525" s="5" t="s"/>
+      <c r="S525" s="5" t="s"/>
+      <c r="T525" s="5" t="s"/>
+      <c r="U525" s="5" t="s"/>
+      <c r="V525" s="5" t="s"/>
+      <c r="W525" s="5" t="s"/>
+      <c r="X525" s="5" t="s"/>
+      <c r="Y525" s="5" t="s"/>
+      <c r="Z525" s="5" t="s"/>
+    </row>
+    <row r="526" spans="1:26">
+      <c r="A526" s="6" t="s"/>
+      <c r="B526" s="7" t="s"/>
+      <c r="C526" s="8" t="s"/>
+      <c r="D526" s="5" t="s"/>
+      <c r="E526" s="5" t="s"/>
+      <c r="F526" s="5" t="s"/>
+      <c r="G526" s="5" t="s"/>
+      <c r="H526" s="5" t="s"/>
+      <c r="I526" s="5" t="s"/>
+      <c r="J526" s="5" t="s"/>
+      <c r="K526" s="5" t="s"/>
+      <c r="L526" s="5" t="s"/>
+      <c r="M526" s="5" t="s"/>
+      <c r="N526" s="5" t="s"/>
+      <c r="O526" s="5" t="s"/>
+      <c r="P526" s="5" t="s"/>
+      <c r="Q526" s="5" t="s"/>
+      <c r="R526" s="5" t="s"/>
+      <c r="S526" s="5" t="s"/>
+      <c r="T526" s="5" t="s"/>
+      <c r="U526" s="5" t="s"/>
+      <c r="V526" s="5" t="s"/>
+      <c r="W526" s="5" t="s"/>
+      <c r="X526" s="5" t="s"/>
+      <c r="Y526" s="5" t="s"/>
+      <c r="Z526" s="5" t="s"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C522 D1">
+  <conditionalFormatting sqref="C1:C526 D1">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="，">
       <formula>NOT(ISERROR(SEARCH("，",C1)))</formula>
     </cfRule>

--- a/backend/config/nickname_song.xlsx
+++ b/backend/config/nickname_song.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="1007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="1027">
   <si>
     <t/>
   </si>
@@ -345,7 +345,7 @@
     <t>花園電気ギター！！！</t>
   </si>
   <si>
-    <t>花园电气吉他,otae</t>
+    <t>花园电气吉他,otae,花园吉他</t>
   </si>
   <si>
     <t>チョコレイトの低音レシピ</t>
@@ -606,7 +606,7 @@
     <t>もういちど ルミナス</t>
   </si>
   <si>
-    <t>pp2,引牛之主,再来,再一次 闪耀</t>
+    <t>pp2,引牛之主,再来,再一次 闪耀,再次闪耀</t>
   </si>
   <si>
     <t>Shangri-La</t>
@@ -1026,7 +1026,7 @@
     <t>Ringing Bloom</t>
   </si>
   <si>
-    <t>00boom,rb,燐燐开花,燐燐爆炸,给大佬比心,</t>
+    <t>00boom,rb,燐燐开花,燐燐爆炸,给大佬比心,大失所望,敷衍了事,官谱摆烂</t>
   </si>
   <si>
     <t>Baby Sweet Berry Love</t>
@@ -1092,7 +1092,7 @@
     <t>きゅ〜まい＊flower</t>
   </si>
   <si>
-    <t>Q花,九枚花,下个路口见</t>
+    <t>Q花,九枚花,下个路口见,kyumai flower</t>
   </si>
   <si>
     <t>FIRE BIRD</t>
@@ -1359,7 +1359,7 @@
     <t>イニシャル</t>
   </si>
   <si>
-    <t>印尼虾</t>
+    <t>印尼虾,initial</t>
   </si>
   <si>
     <t>天ノ弱</t>
@@ -2043,7 +2043,7 @@
     <t>灼熱 Bonfire!</t>
   </si>
   <si>
-    <t>灼热小太阳,灼热</t>
+    <t>灼热小太阳,灼热,火焰弹</t>
   </si>
   <si>
     <t>ここから先は歌にならない</t>
@@ -2067,7 +2067,7 @@
     <t>COLORFUL BOX</t>
   </si>
   <si>
-    <t>白箱</t>
+    <t>白箱,彩箱</t>
   </si>
   <si>
     <t>絆色のアンサンブル</t>
@@ -2265,7 +2265,7 @@
     <t>もういちど ルミナス（コラボver）</t>
   </si>
   <si>
-    <t>pp2重制版,claris</t>
+    <t>pp2重制版,claris,引牛之主,再来,再一次 闪耀,再次闪耀</t>
   </si>
   <si>
     <t>DEPARTURES</t>
@@ -2538,7 +2538,7 @@
     <t>ROZEN HORIZON</t>
   </si>
   <si>
-    <t>火鸟2.0,各位群友傍晚好,RH,纱夜模拟器,短绿条</t>
+    <t>火鸟2.0,各位群友傍晚好,RH,纱夜模拟器,短绿条,火鸡2</t>
   </si>
   <si>
     <t>SOUL SOLDIER</t>
@@ -2574,7 +2574,7 @@
     <t>ハナヒバナ</t>
   </si>
   <si>
-    <t>百花焰火,我的彩彩</t>
+    <t>百花焰火,我的彩彩,刹那花火</t>
   </si>
   <si>
     <t>Memento</t>
@@ -2724,7 +2724,7 @@
     <t>群青</t>
   </si>
   <si>
-    <t>啊啊啊啊啊啊啊啊啊啊</t>
+    <t>啊啊啊啊啊啊啊啊啊啊,群青</t>
   </si>
   <si>
     <t>フォニイ</t>
@@ -2787,6 +2787,9 @@
     <t>五等分の気持ち</t>
   </si>
   <si>
+    <t>五等分的新娘</t>
+  </si>
+  <si>
     <t>命に嫌われている</t>
   </si>
   <si>
@@ -2796,7 +2799,7 @@
     <t>＊ ～アスタリスク～</t>
   </si>
   <si>
-    <t>死神,Asterisk</t>
+    <t>死神,Asterisk,劲爆7轨1k</t>
   </si>
   <si>
     <t>ALIVE</t>
@@ -2814,7 +2817,7 @@
     <t>神っぽいな</t>
   </si>
   <si>
-    <t>像神一样啊,嘟嘟噜嘟嘟嘟噜嘿</t>
+    <t>像神一样啊,嘟嘟噜嘟嘟嘟噜嘿,你游vocal最高音</t>
   </si>
   <si>
     <t>キズナミュージック♪（3Dライブモード対応）</t>
@@ -2826,6 +2829,9 @@
     <t>Glee! Glee! Glee!</t>
   </si>
   <si>
+    <t>格里,格力,格立,格利</t>
+  </si>
+  <si>
     <t>[超高難易度 新SPECIAL] HELL! or HELL?</t>
   </si>
   <si>
@@ -2892,7 +2898,7 @@
     <t>踊</t>
   </si>
   <si>
-    <t>Odo</t>
+    <t>Odo,踊</t>
   </si>
   <si>
     <t>アイウエ</t>
@@ -2928,7 +2934,7 @@
     <t>キミを れっつ・はぶ・ふぁん♪</t>
   </si>
   <si>
-    <t>Kimiwa Let's have fun</t>
+    <t>Kimiwa Let's have fun, 小atz</t>
   </si>
   <si>
     <t>ダンスホール</t>
@@ -2949,6 +2955,9 @@
     <t>オドループ</t>
   </si>
   <si>
+    <t>Odd loop</t>
+  </si>
+  <si>
     <t>ペトリコール・オベーション</t>
   </si>
   <si>
@@ -2958,18 +2967,21 @@
     <t>壱雫空</t>
   </si>
   <si>
-    <t>shizuku,一雫空</t>
+    <t>shizuku,一雫空,幻想时间</t>
   </si>
   <si>
     <t>栞</t>
   </si>
   <si>
-    <t>没六星</t>
+    <t>没六星,再看半集的小曲,再看半集の小曲儿</t>
   </si>
   <si>
     <t>QUEEN</t>
   </si>
   <si>
+    <t>女王,皇后</t>
+  </si>
+  <si>
     <t>碧天伴走</t>
   </si>
   <si>
@@ -3003,6 +3015,9 @@
     <t>ふぁいぶスマイル◯オールインっ！</t>
   </si>
   <si>
+    <t>我超,⚪</t>
+  </si>
+  <si>
     <t>迷路日々</t>
   </si>
   <si>
@@ -3012,12 +3027,18 @@
     <t>燦々</t>
   </si>
   <si>
-    <t>sensen</t>
+    <t>sansan,史</t>
   </si>
   <si>
     <t>ほな！</t>
   </si>
   <si>
+    <t>Hona!</t>
+  </si>
+  <si>
+    <t>flow,你邦男声,优胜</t>
+  </si>
+  <si>
     <t>你又来啦？</t>
   </si>
   <si>
@@ -3025,6 +3046,45 @@
   </si>
   <si>
     <t>孩童记录</t>
+  </si>
+  <si>
+    <t>音がえしのセレナーデ</t>
+  </si>
+  <si>
+    <t>祝福</t>
+  </si>
+  <si>
+    <t>可愛くてごめん</t>
+  </si>
+  <si>
+    <t>这么可爱真是抱歉呢,pp缺主唱</t>
+  </si>
+  <si>
+    <t>エゴロック</t>
+  </si>
+  <si>
+    <t>egorock,自我摇滚,123FAQ</t>
+  </si>
+  <si>
+    <t>D-tecnoLife</t>
+  </si>
+  <si>
+    <t>サウダージ</t>
+  </si>
+  <si>
+    <t>ヒバナ-Reloaded-</t>
+  </si>
+  <si>
+    <t>火花,七八十,敷衍了事</t>
+  </si>
+  <si>
+    <t>トウキョウ・シャンディ・ランデヴ</t>
+  </si>
+  <si>
+    <t>Be born</t>
+  </si>
+  <si>
+    <t>出生</t>
   </si>
   <si>
     <t>彩虹节拍</t>
@@ -3490,7 +3550,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="Z526"/>
+  <dimension ref="Z536"/>
   <sheetViews>
     <sheetView showGridLines="true" rightToLeft="false" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="A2" state="frozen"/>
@@ -10043,7 +10103,7 @@
         <v>388</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>1006</v>
+        <v>1026</v>
       </c>
       <c r="D193" s="5" t="s"/>
       <c r="E193" s="5" t="s"/>
@@ -12048,7 +12108,9 @@
       <c r="B252" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="C252" s="13" t="s"/>
+      <c r="C252" s="13" t="s">
+        <v>505</v>
+      </c>
       <c r="D252" s="5" t="s"/>
       <c r="E252" s="5" t="s"/>
       <c r="F252" s="5" t="s"/>
@@ -19342,7 +19404,9 @@
       <c r="B467" s="7" t="s">
         <v>923</v>
       </c>
-      <c r="C467" s="8" t="s"/>
+      <c r="C467" s="8" t="s">
+        <v>924</v>
+      </c>
       <c r="D467" s="5" t="s"/>
       <c r="E467" s="5" t="s"/>
       <c r="F467" s="5" t="s"/>
@@ -19372,10 +19436,10 @@
         <v>479</v>
       </c>
       <c r="B468" s="7" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C468" s="8" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="D468" s="5" t="s"/>
       <c r="E468" s="5" t="s"/>
@@ -19406,10 +19470,10 @@
         <v>480</v>
       </c>
       <c r="B469" s="7" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C469" s="8" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D469" s="5" t="s"/>
       <c r="E469" s="5" t="s"/>
@@ -19440,10 +19504,10 @@
         <v>481</v>
       </c>
       <c r="B470" s="7" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C470" s="8" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D470" s="5" t="s"/>
       <c r="E470" s="5" t="s"/>
@@ -19474,10 +19538,10 @@
         <v>482</v>
       </c>
       <c r="B471" s="7" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C471" s="8" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D471" s="5" t="s"/>
       <c r="E471" s="5" t="s"/>
@@ -19508,10 +19572,10 @@
         <v>483</v>
       </c>
       <c r="B472" s="7" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C472" s="8" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D472" s="5" t="s"/>
       <c r="E472" s="5" t="s"/>
@@ -19542,10 +19606,10 @@
         <v>484</v>
       </c>
       <c r="B473" s="7" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C473" s="8" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D473" s="5" t="s"/>
       <c r="E473" s="5" t="s"/>
@@ -19576,9 +19640,11 @@
         <v>485</v>
       </c>
       <c r="B474" s="7" t="s">
-        <v>936</v>
-      </c>
-      <c r="C474" s="8" t="s"/>
+        <v>937</v>
+      </c>
+      <c r="C474" s="8" t="s">
+        <v>938</v>
+      </c>
       <c r="D474" s="5" t="s"/>
       <c r="E474" s="5" t="s"/>
       <c r="F474" s="5" t="s"/>
@@ -19608,10 +19674,10 @@
         <v>486</v>
       </c>
       <c r="B475" s="7" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="C475" s="8" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="D475" s="5" t="s"/>
       <c r="E475" s="5" t="s"/>
@@ -19642,10 +19708,10 @@
         <v>487</v>
       </c>
       <c r="B476" s="7" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="C476" s="8" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="D476" s="5" t="s"/>
       <c r="E476" s="5" t="s"/>
@@ -19676,10 +19742,10 @@
         <v>488</v>
       </c>
       <c r="B477" s="7" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="C477" s="8" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="D477" s="5" t="s"/>
       <c r="E477" s="5" t="s"/>
@@ -19710,9 +19776,11 @@
         <v>489</v>
       </c>
       <c r="B478" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="C478" s="8" t="s"/>
+        <v>945</v>
+      </c>
+      <c r="C478" s="8" t="s">
+        <v>945</v>
+      </c>
       <c r="D478" s="5" t="s"/>
       <c r="E478" s="5" t="s"/>
       <c r="F478" s="5" t="s"/>
@@ -19742,10 +19810,10 @@
         <v>490</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="C479" s="8" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="D479" s="5" t="s"/>
       <c r="E479" s="5" t="s"/>
@@ -19776,10 +19844,10 @@
         <v>491</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="C480" s="8" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D480" s="5" t="s"/>
       <c r="E480" s="5" t="s"/>
@@ -19810,10 +19878,10 @@
         <v>492</v>
       </c>
       <c r="B481" s="7" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="C481" s="8" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D481" s="5" t="s"/>
       <c r="E481" s="5" t="s"/>
@@ -19844,10 +19912,10 @@
         <v>493</v>
       </c>
       <c r="B482" s="7" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="C482" s="8" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="D482" s="5" t="s"/>
       <c r="E482" s="5" t="s"/>
@@ -19878,10 +19946,10 @@
         <v>494</v>
       </c>
       <c r="B483" s="7" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="C483" s="8" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="D483" s="5" t="s"/>
       <c r="E483" s="5" t="s"/>
@@ -19912,10 +19980,10 @@
         <v>496</v>
       </c>
       <c r="B484" s="7" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="C484" s="8" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="D484" s="5" t="s"/>
       <c r="E484" s="5" t="s"/>
@@ -19946,10 +20014,10 @@
         <v>497</v>
       </c>
       <c r="B485" s="7" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="C485" s="8" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="D485" s="5" t="s"/>
       <c r="E485" s="5" t="s"/>
@@ -19980,10 +20048,10 @@
         <v>498</v>
       </c>
       <c r="B486" s="7" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="C486" s="8" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="D486" s="5" t="s"/>
       <c r="E486" s="5" t="s"/>
@@ -20014,10 +20082,10 @@
         <v>499</v>
       </c>
       <c r="B487" s="7" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="C487" s="8" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="D487" s="5" t="s"/>
       <c r="E487" s="5" t="s"/>
@@ -20048,10 +20116,10 @@
         <v>500</v>
       </c>
       <c r="B488" s="7" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="C488" s="8" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="D488" s="5" t="s"/>
       <c r="E488" s="5" t="s"/>
@@ -20082,10 +20150,10 @@
         <v>501</v>
       </c>
       <c r="B489" s="7" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="C489" s="8" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="D489" s="5" t="s"/>
       <c r="E489" s="5" t="s"/>
@@ -20116,10 +20184,10 @@
         <v>502</v>
       </c>
       <c r="B490" s="7" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="C490" s="8" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="D490" s="5" t="s"/>
       <c r="E490" s="5" t="s"/>
@@ -20150,10 +20218,10 @@
         <v>503</v>
       </c>
       <c r="B491" s="7" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="C491" s="8" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="D491" s="5" t="s"/>
       <c r="E491" s="5" t="s"/>
@@ -20184,10 +20252,10 @@
         <v>504</v>
       </c>
       <c r="B492" s="7" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="C492" s="8" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="D492" s="5" t="s"/>
       <c r="E492" s="5" t="s"/>
@@ -20218,7 +20286,7 @@
         <v>506</v>
       </c>
       <c r="B493" s="16" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="C493" s="17" t="s"/>
       <c r="D493" s="18" t="s"/>
@@ -20250,10 +20318,10 @@
         <v>507</v>
       </c>
       <c r="B494" s="16" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="C494" s="17" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="D494" s="18" t="s"/>
       <c r="E494" s="18" t="s"/>
@@ -20284,10 +20352,10 @@
         <v>508</v>
       </c>
       <c r="B495" s="16" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="C495" s="17" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="D495" s="18" t="s"/>
       <c r="E495" s="18" t="s"/>
@@ -20318,9 +20386,11 @@
         <v>509</v>
       </c>
       <c r="B496" s="16" t="s">
-        <v>977</v>
-      </c>
-      <c r="C496" s="17" t="s"/>
+        <v>979</v>
+      </c>
+      <c r="C496" s="17" t="s">
+        <v>980</v>
+      </c>
       <c r="D496" s="18" t="s"/>
       <c r="E496" s="18" t="s"/>
       <c r="F496" s="18" t="s"/>
@@ -20350,7 +20420,7 @@
         <v>510</v>
       </c>
       <c r="B497" s="16" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="C497" s="17" t="s"/>
       <c r="D497" s="18" t="s"/>
@@ -20382,7 +20452,7 @@
         <v>511</v>
       </c>
       <c r="B498" s="16" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="C498" s="17" t="s"/>
       <c r="D498" s="18" t="s"/>
@@ -20414,10 +20484,10 @@
         <v>512</v>
       </c>
       <c r="B499" s="16" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="C499" s="17" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="D499" s="18" t="s"/>
       <c r="E499" s="18" t="s"/>
@@ -20448,10 +20518,10 @@
         <v>513</v>
       </c>
       <c r="B500" s="16" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="C500" s="17" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="D500" s="18" t="s"/>
       <c r="E500" s="18" t="s"/>
@@ -20482,9 +20552,11 @@
         <v>514</v>
       </c>
       <c r="B501" s="16" t="s">
-        <v>984</v>
-      </c>
-      <c r="C501" s="17" t="s"/>
+        <v>987</v>
+      </c>
+      <c r="C501" s="17" t="s">
+        <v>988</v>
+      </c>
       <c r="D501" s="18" t="s"/>
       <c r="E501" s="18" t="s"/>
       <c r="F501" s="18" t="s"/>
@@ -20514,9 +20586,11 @@
         <v>515</v>
       </c>
       <c r="B502" s="16" t="s">
-        <v>985</v>
-      </c>
-      <c r="C502" s="17" t="s"/>
+        <v>989</v>
+      </c>
+      <c r="C502" s="17" t="s">
+        <v>989</v>
+      </c>
       <c r="D502" s="18" t="s"/>
       <c r="E502" s="18" t="s"/>
       <c r="F502" s="18" t="s"/>
@@ -20546,7 +20620,7 @@
         <v>516</v>
       </c>
       <c r="B503" s="16" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="C503" s="17" t="s"/>
       <c r="D503" s="18" t="s"/>
@@ -20578,7 +20652,7 @@
         <v>517</v>
       </c>
       <c r="B504" s="16" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="C504" s="17" t="s"/>
       <c r="D504" s="18" t="s"/>
@@ -20610,7 +20684,7 @@
         <v>518</v>
       </c>
       <c r="B505" s="16" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="C505" s="17" t="s"/>
       <c r="D505" s="18" t="s"/>
@@ -20642,7 +20716,7 @@
         <v>519</v>
       </c>
       <c r="B506" s="16" t="s">
-        <v>989</v>
+        <v>993</v>
       </c>
       <c r="C506" s="17" t="s"/>
       <c r="D506" s="18" t="s"/>
@@ -20674,10 +20748,10 @@
         <v>521</v>
       </c>
       <c r="B507" s="16" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="C507" s="17" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="D507" s="18" t="s"/>
       <c r="E507" s="18" t="s"/>
@@ -20708,10 +20782,10 @@
         <v>522</v>
       </c>
       <c r="B508" s="16" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="C508" s="17" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="D508" s="18" t="s"/>
       <c r="E508" s="18" t="s"/>
@@ -20742,7 +20816,7 @@
         <v>523</v>
       </c>
       <c r="B509" s="16" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="C509" s="17" t="s"/>
       <c r="D509" s="18" t="s"/>
@@ -20774,9 +20848,11 @@
         <v>524</v>
       </c>
       <c r="B510" s="16" t="s">
-        <v>995</v>
-      </c>
-      <c r="C510" s="17" t="s"/>
+        <v>999</v>
+      </c>
+      <c r="C510" s="17" t="s">
+        <v>1000</v>
+      </c>
       <c r="D510" s="18" t="s"/>
       <c r="E510" s="18" t="s"/>
       <c r="F510" s="18" t="s"/>
@@ -20806,10 +20882,10 @@
         <v>525</v>
       </c>
       <c r="B511" s="16" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="C511" s="17" t="s">
-        <v>997</v>
+        <v>1002</v>
       </c>
       <c r="D511" s="18" t="s"/>
       <c r="E511" s="18" t="s"/>
@@ -20840,10 +20916,10 @@
         <v>526</v>
       </c>
       <c r="B512" s="16" t="s">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="C512" s="17" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="D512" s="18" t="s"/>
       <c r="E512" s="18" t="s"/>
@@ -20874,9 +20950,11 @@
         <v>527</v>
       </c>
       <c r="B513" s="16" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C513" s="17" t="s"/>
+        <v>1005</v>
+      </c>
+      <c r="C513" s="17" t="s">
+        <v>1006</v>
+      </c>
       <c r="D513" s="18" t="s"/>
       <c r="E513" s="18" t="s"/>
       <c r="F513" s="18" t="s"/>
@@ -20909,10 +20987,10 @@
         <v>733</v>
       </c>
       <c r="C514" s="17" t="s">
-        <v>734</v>
+        <v>1007</v>
       </c>
       <c r="D514" s="18" t="s">
-        <v>1001</v>
+        <v>1008</v>
       </c>
       <c r="E514" s="18" t="s"/>
       <c r="F514" s="18" t="s"/>
@@ -20942,10 +21020,10 @@
         <v>529</v>
       </c>
       <c r="B515" s="16" t="s">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="C515" s="17" t="s">
-        <v>1003</v>
+        <v>1010</v>
       </c>
       <c r="D515" s="18" t="s"/>
       <c r="E515" s="18" t="s"/>
@@ -20972,295 +21050,341 @@
       <c r="Z515" s="18" t="s"/>
     </row>
     <row r="516" spans="1:26">
-      <c r="A516" s="6">
+      <c r="A516" s="16">
+        <v>530</v>
+      </c>
+      <c r="B516" s="16" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C516" s="17" t="s"/>
+      <c r="D516" s="18" t="s"/>
+      <c r="E516" s="18" t="s"/>
+      <c r="F516" s="18" t="s"/>
+      <c r="G516" s="18" t="s"/>
+      <c r="H516" s="18" t="s"/>
+      <c r="I516" s="18" t="s"/>
+      <c r="J516" s="18" t="s"/>
+      <c r="K516" s="18" t="s"/>
+      <c r="L516" s="18" t="s"/>
+      <c r="M516" s="18" t="s"/>
+      <c r="N516" s="18" t="s"/>
+      <c r="O516" s="18" t="s"/>
+      <c r="P516" s="18" t="s"/>
+      <c r="Q516" s="18" t="s"/>
+      <c r="R516" s="18" t="s"/>
+      <c r="S516" s="18" t="s"/>
+      <c r="T516" s="18" t="s"/>
+      <c r="U516" s="18" t="s"/>
+      <c r="V516" s="18" t="s"/>
+      <c r="W516" s="18" t="s"/>
+      <c r="X516" s="18" t="s"/>
+      <c r="Y516" s="18" t="s"/>
+      <c r="Z516" s="18" t="s"/>
+    </row>
+    <row r="517" spans="1:26">
+      <c r="A517" s="16">
+        <v>532</v>
+      </c>
+      <c r="B517" s="16" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C517" s="17" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D517" s="18" t="s"/>
+      <c r="E517" s="18" t="s"/>
+      <c r="F517" s="18" t="s"/>
+      <c r="G517" s="18" t="s"/>
+      <c r="H517" s="18" t="s"/>
+      <c r="I517" s="18" t="s"/>
+      <c r="J517" s="18" t="s"/>
+      <c r="K517" s="18" t="s"/>
+      <c r="L517" s="18" t="s"/>
+      <c r="M517" s="18" t="s"/>
+      <c r="N517" s="18" t="s"/>
+      <c r="O517" s="18" t="s"/>
+      <c r="P517" s="18" t="s"/>
+      <c r="Q517" s="18" t="s"/>
+      <c r="R517" s="18" t="s"/>
+      <c r="S517" s="18" t="s"/>
+      <c r="T517" s="18" t="s"/>
+      <c r="U517" s="18" t="s"/>
+      <c r="V517" s="18" t="s"/>
+      <c r="W517" s="18" t="s"/>
+      <c r="X517" s="18" t="s"/>
+      <c r="Y517" s="18" t="s"/>
+      <c r="Z517" s="18" t="s"/>
+    </row>
+    <row r="518" spans="1:26">
+      <c r="A518" s="16">
+        <v>533</v>
+      </c>
+      <c r="B518" s="16" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C518" s="17" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D518" s="18" t="s"/>
+      <c r="E518" s="18" t="s"/>
+      <c r="F518" s="18" t="s"/>
+      <c r="G518" s="18" t="s"/>
+      <c r="H518" s="18" t="s"/>
+      <c r="I518" s="18" t="s"/>
+      <c r="J518" s="18" t="s"/>
+      <c r="K518" s="18" t="s"/>
+      <c r="L518" s="18" t="s"/>
+      <c r="M518" s="18" t="s"/>
+      <c r="N518" s="18" t="s"/>
+      <c r="O518" s="18" t="s"/>
+      <c r="P518" s="18" t="s"/>
+      <c r="Q518" s="18" t="s"/>
+      <c r="R518" s="18" t="s"/>
+      <c r="S518" s="18" t="s"/>
+      <c r="T518" s="18" t="s"/>
+      <c r="U518" s="18" t="s"/>
+      <c r="V518" s="18" t="s"/>
+      <c r="W518" s="18" t="s"/>
+      <c r="X518" s="18" t="s"/>
+      <c r="Y518" s="18" t="s"/>
+      <c r="Z518" s="18" t="s"/>
+    </row>
+    <row r="519" spans="1:26">
+      <c r="A519" s="16">
+        <v>534</v>
+      </c>
+      <c r="B519" s="16" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C519" s="17" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D519" s="18" t="s"/>
+      <c r="E519" s="18" t="s"/>
+      <c r="F519" s="18" t="s"/>
+      <c r="G519" s="18" t="s"/>
+      <c r="H519" s="18" t="s"/>
+      <c r="I519" s="18" t="s"/>
+      <c r="J519" s="18" t="s"/>
+      <c r="K519" s="18" t="s"/>
+      <c r="L519" s="18" t="s"/>
+      <c r="M519" s="18" t="s"/>
+      <c r="N519" s="18" t="s"/>
+      <c r="O519" s="18" t="s"/>
+      <c r="P519" s="18" t="s"/>
+      <c r="Q519" s="18" t="s"/>
+      <c r="R519" s="18" t="s"/>
+      <c r="S519" s="18" t="s"/>
+      <c r="T519" s="18" t="s"/>
+      <c r="U519" s="18" t="s"/>
+      <c r="V519" s="18" t="s"/>
+      <c r="W519" s="18" t="s"/>
+      <c r="X519" s="18" t="s"/>
+      <c r="Y519" s="18" t="s"/>
+      <c r="Z519" s="18" t="s"/>
+    </row>
+    <row r="520" spans="1:26">
+      <c r="A520" s="16">
+        <v>535</v>
+      </c>
+      <c r="B520" s="16" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C520" s="17" t="s"/>
+      <c r="D520" s="18" t="s"/>
+      <c r="E520" s="18" t="s"/>
+      <c r="F520" s="18" t="s"/>
+      <c r="G520" s="18" t="s"/>
+      <c r="H520" s="18" t="s"/>
+      <c r="I520" s="18" t="s"/>
+      <c r="J520" s="18" t="s"/>
+      <c r="K520" s="18" t="s"/>
+      <c r="L520" s="18" t="s"/>
+      <c r="M520" s="18" t="s"/>
+      <c r="N520" s="18" t="s"/>
+      <c r="O520" s="18" t="s"/>
+      <c r="P520" s="18" t="s"/>
+      <c r="Q520" s="18" t="s"/>
+      <c r="R520" s="18" t="s"/>
+      <c r="S520" s="18" t="s"/>
+      <c r="T520" s="18" t="s"/>
+      <c r="U520" s="18" t="s"/>
+      <c r="V520" s="18" t="s"/>
+      <c r="W520" s="18" t="s"/>
+      <c r="X520" s="18" t="s"/>
+      <c r="Y520" s="18" t="s"/>
+      <c r="Z520" s="18" t="s"/>
+    </row>
+    <row r="521" spans="1:26">
+      <c r="A521" s="16">
+        <v>536</v>
+      </c>
+      <c r="B521" s="16" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C521" s="17" t="s"/>
+      <c r="D521" s="18" t="s"/>
+      <c r="E521" s="18" t="s"/>
+      <c r="F521" s="18" t="s"/>
+      <c r="G521" s="18" t="s"/>
+      <c r="H521" s="18" t="s"/>
+      <c r="I521" s="18" t="s"/>
+      <c r="J521" s="18" t="s"/>
+      <c r="K521" s="18" t="s"/>
+      <c r="L521" s="18" t="s"/>
+      <c r="M521" s="18" t="s"/>
+      <c r="N521" s="18" t="s"/>
+      <c r="O521" s="18" t="s"/>
+      <c r="P521" s="18" t="s"/>
+      <c r="Q521" s="18" t="s"/>
+      <c r="R521" s="18" t="s"/>
+      <c r="S521" s="18" t="s"/>
+      <c r="T521" s="18" t="s"/>
+      <c r="U521" s="18" t="s"/>
+      <c r="V521" s="18" t="s"/>
+      <c r="W521" s="18" t="s"/>
+      <c r="X521" s="18" t="s"/>
+      <c r="Y521" s="18" t="s"/>
+      <c r="Z521" s="18" t="s"/>
+    </row>
+    <row r="522" spans="1:26">
+      <c r="A522" s="16">
+        <v>537</v>
+      </c>
+      <c r="B522" s="16" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C522" s="17" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D522" s="18" t="s"/>
+      <c r="E522" s="18" t="s"/>
+      <c r="F522" s="18" t="s"/>
+      <c r="G522" s="18" t="s"/>
+      <c r="H522" s="18" t="s"/>
+      <c r="I522" s="18" t="s"/>
+      <c r="J522" s="18" t="s"/>
+      <c r="K522" s="18" t="s"/>
+      <c r="L522" s="18" t="s"/>
+      <c r="M522" s="18" t="s"/>
+      <c r="N522" s="18" t="s"/>
+      <c r="O522" s="18" t="s"/>
+      <c r="P522" s="18" t="s"/>
+      <c r="Q522" s="18" t="s"/>
+      <c r="R522" s="18" t="s"/>
+      <c r="S522" s="18" t="s"/>
+      <c r="T522" s="18" t="s"/>
+      <c r="U522" s="18" t="s"/>
+      <c r="V522" s="18" t="s"/>
+      <c r="W522" s="18" t="s"/>
+      <c r="X522" s="18" t="s"/>
+      <c r="Y522" s="18" t="s"/>
+      <c r="Z522" s="18" t="s"/>
+    </row>
+    <row r="523" spans="1:26">
+      <c r="A523" s="16">
+        <v>538</v>
+      </c>
+      <c r="B523" s="16" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C523" s="17" t="s"/>
+      <c r="D523" s="18" t="s"/>
+      <c r="E523" s="18" t="s"/>
+      <c r="F523" s="18" t="s"/>
+      <c r="G523" s="18" t="s"/>
+      <c r="H523" s="18" t="s"/>
+      <c r="I523" s="18" t="s"/>
+      <c r="J523" s="18" t="s"/>
+      <c r="K523" s="18" t="s"/>
+      <c r="L523" s="18" t="s"/>
+      <c r="M523" s="18" t="s"/>
+      <c r="N523" s="18" t="s"/>
+      <c r="O523" s="18" t="s"/>
+      <c r="P523" s="18" t="s"/>
+      <c r="Q523" s="18" t="s"/>
+      <c r="R523" s="18" t="s"/>
+      <c r="S523" s="18" t="s"/>
+      <c r="T523" s="18" t="s"/>
+      <c r="U523" s="18" t="s"/>
+      <c r="V523" s="18" t="s"/>
+      <c r="W523" s="18" t="s"/>
+      <c r="X523" s="18" t="s"/>
+      <c r="Y523" s="18" t="s"/>
+      <c r="Z523" s="18" t="s"/>
+    </row>
+    <row r="524" spans="1:26">
+      <c r="A524" s="16">
+        <v>539</v>
+      </c>
+      <c r="B524" s="16" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C524" s="17" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D524" s="18" t="s"/>
+      <c r="E524" s="18" t="s"/>
+      <c r="F524" s="18" t="s"/>
+      <c r="G524" s="18" t="s"/>
+      <c r="H524" s="18" t="s"/>
+      <c r="I524" s="18" t="s"/>
+      <c r="J524" s="18" t="s"/>
+      <c r="K524" s="18" t="s"/>
+      <c r="L524" s="18" t="s"/>
+      <c r="M524" s="18" t="s"/>
+      <c r="N524" s="18" t="s"/>
+      <c r="O524" s="18" t="s"/>
+      <c r="P524" s="18" t="s"/>
+      <c r="Q524" s="18" t="s"/>
+      <c r="R524" s="18" t="s"/>
+      <c r="S524" s="18" t="s"/>
+      <c r="T524" s="18" t="s"/>
+      <c r="U524" s="18" t="s"/>
+      <c r="V524" s="18" t="s"/>
+      <c r="W524" s="18" t="s"/>
+      <c r="X524" s="18" t="s"/>
+      <c r="Y524" s="18" t="s"/>
+      <c r="Z524" s="18" t="s"/>
+    </row>
+    <row r="525" spans="1:26">
+      <c r="A525" s="16" t="s"/>
+      <c r="B525" s="16" t="s"/>
+      <c r="C525" s="17" t="s"/>
+      <c r="D525" s="18" t="s"/>
+      <c r="E525" s="18" t="s"/>
+      <c r="F525" s="18" t="s"/>
+      <c r="G525" s="18" t="s"/>
+      <c r="H525" s="18" t="s"/>
+      <c r="I525" s="18" t="s"/>
+      <c r="J525" s="18" t="s"/>
+      <c r="K525" s="18" t="s"/>
+      <c r="L525" s="18" t="s"/>
+      <c r="M525" s="18" t="s"/>
+      <c r="N525" s="18" t="s"/>
+      <c r="O525" s="18" t="s"/>
+      <c r="P525" s="18" t="s"/>
+      <c r="Q525" s="18" t="s"/>
+      <c r="R525" s="18" t="s"/>
+      <c r="S525" s="18" t="s"/>
+      <c r="T525" s="18" t="s"/>
+      <c r="U525" s="18" t="s"/>
+      <c r="V525" s="18" t="s"/>
+      <c r="W525" s="18" t="s"/>
+      <c r="X525" s="18" t="s"/>
+      <c r="Y525" s="18" t="s"/>
+      <c r="Z525" s="18" t="s"/>
+    </row>
+    <row r="526" spans="1:26">
+      <c r="A526" s="6">
         <v>10001</v>
       </c>
-      <c r="B516" s="7" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C516" s="8" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E516" s="5" t="s"/>
-      <c r="F516" s="5" t="s"/>
-      <c r="G516" s="5" t="s"/>
-      <c r="H516" s="5" t="s"/>
-      <c r="I516" s="5" t="s"/>
-      <c r="J516" s="5" t="s"/>
-      <c r="K516" s="5" t="s"/>
-      <c r="L516" s="5" t="s"/>
-      <c r="M516" s="5" t="s"/>
-      <c r="N516" s="5" t="s"/>
-      <c r="O516" s="5" t="s"/>
-      <c r="P516" s="5" t="s"/>
-      <c r="Q516" s="5" t="s"/>
-      <c r="R516" s="5" t="s"/>
-      <c r="S516" s="5" t="s"/>
-      <c r="T516" s="5" t="s"/>
-      <c r="U516" s="5" t="s"/>
-      <c r="V516" s="5" t="s"/>
-      <c r="W516" s="5" t="s"/>
-      <c r="X516" s="5" t="s"/>
-      <c r="Y516" s="5" t="s"/>
-      <c r="Z516" s="5" t="s"/>
-    </row>
-    <row r="517" spans="1:26">
-      <c r="A517" s="6" t="s"/>
-      <c r="B517" s="7" t="s"/>
-      <c r="C517" s="8" t="s"/>
-      <c r="D517" s="5" t="s"/>
-      <c r="E517" s="5" t="s"/>
-      <c r="F517" s="5" t="s"/>
-      <c r="G517" s="5" t="s"/>
-      <c r="H517" s="5" t="s"/>
-      <c r="I517" s="5" t="s"/>
-      <c r="J517" s="5" t="s"/>
-      <c r="K517" s="5" t="s"/>
-      <c r="L517" s="5" t="s"/>
-      <c r="M517" s="5" t="s"/>
-      <c r="N517" s="5" t="s"/>
-      <c r="O517" s="5" t="s"/>
-      <c r="P517" s="5" t="s"/>
-      <c r="Q517" s="5" t="s"/>
-      <c r="R517" s="5" t="s"/>
-      <c r="S517" s="5" t="s"/>
-      <c r="T517" s="5" t="s"/>
-      <c r="U517" s="5" t="s"/>
-      <c r="V517" s="5" t="s"/>
-      <c r="W517" s="5" t="s"/>
-      <c r="X517" s="5" t="s"/>
-      <c r="Y517" s="5" t="s"/>
-      <c r="Z517" s="5" t="s"/>
-    </row>
-    <row r="518" spans="1:26">
-      <c r="A518" s="6" t="s"/>
-      <c r="B518" s="7" t="s"/>
-      <c r="C518" s="8" t="s"/>
-      <c r="D518" s="5" t="s"/>
-      <c r="E518" s="5" t="s"/>
-      <c r="F518" s="5" t="s"/>
-      <c r="G518" s="5" t="s"/>
-      <c r="H518" s="5" t="s"/>
-      <c r="I518" s="5" t="s"/>
-      <c r="J518" s="5" t="s"/>
-      <c r="K518" s="5" t="s"/>
-      <c r="L518" s="5" t="s"/>
-      <c r="M518" s="5" t="s"/>
-      <c r="N518" s="5" t="s"/>
-      <c r="O518" s="5" t="s"/>
-      <c r="P518" s="5" t="s"/>
-      <c r="Q518" s="5" t="s"/>
-      <c r="R518" s="5" t="s"/>
-      <c r="S518" s="5" t="s"/>
-      <c r="T518" s="5" t="s"/>
-      <c r="U518" s="5" t="s"/>
-      <c r="V518" s="5" t="s"/>
-      <c r="W518" s="5" t="s"/>
-      <c r="X518" s="5" t="s"/>
-      <c r="Y518" s="5" t="s"/>
-      <c r="Z518" s="5" t="s"/>
-    </row>
-    <row r="519" spans="1:26">
-      <c r="A519" s="6" t="s"/>
-      <c r="B519" s="7" t="s"/>
-      <c r="C519" s="8" t="s"/>
-      <c r="D519" s="5" t="s"/>
-      <c r="E519" s="5" t="s"/>
-      <c r="F519" s="5" t="s"/>
-      <c r="G519" s="5" t="s"/>
-      <c r="H519" s="5" t="s"/>
-      <c r="I519" s="5" t="s"/>
-      <c r="J519" s="5" t="s"/>
-      <c r="K519" s="5" t="s"/>
-      <c r="L519" s="5" t="s"/>
-      <c r="M519" s="5" t="s"/>
-      <c r="N519" s="5" t="s"/>
-      <c r="O519" s="5" t="s"/>
-      <c r="P519" s="5" t="s"/>
-      <c r="Q519" s="5" t="s"/>
-      <c r="R519" s="5" t="s"/>
-      <c r="S519" s="5" t="s"/>
-      <c r="T519" s="5" t="s"/>
-      <c r="U519" s="5" t="s"/>
-      <c r="V519" s="5" t="s"/>
-      <c r="W519" s="5" t="s"/>
-      <c r="X519" s="5" t="s"/>
-      <c r="Y519" s="5" t="s"/>
-      <c r="Z519" s="5" t="s"/>
-    </row>
-    <row r="520" spans="1:26">
-      <c r="A520" s="6" t="s"/>
-      <c r="B520" s="7" t="s"/>
-      <c r="C520" s="8" t="s"/>
-      <c r="D520" s="5" t="s"/>
-      <c r="E520" s="5" t="s"/>
-      <c r="F520" s="5" t="s"/>
-      <c r="G520" s="5" t="s"/>
-      <c r="H520" s="5" t="s"/>
-      <c r="I520" s="5" t="s"/>
-      <c r="J520" s="5" t="s"/>
-      <c r="K520" s="5" t="s"/>
-      <c r="L520" s="5" t="s"/>
-      <c r="M520" s="5" t="s"/>
-      <c r="N520" s="5" t="s"/>
-      <c r="O520" s="5" t="s"/>
-      <c r="P520" s="5" t="s"/>
-      <c r="Q520" s="5" t="s"/>
-      <c r="R520" s="5" t="s"/>
-      <c r="S520" s="5" t="s"/>
-      <c r="T520" s="5" t="s"/>
-      <c r="U520" s="5" t="s"/>
-      <c r="V520" s="5" t="s"/>
-      <c r="W520" s="5" t="s"/>
-      <c r="X520" s="5" t="s"/>
-      <c r="Y520" s="5" t="s"/>
-      <c r="Z520" s="5" t="s"/>
-    </row>
-    <row r="521" spans="1:26">
-      <c r="A521" s="6" t="s"/>
-      <c r="B521" s="7" t="s"/>
-      <c r="C521" s="8" t="s"/>
-      <c r="D521" s="5" t="s"/>
-      <c r="E521" s="5" t="s"/>
-      <c r="F521" s="5" t="s"/>
-      <c r="G521" s="5" t="s"/>
-      <c r="H521" s="5" t="s"/>
-      <c r="I521" s="5" t="s"/>
-      <c r="J521" s="5" t="s"/>
-      <c r="K521" s="5" t="s"/>
-      <c r="L521" s="5" t="s"/>
-      <c r="M521" s="5" t="s"/>
-      <c r="N521" s="5" t="s"/>
-      <c r="O521" s="5" t="s"/>
-      <c r="P521" s="5" t="s"/>
-      <c r="Q521" s="5" t="s"/>
-      <c r="R521" s="5" t="s"/>
-      <c r="S521" s="5" t="s"/>
-      <c r="T521" s="5" t="s"/>
-      <c r="U521" s="5" t="s"/>
-      <c r="V521" s="5" t="s"/>
-      <c r="W521" s="5" t="s"/>
-      <c r="X521" s="5" t="s"/>
-      <c r="Y521" s="5" t="s"/>
-      <c r="Z521" s="5" t="s"/>
-    </row>
-    <row r="522" spans="1:26">
-      <c r="A522" s="6" t="s"/>
-      <c r="B522" s="7" t="s"/>
-      <c r="C522" s="8" t="s"/>
-      <c r="D522" s="5" t="s"/>
-      <c r="E522" s="5" t="s"/>
-      <c r="F522" s="5" t="s"/>
-      <c r="G522" s="5" t="s"/>
-      <c r="H522" s="5" t="s"/>
-      <c r="I522" s="5" t="s"/>
-      <c r="J522" s="5" t="s"/>
-      <c r="K522" s="5" t="s"/>
-      <c r="L522" s="5" t="s"/>
-      <c r="M522" s="5" t="s"/>
-      <c r="N522" s="5" t="s"/>
-      <c r="O522" s="5" t="s"/>
-      <c r="P522" s="5" t="s"/>
-      <c r="Q522" s="5" t="s"/>
-      <c r="R522" s="5" t="s"/>
-      <c r="S522" s="5" t="s"/>
-      <c r="T522" s="5" t="s"/>
-      <c r="U522" s="5" t="s"/>
-      <c r="V522" s="5" t="s"/>
-      <c r="W522" s="5" t="s"/>
-      <c r="X522" s="5" t="s"/>
-      <c r="Y522" s="5" t="s"/>
-      <c r="Z522" s="5" t="s"/>
-    </row>
-    <row r="523" spans="1:26">
-      <c r="A523" s="6" t="s"/>
-      <c r="B523" s="7" t="s"/>
-      <c r="C523" s="8" t="s"/>
-      <c r="D523" s="5" t="s"/>
-      <c r="E523" s="5" t="s"/>
-      <c r="F523" s="5" t="s"/>
-      <c r="G523" s="5" t="s"/>
-      <c r="H523" s="5" t="s"/>
-      <c r="I523" s="5" t="s"/>
-      <c r="J523" s="5" t="s"/>
-      <c r="K523" s="5" t="s"/>
-      <c r="L523" s="5" t="s"/>
-      <c r="M523" s="5" t="s"/>
-      <c r="N523" s="5" t="s"/>
-      <c r="O523" s="5" t="s"/>
-      <c r="P523" s="5" t="s"/>
-      <c r="Q523" s="5" t="s"/>
-      <c r="R523" s="5" t="s"/>
-      <c r="S523" s="5" t="s"/>
-      <c r="T523" s="5" t="s"/>
-      <c r="U523" s="5" t="s"/>
-      <c r="V523" s="5" t="s"/>
-      <c r="W523" s="5" t="s"/>
-      <c r="X523" s="5" t="s"/>
-      <c r="Y523" s="5" t="s"/>
-      <c r="Z523" s="5" t="s"/>
-    </row>
-    <row r="524" spans="1:26">
-      <c r="A524" s="6" t="s"/>
-      <c r="B524" s="7" t="s"/>
-      <c r="C524" s="8" t="s"/>
-      <c r="D524" s="5" t="s"/>
-      <c r="E524" s="5" t="s"/>
-      <c r="F524" s="5" t="s"/>
-      <c r="G524" s="5" t="s"/>
-      <c r="H524" s="5" t="s"/>
-      <c r="I524" s="5" t="s"/>
-      <c r="J524" s="5" t="s"/>
-      <c r="K524" s="5" t="s"/>
-      <c r="L524" s="5" t="s"/>
-      <c r="M524" s="5" t="s"/>
-      <c r="N524" s="5" t="s"/>
-      <c r="O524" s="5" t="s"/>
-      <c r="P524" s="5" t="s"/>
-      <c r="Q524" s="5" t="s"/>
-      <c r="R524" s="5" t="s"/>
-      <c r="S524" s="5" t="s"/>
-      <c r="T524" s="5" t="s"/>
-      <c r="U524" s="5" t="s"/>
-      <c r="V524" s="5" t="s"/>
-      <c r="W524" s="5" t="s"/>
-      <c r="X524" s="5" t="s"/>
-      <c r="Y524" s="5" t="s"/>
-      <c r="Z524" s="5" t="s"/>
-    </row>
-    <row r="525" spans="1:26">
-      <c r="A525" s="6" t="s"/>
-      <c r="B525" s="7" t="s"/>
-      <c r="C525" s="8" t="s"/>
-      <c r="D525" s="5" t="s"/>
-      <c r="E525" s="5" t="s"/>
-      <c r="F525" s="5" t="s"/>
-      <c r="G525" s="5" t="s"/>
-      <c r="H525" s="5" t="s"/>
-      <c r="I525" s="5" t="s"/>
-      <c r="J525" s="5" t="s"/>
-      <c r="K525" s="5" t="s"/>
-      <c r="L525" s="5" t="s"/>
-      <c r="M525" s="5" t="s"/>
-      <c r="N525" s="5" t="s"/>
-      <c r="O525" s="5" t="s"/>
-      <c r="P525" s="5" t="s"/>
-      <c r="Q525" s="5" t="s"/>
-      <c r="R525" s="5" t="s"/>
-      <c r="S525" s="5" t="s"/>
-      <c r="T525" s="5" t="s"/>
-      <c r="U525" s="5" t="s"/>
-      <c r="V525" s="5" t="s"/>
-      <c r="W525" s="5" t="s"/>
-      <c r="X525" s="5" t="s"/>
-      <c r="Y525" s="5" t="s"/>
-      <c r="Z525" s="5" t="s"/>
-    </row>
-    <row r="526" spans="1:26">
-      <c r="A526" s="6" t="s"/>
-      <c r="B526" s="7" t="s"/>
-      <c r="C526" s="8" t="s"/>
-      <c r="D526" s="5" t="s"/>
+      <c r="B526" s="7" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C526" s="8" t="s">
+        <v>1025</v>
+      </c>
       <c r="E526" s="5" t="s"/>
       <c r="F526" s="5" t="s"/>
       <c r="G526" s="5" t="s"/>
@@ -21284,8 +21408,288 @@
       <c r="Y526" s="5" t="s"/>
       <c r="Z526" s="5" t="s"/>
     </row>
+    <row r="527" spans="1:26">
+      <c r="A527" s="6" t="s"/>
+      <c r="B527" s="7" t="s"/>
+      <c r="C527" s="8" t="s"/>
+      <c r="D527" s="5" t="s"/>
+      <c r="E527" s="5" t="s"/>
+      <c r="F527" s="5" t="s"/>
+      <c r="G527" s="5" t="s"/>
+      <c r="H527" s="5" t="s"/>
+      <c r="I527" s="5" t="s"/>
+      <c r="J527" s="5" t="s"/>
+      <c r="K527" s="5" t="s"/>
+      <c r="L527" s="5" t="s"/>
+      <c r="M527" s="5" t="s"/>
+      <c r="N527" s="5" t="s"/>
+      <c r="O527" s="5" t="s"/>
+      <c r="P527" s="5" t="s"/>
+      <c r="Q527" s="5" t="s"/>
+      <c r="R527" s="5" t="s"/>
+      <c r="S527" s="5" t="s"/>
+      <c r="T527" s="5" t="s"/>
+      <c r="U527" s="5" t="s"/>
+      <c r="V527" s="5" t="s"/>
+      <c r="W527" s="5" t="s"/>
+      <c r="X527" s="5" t="s"/>
+      <c r="Y527" s="5" t="s"/>
+      <c r="Z527" s="5" t="s"/>
+    </row>
+    <row r="528" spans="1:26">
+      <c r="A528" s="6" t="s"/>
+      <c r="B528" s="7" t="s"/>
+      <c r="C528" s="8" t="s"/>
+      <c r="D528" s="5" t="s"/>
+      <c r="E528" s="5" t="s"/>
+      <c r="F528" s="5" t="s"/>
+      <c r="G528" s="5" t="s"/>
+      <c r="H528" s="5" t="s"/>
+      <c r="I528" s="5" t="s"/>
+      <c r="J528" s="5" t="s"/>
+      <c r="K528" s="5" t="s"/>
+      <c r="L528" s="5" t="s"/>
+      <c r="M528" s="5" t="s"/>
+      <c r="N528" s="5" t="s"/>
+      <c r="O528" s="5" t="s"/>
+      <c r="P528" s="5" t="s"/>
+      <c r="Q528" s="5" t="s"/>
+      <c r="R528" s="5" t="s"/>
+      <c r="S528" s="5" t="s"/>
+      <c r="T528" s="5" t="s"/>
+      <c r="U528" s="5" t="s"/>
+      <c r="V528" s="5" t="s"/>
+      <c r="W528" s="5" t="s"/>
+      <c r="X528" s="5" t="s"/>
+      <c r="Y528" s="5" t="s"/>
+      <c r="Z528" s="5" t="s"/>
+    </row>
+    <row r="529" spans="1:26">
+      <c r="A529" s="6" t="s"/>
+      <c r="B529" s="7" t="s"/>
+      <c r="C529" s="8" t="s"/>
+      <c r="D529" s="5" t="s"/>
+      <c r="E529" s="5" t="s"/>
+      <c r="F529" s="5" t="s"/>
+      <c r="G529" s="5" t="s"/>
+      <c r="H529" s="5" t="s"/>
+      <c r="I529" s="5" t="s"/>
+      <c r="J529" s="5" t="s"/>
+      <c r="K529" s="5" t="s"/>
+      <c r="L529" s="5" t="s"/>
+      <c r="M529" s="5" t="s"/>
+      <c r="N529" s="5" t="s"/>
+      <c r="O529" s="5" t="s"/>
+      <c r="P529" s="5" t="s"/>
+      <c r="Q529" s="5" t="s"/>
+      <c r="R529" s="5" t="s"/>
+      <c r="S529" s="5" t="s"/>
+      <c r="T529" s="5" t="s"/>
+      <c r="U529" s="5" t="s"/>
+      <c r="V529" s="5" t="s"/>
+      <c r="W529" s="5" t="s"/>
+      <c r="X529" s="5" t="s"/>
+      <c r="Y529" s="5" t="s"/>
+      <c r="Z529" s="5" t="s"/>
+    </row>
+    <row r="530" spans="1:26">
+      <c r="A530" s="6" t="s"/>
+      <c r="B530" s="7" t="s"/>
+      <c r="C530" s="8" t="s"/>
+      <c r="D530" s="5" t="s"/>
+      <c r="E530" s="5" t="s"/>
+      <c r="F530" s="5" t="s"/>
+      <c r="G530" s="5" t="s"/>
+      <c r="H530" s="5" t="s"/>
+      <c r="I530" s="5" t="s"/>
+      <c r="J530" s="5" t="s"/>
+      <c r="K530" s="5" t="s"/>
+      <c r="L530" s="5" t="s"/>
+      <c r="M530" s="5" t="s"/>
+      <c r="N530" s="5" t="s"/>
+      <c r="O530" s="5" t="s"/>
+      <c r="P530" s="5" t="s"/>
+      <c r="Q530" s="5" t="s"/>
+      <c r="R530" s="5" t="s"/>
+      <c r="S530" s="5" t="s"/>
+      <c r="T530" s="5" t="s"/>
+      <c r="U530" s="5" t="s"/>
+      <c r="V530" s="5" t="s"/>
+      <c r="W530" s="5" t="s"/>
+      <c r="X530" s="5" t="s"/>
+      <c r="Y530" s="5" t="s"/>
+      <c r="Z530" s="5" t="s"/>
+    </row>
+    <row r="531" spans="1:26">
+      <c r="A531" s="6" t="s"/>
+      <c r="B531" s="7" t="s"/>
+      <c r="C531" s="8" t="s"/>
+      <c r="D531" s="5" t="s"/>
+      <c r="E531" s="5" t="s"/>
+      <c r="F531" s="5" t="s"/>
+      <c r="G531" s="5" t="s"/>
+      <c r="H531" s="5" t="s"/>
+      <c r="I531" s="5" t="s"/>
+      <c r="J531" s="5" t="s"/>
+      <c r="K531" s="5" t="s"/>
+      <c r="L531" s="5" t="s"/>
+      <c r="M531" s="5" t="s"/>
+      <c r="N531" s="5" t="s"/>
+      <c r="O531" s="5" t="s"/>
+      <c r="P531" s="5" t="s"/>
+      <c r="Q531" s="5" t="s"/>
+      <c r="R531" s="5" t="s"/>
+      <c r="S531" s="5" t="s"/>
+      <c r="T531" s="5" t="s"/>
+      <c r="U531" s="5" t="s"/>
+      <c r="V531" s="5" t="s"/>
+      <c r="W531" s="5" t="s"/>
+      <c r="X531" s="5" t="s"/>
+      <c r="Y531" s="5" t="s"/>
+      <c r="Z531" s="5" t="s"/>
+    </row>
+    <row r="532" spans="1:26">
+      <c r="A532" s="6" t="s"/>
+      <c r="B532" s="7" t="s"/>
+      <c r="C532" s="8" t="s"/>
+      <c r="D532" s="5" t="s"/>
+      <c r="E532" s="5" t="s"/>
+      <c r="F532" s="5" t="s"/>
+      <c r="G532" s="5" t="s"/>
+      <c r="H532" s="5" t="s"/>
+      <c r="I532" s="5" t="s"/>
+      <c r="J532" s="5" t="s"/>
+      <c r="K532" s="5" t="s"/>
+      <c r="L532" s="5" t="s"/>
+      <c r="M532" s="5" t="s"/>
+      <c r="N532" s="5" t="s"/>
+      <c r="O532" s="5" t="s"/>
+      <c r="P532" s="5" t="s"/>
+      <c r="Q532" s="5" t="s"/>
+      <c r="R532" s="5" t="s"/>
+      <c r="S532" s="5" t="s"/>
+      <c r="T532" s="5" t="s"/>
+      <c r="U532" s="5" t="s"/>
+      <c r="V532" s="5" t="s"/>
+      <c r="W532" s="5" t="s"/>
+      <c r="X532" s="5" t="s"/>
+      <c r="Y532" s="5" t="s"/>
+      <c r="Z532" s="5" t="s"/>
+    </row>
+    <row r="533" spans="1:26">
+      <c r="A533" s="6" t="s"/>
+      <c r="B533" s="7" t="s"/>
+      <c r="C533" s="8" t="s"/>
+      <c r="D533" s="5" t="s"/>
+      <c r="E533" s="5" t="s"/>
+      <c r="F533" s="5" t="s"/>
+      <c r="G533" s="5" t="s"/>
+      <c r="H533" s="5" t="s"/>
+      <c r="I533" s="5" t="s"/>
+      <c r="J533" s="5" t="s"/>
+      <c r="K533" s="5" t="s"/>
+      <c r="L533" s="5" t="s"/>
+      <c r="M533" s="5" t="s"/>
+      <c r="N533" s="5" t="s"/>
+      <c r="O533" s="5" t="s"/>
+      <c r="P533" s="5" t="s"/>
+      <c r="Q533" s="5" t="s"/>
+      <c r="R533" s="5" t="s"/>
+      <c r="S533" s="5" t="s"/>
+      <c r="T533" s="5" t="s"/>
+      <c r="U533" s="5" t="s"/>
+      <c r="V533" s="5" t="s"/>
+      <c r="W533" s="5" t="s"/>
+      <c r="X533" s="5" t="s"/>
+      <c r="Y533" s="5" t="s"/>
+      <c r="Z533" s="5" t="s"/>
+    </row>
+    <row r="534" spans="1:26">
+      <c r="A534" s="6" t="s"/>
+      <c r="B534" s="7" t="s"/>
+      <c r="C534" s="8" t="s"/>
+      <c r="D534" s="5" t="s"/>
+      <c r="E534" s="5" t="s"/>
+      <c r="F534" s="5" t="s"/>
+      <c r="G534" s="5" t="s"/>
+      <c r="H534" s="5" t="s"/>
+      <c r="I534" s="5" t="s"/>
+      <c r="J534" s="5" t="s"/>
+      <c r="K534" s="5" t="s"/>
+      <c r="L534" s="5" t="s"/>
+      <c r="M534" s="5" t="s"/>
+      <c r="N534" s="5" t="s"/>
+      <c r="O534" s="5" t="s"/>
+      <c r="P534" s="5" t="s"/>
+      <c r="Q534" s="5" t="s"/>
+      <c r="R534" s="5" t="s"/>
+      <c r="S534" s="5" t="s"/>
+      <c r="T534" s="5" t="s"/>
+      <c r="U534" s="5" t="s"/>
+      <c r="V534" s="5" t="s"/>
+      <c r="W534" s="5" t="s"/>
+      <c r="X534" s="5" t="s"/>
+      <c r="Y534" s="5" t="s"/>
+      <c r="Z534" s="5" t="s"/>
+    </row>
+    <row r="535" spans="1:26">
+      <c r="A535" s="6" t="s"/>
+      <c r="B535" s="7" t="s"/>
+      <c r="C535" s="8" t="s"/>
+      <c r="D535" s="5" t="s"/>
+      <c r="E535" s="5" t="s"/>
+      <c r="F535" s="5" t="s"/>
+      <c r="G535" s="5" t="s"/>
+      <c r="H535" s="5" t="s"/>
+      <c r="I535" s="5" t="s"/>
+      <c r="J535" s="5" t="s"/>
+      <c r="K535" s="5" t="s"/>
+      <c r="L535" s="5" t="s"/>
+      <c r="M535" s="5" t="s"/>
+      <c r="N535" s="5" t="s"/>
+      <c r="O535" s="5" t="s"/>
+      <c r="P535" s="5" t="s"/>
+      <c r="Q535" s="5" t="s"/>
+      <c r="R535" s="5" t="s"/>
+      <c r="S535" s="5" t="s"/>
+      <c r="T535" s="5" t="s"/>
+      <c r="U535" s="5" t="s"/>
+      <c r="V535" s="5" t="s"/>
+      <c r="W535" s="5" t="s"/>
+      <c r="X535" s="5" t="s"/>
+      <c r="Y535" s="5" t="s"/>
+      <c r="Z535" s="5" t="s"/>
+    </row>
+    <row r="536" spans="1:26">
+      <c r="A536" s="6" t="s"/>
+      <c r="B536" s="7" t="s"/>
+      <c r="C536" s="8" t="s"/>
+      <c r="D536" s="5" t="s"/>
+      <c r="E536" s="5" t="s"/>
+      <c r="F536" s="5" t="s"/>
+      <c r="G536" s="5" t="s"/>
+      <c r="H536" s="5" t="s"/>
+      <c r="I536" s="5" t="s"/>
+      <c r="J536" s="5" t="s"/>
+      <c r="K536" s="5" t="s"/>
+      <c r="L536" s="5" t="s"/>
+      <c r="M536" s="5" t="s"/>
+      <c r="N536" s="5" t="s"/>
+      <c r="O536" s="5" t="s"/>
+      <c r="P536" s="5" t="s"/>
+      <c r="Q536" s="5" t="s"/>
+      <c r="R536" s="5" t="s"/>
+      <c r="S536" s="5" t="s"/>
+      <c r="T536" s="5" t="s"/>
+      <c r="U536" s="5" t="s"/>
+      <c r="V536" s="5" t="s"/>
+      <c r="W536" s="5" t="s"/>
+      <c r="X536" s="5" t="s"/>
+      <c r="Y536" s="5" t="s"/>
+      <c r="Z536" s="5" t="s"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C526 D1">
+  <conditionalFormatting sqref="C1:C536 D1">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="，">
       <formula>NOT(ISERROR(SEARCH("，",C1)))</formula>
     </cfRule>

--- a/backend/config/nickname_song.xlsx
+++ b/backend/config/nickname_song.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="1037">
   <si>
     <t/>
   </si>
@@ -2634,13 +2634,13 @@
     <t>Invincible Fighter</t>
   </si>
   <si>
-    <t>op,if,Invisible Frenzy（</t>
+    <t>op,if,Invisible Frenzy</t>
   </si>
   <si>
     <t>Takin’ my Heart</t>
   </si>
   <si>
-    <t>朝日六花夺走我的心,夺心</t>
+    <t>夺走我的心,夺心</t>
   </si>
   <si>
     <t>スカイクラッドの観測者</t>
@@ -2724,7 +2724,7 @@
     <t>群青</t>
   </si>
   <si>
-    <t>啊啊啊啊啊啊啊啊啊啊,群青</t>
+    <t>啊啊啊啊啊啊啊啊啊啊</t>
   </si>
   <si>
     <t>フォニイ</t>
@@ -2829,7 +2829,7 @@
     <t>Glee! Glee! Glee!</t>
   </si>
   <si>
-    <t>格里,格力,格立,格利</t>
+    <t>格里,格力,格立,格利,ggg</t>
   </si>
   <si>
     <t>[超高難易度 新SPECIAL] HELL! or HELL?</t>
@@ -2874,7 +2874,7 @@
     <t>最強☆ソング</t>
   </si>
   <si>
-    <t>最强歌,最强song,Saikyo song,Saikyo Stronger（</t>
+    <t>最强歌,最强song,Saikyo song,Saikyo Stronger</t>
   </si>
   <si>
     <t>ヒロイン育成計画</t>
@@ -2886,7 +2886,7 @@
     <t>少女レイ</t>
   </si>
   <si>
-    <t>少女rei,你要的海底谭（,Layer</t>
+    <t>少女rei,你要的海底谭,Layer</t>
   </si>
   <si>
     <t>チューリングラブ</t>
@@ -2898,7 +2898,7 @@
     <t>踊</t>
   </si>
   <si>
-    <t>Odo,踊</t>
+    <t>Odo</t>
   </si>
   <si>
     <t>アイウエ</t>
@@ -2934,9 +2934,6 @@
     <t>キミを れっつ・はぶ・ふぁん♪</t>
   </si>
   <si>
-    <t>Kimiwa Let's have fun, 小atz</t>
-  </si>
-  <si>
     <t>ダンスホール</t>
   </si>
   <si>
@@ -2976,6 +2973,9 @@
     <t>没六星,再看半集的小曲,再看半集の小曲儿</t>
   </si>
   <si>
+    <t>2023年9月25日，栞还是没六星</t>
+  </si>
+  <si>
     <t>QUEEN</t>
   </si>
   <si>
@@ -2985,6 +2985,9 @@
     <t>碧天伴走</t>
   </si>
   <si>
+    <t>逆天伴走</t>
+  </si>
+  <si>
     <t>Get Wild</t>
   </si>
   <si>
@@ -2994,6 +2997,9 @@
     <t>HOT LIMIT</t>
   </si>
   <si>
+    <t>教主,西川贵教</t>
+  </si>
+  <si>
     <t>私色きらめき日和</t>
   </si>
   <si>
@@ -3015,9 +3021,6 @@
     <t>ふぁいぶスマイル◯オールインっ！</t>
   </si>
   <si>
-    <t>我超,⚪</t>
-  </si>
-  <si>
     <t>迷路日々</t>
   </si>
   <si>
@@ -3027,13 +3030,10 @@
     <t>燦々</t>
   </si>
   <si>
-    <t>sansan,史</t>
-  </si>
-  <si>
     <t>ほな！</t>
   </si>
   <si>
-    <t>Hona!</t>
+    <t>西游记</t>
   </si>
   <si>
     <t>flow,你邦男声,优胜</t>
@@ -3081,10 +3081,40 @@
     <t>トウキョウ・シャンディ・ランデヴ</t>
   </si>
   <si>
+    <t>东京香蒂幽会</t>
+  </si>
+  <si>
     <t>Be born</t>
   </si>
   <si>
     <t>出生</t>
+  </si>
+  <si>
+    <t>影色舞</t>
+  </si>
+  <si>
+    <t>歌いましょう鳴らしましょう</t>
+  </si>
+  <si>
+    <t>歌鸣</t>
+  </si>
+  <si>
+    <t>THRONE OF ROSE</t>
+  </si>
+  <si>
+    <t>猛独が襲う</t>
+  </si>
+  <si>
+    <t>独孤猛袭,孤独猛袭,猛独孤袭</t>
+  </si>
+  <si>
+    <t>swim</t>
+  </si>
+  <si>
+    <t>游泳</t>
+  </si>
+  <si>
+    <t>everyday flower</t>
   </si>
   <si>
     <t>彩虹节拍</t>
@@ -3550,7 +3580,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="Z536"/>
+  <dimension ref="Z544"/>
   <sheetViews>
     <sheetView showGridLines="true" rightToLeft="false" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="A2" state="frozen"/>
@@ -10103,7 +10133,7 @@
         <v>388</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>1026</v>
+        <v>1036</v>
       </c>
       <c r="D193" s="5" t="s"/>
       <c r="E193" s="5" t="s"/>
@@ -19778,9 +19808,7 @@
       <c r="B478" s="7" t="s">
         <v>945</v>
       </c>
-      <c r="C478" s="8" t="s">
-        <v>945</v>
-      </c>
+      <c r="C478" s="8" t="s"/>
       <c r="D478" s="5" t="s"/>
       <c r="E478" s="5" t="s"/>
       <c r="F478" s="5" t="s"/>
@@ -20254,9 +20282,7 @@
       <c r="B492" s="7" t="s">
         <v>972</v>
       </c>
-      <c r="C492" s="8" t="s">
-        <v>973</v>
-      </c>
+      <c r="C492" s="8" t="s"/>
       <c r="D492" s="5" t="s"/>
       <c r="E492" s="5" t="s"/>
       <c r="F492" s="5" t="s"/>
@@ -20286,7 +20312,7 @@
         <v>506</v>
       </c>
       <c r="B493" s="16" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C493" s="17" t="s"/>
       <c r="D493" s="18" t="s"/>
@@ -20318,10 +20344,10 @@
         <v>507</v>
       </c>
       <c r="B494" s="16" t="s">
+        <v>974</v>
+      </c>
+      <c r="C494" s="17" t="s">
         <v>975</v>
-      </c>
-      <c r="C494" s="17" t="s">
-        <v>976</v>
       </c>
       <c r="D494" s="18" t="s"/>
       <c r="E494" s="18" t="s"/>
@@ -20352,10 +20378,10 @@
         <v>508</v>
       </c>
       <c r="B495" s="16" t="s">
+        <v>976</v>
+      </c>
+      <c r="C495" s="17" t="s">
         <v>977</v>
-      </c>
-      <c r="C495" s="17" t="s">
-        <v>978</v>
       </c>
       <c r="D495" s="18" t="s"/>
       <c r="E495" s="18" t="s"/>
@@ -20386,10 +20412,10 @@
         <v>509</v>
       </c>
       <c r="B496" s="16" t="s">
+        <v>978</v>
+      </c>
+      <c r="C496" s="17" t="s">
         <v>979</v>
-      </c>
-      <c r="C496" s="17" t="s">
-        <v>980</v>
       </c>
       <c r="D496" s="18" t="s"/>
       <c r="E496" s="18" t="s"/>
@@ -20420,7 +20446,7 @@
         <v>510</v>
       </c>
       <c r="B497" s="16" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C497" s="17" t="s"/>
       <c r="D497" s="18" t="s"/>
@@ -20452,7 +20478,7 @@
         <v>511</v>
       </c>
       <c r="B498" s="16" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C498" s="17" t="s"/>
       <c r="D498" s="18" t="s"/>
@@ -20484,10 +20510,10 @@
         <v>512</v>
       </c>
       <c r="B499" s="16" t="s">
+        <v>982</v>
+      </c>
+      <c r="C499" s="17" t="s">
         <v>983</v>
-      </c>
-      <c r="C499" s="17" t="s">
-        <v>984</v>
       </c>
       <c r="D499" s="18" t="s"/>
       <c r="E499" s="18" t="s"/>
@@ -20518,12 +20544,14 @@
         <v>513</v>
       </c>
       <c r="B500" s="16" t="s">
+        <v>984</v>
+      </c>
+      <c r="C500" s="17" t="s">
         <v>985</v>
       </c>
-      <c r="C500" s="17" t="s">
+      <c r="D500" s="18" t="s">
         <v>986</v>
       </c>
-      <c r="D500" s="18" t="s"/>
       <c r="E500" s="18" t="s"/>
       <c r="F500" s="18" t="s"/>
       <c r="G500" s="18" t="s"/>
@@ -20589,7 +20617,7 @@
         <v>989</v>
       </c>
       <c r="C502" s="17" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="D502" s="18" t="s"/>
       <c r="E502" s="18" t="s"/>
@@ -20620,7 +20648,7 @@
         <v>516</v>
       </c>
       <c r="B503" s="16" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C503" s="17" t="s"/>
       <c r="D503" s="18" t="s"/>
@@ -20652,7 +20680,7 @@
         <v>517</v>
       </c>
       <c r="B504" s="16" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C504" s="17" t="s"/>
       <c r="D504" s="18" t="s"/>
@@ -20684,9 +20712,11 @@
         <v>518</v>
       </c>
       <c r="B505" s="16" t="s">
-        <v>992</v>
-      </c>
-      <c r="C505" s="17" t="s"/>
+        <v>993</v>
+      </c>
+      <c r="C505" s="17" t="s">
+        <v>994</v>
+      </c>
       <c r="D505" s="18" t="s"/>
       <c r="E505" s="18" t="s"/>
       <c r="F505" s="18" t="s"/>
@@ -20716,7 +20746,7 @@
         <v>519</v>
       </c>
       <c r="B506" s="16" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="C506" s="17" t="s"/>
       <c r="D506" s="18" t="s"/>
@@ -20748,10 +20778,10 @@
         <v>521</v>
       </c>
       <c r="B507" s="16" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="C507" s="17" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="D507" s="18" t="s"/>
       <c r="E507" s="18" t="s"/>
@@ -20782,10 +20812,10 @@
         <v>522</v>
       </c>
       <c r="B508" s="16" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="C508" s="17" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="D508" s="18" t="s"/>
       <c r="E508" s="18" t="s"/>
@@ -20816,7 +20846,7 @@
         <v>523</v>
       </c>
       <c r="B509" s="16" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="C509" s="17" t="s"/>
       <c r="D509" s="18" t="s"/>
@@ -20848,11 +20878,9 @@
         <v>524</v>
       </c>
       <c r="B510" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="C510" s="17" t="s">
-        <v>1000</v>
-      </c>
+        <v>1001</v>
+      </c>
+      <c r="C510" s="17" t="s"/>
       <c r="D510" s="18" t="s"/>
       <c r="E510" s="18" t="s"/>
       <c r="F510" s="18" t="s"/>
@@ -20882,10 +20910,10 @@
         <v>525</v>
       </c>
       <c r="B511" s="16" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C511" s="17" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D511" s="18" t="s"/>
       <c r="E511" s="18" t="s"/>
@@ -20916,11 +20944,9 @@
         <v>526</v>
       </c>
       <c r="B512" s="16" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C512" s="17" t="s">
         <v>1004</v>
       </c>
+      <c r="C512" s="17" t="s"/>
       <c r="D512" s="18" t="s"/>
       <c r="E512" s="18" t="s"/>
       <c r="F512" s="18" t="s"/>
@@ -21088,9 +21114,7 @@
       <c r="B517" s="16" t="s">
         <v>1012</v>
       </c>
-      <c r="C517" s="17" t="s">
-        <v>1012</v>
-      </c>
+      <c r="C517" s="17" t="s"/>
       <c r="D517" s="18" t="s"/>
       <c r="E517" s="18" t="s"/>
       <c r="F517" s="18" t="s"/>
@@ -21288,7 +21312,9 @@
       <c r="B523" s="16" t="s">
         <v>1021</v>
       </c>
-      <c r="C523" s="17" t="s"/>
+      <c r="C523" s="17" t="s">
+        <v>1022</v>
+      </c>
       <c r="D523" s="18" t="s"/>
       <c r="E523" s="18" t="s"/>
       <c r="F523" s="18" t="s"/>
@@ -21318,10 +21344,10 @@
         <v>539</v>
       </c>
       <c r="B524" s="16" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C524" s="17" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D524" s="18" t="s"/>
       <c r="E524" s="18" t="s"/>
@@ -21348,8 +21374,12 @@
       <c r="Z524" s="18" t="s"/>
     </row>
     <row r="525" spans="1:26">
-      <c r="A525" s="16" t="s"/>
-      <c r="B525" s="16" t="s"/>
+      <c r="A525" s="16">
+        <v>540</v>
+      </c>
+      <c r="B525" s="16" t="s">
+        <v>1025</v>
+      </c>
       <c r="C525" s="17" t="s"/>
       <c r="D525" s="18" t="s"/>
       <c r="E525" s="18" t="s"/>
@@ -21376,239 +21406,271 @@
       <c r="Z525" s="18" t="s"/>
     </row>
     <row r="526" spans="1:26">
-      <c r="A526" s="6">
+      <c r="A526" s="16">
+        <v>541</v>
+      </c>
+      <c r="B526" s="16" t="s"/>
+      <c r="C526" s="17" t="s"/>
+      <c r="D526" s="18" t="s"/>
+      <c r="E526" s="18" t="s"/>
+      <c r="F526" s="18" t="s"/>
+      <c r="G526" s="18" t="s"/>
+      <c r="H526" s="18" t="s"/>
+      <c r="I526" s="18" t="s"/>
+      <c r="J526" s="18" t="s"/>
+      <c r="K526" s="18" t="s"/>
+      <c r="L526" s="18" t="s"/>
+      <c r="M526" s="18" t="s"/>
+      <c r="N526" s="18" t="s"/>
+      <c r="O526" s="18" t="s"/>
+      <c r="P526" s="18" t="s"/>
+      <c r="Q526" s="18" t="s"/>
+      <c r="R526" s="18" t="s"/>
+      <c r="S526" s="18" t="s"/>
+      <c r="T526" s="18" t="s"/>
+      <c r="U526" s="18" t="s"/>
+      <c r="V526" s="18" t="s"/>
+      <c r="W526" s="18" t="s"/>
+      <c r="X526" s="18" t="s"/>
+      <c r="Y526" s="18" t="s"/>
+      <c r="Z526" s="18" t="s"/>
+    </row>
+    <row r="527" spans="1:26">
+      <c r="A527" s="16">
+        <v>542</v>
+      </c>
+      <c r="B527" s="16" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C527" s="17" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D527" s="18" t="s"/>
+      <c r="E527" s="18" t="s"/>
+      <c r="F527" s="18" t="s"/>
+      <c r="G527" s="18" t="s"/>
+      <c r="H527" s="18" t="s"/>
+      <c r="I527" s="18" t="s"/>
+      <c r="J527" s="18" t="s"/>
+      <c r="K527" s="18" t="s"/>
+      <c r="L527" s="18" t="s"/>
+      <c r="M527" s="18" t="s"/>
+      <c r="N527" s="18" t="s"/>
+      <c r="O527" s="18" t="s"/>
+      <c r="P527" s="18" t="s"/>
+      <c r="Q527" s="18" t="s"/>
+      <c r="R527" s="18" t="s"/>
+      <c r="S527" s="18" t="s"/>
+      <c r="T527" s="18" t="s"/>
+      <c r="U527" s="18" t="s"/>
+      <c r="V527" s="18" t="s"/>
+      <c r="W527" s="18" t="s"/>
+      <c r="X527" s="18" t="s"/>
+      <c r="Y527" s="18" t="s"/>
+      <c r="Z527" s="18" t="s"/>
+    </row>
+    <row r="528" spans="1:26">
+      <c r="A528" s="16">
+        <v>543</v>
+      </c>
+      <c r="B528" s="16" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C528" s="17" t="s"/>
+      <c r="D528" s="18" t="s"/>
+      <c r="E528" s="18" t="s"/>
+      <c r="F528" s="18" t="s"/>
+      <c r="G528" s="18" t="s"/>
+      <c r="H528" s="18" t="s"/>
+      <c r="I528" s="18" t="s"/>
+      <c r="J528" s="18" t="s"/>
+      <c r="K528" s="18" t="s"/>
+      <c r="L528" s="18" t="s"/>
+      <c r="M528" s="18" t="s"/>
+      <c r="N528" s="18" t="s"/>
+      <c r="O528" s="18" t="s"/>
+      <c r="P528" s="18" t="s"/>
+      <c r="Q528" s="18" t="s"/>
+      <c r="R528" s="18" t="s"/>
+      <c r="S528" s="18" t="s"/>
+      <c r="T528" s="18" t="s"/>
+      <c r="U528" s="18" t="s"/>
+      <c r="V528" s="18" t="s"/>
+      <c r="W528" s="18" t="s"/>
+      <c r="X528" s="18" t="s"/>
+      <c r="Y528" s="18" t="s"/>
+      <c r="Z528" s="18" t="s"/>
+    </row>
+    <row r="529" spans="1:26">
+      <c r="A529" s="16">
+        <v>544</v>
+      </c>
+      <c r="B529" s="16" t="s"/>
+      <c r="C529" s="17" t="s"/>
+      <c r="D529" s="18" t="s"/>
+      <c r="E529" s="18" t="s"/>
+      <c r="F529" s="18" t="s"/>
+      <c r="G529" s="18" t="s"/>
+      <c r="H529" s="18" t="s"/>
+      <c r="I529" s="18" t="s"/>
+      <c r="J529" s="18" t="s"/>
+      <c r="K529" s="18" t="s"/>
+      <c r="L529" s="18" t="s"/>
+      <c r="M529" s="18" t="s"/>
+      <c r="N529" s="18" t="s"/>
+      <c r="O529" s="18" t="s"/>
+      <c r="P529" s="18" t="s"/>
+      <c r="Q529" s="18" t="s"/>
+      <c r="R529" s="18" t="s"/>
+      <c r="S529" s="18" t="s"/>
+      <c r="T529" s="18" t="s"/>
+      <c r="U529" s="18" t="s"/>
+      <c r="V529" s="18" t="s"/>
+      <c r="W529" s="18" t="s"/>
+      <c r="X529" s="18" t="s"/>
+      <c r="Y529" s="18" t="s"/>
+      <c r="Z529" s="18" t="s"/>
+    </row>
+    <row r="530" spans="1:26">
+      <c r="A530" s="16">
+        <v>545</v>
+      </c>
+      <c r="B530" s="16" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C530" s="17" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D530" s="18" t="s"/>
+      <c r="E530" s="18" t="s"/>
+      <c r="F530" s="18" t="s"/>
+      <c r="G530" s="18" t="s"/>
+      <c r="H530" s="18" t="s"/>
+      <c r="I530" s="18" t="s"/>
+      <c r="J530" s="18" t="s"/>
+      <c r="K530" s="18" t="s"/>
+      <c r="L530" s="18" t="s"/>
+      <c r="M530" s="18" t="s"/>
+      <c r="N530" s="18" t="s"/>
+      <c r="O530" s="18" t="s"/>
+      <c r="P530" s="18" t="s"/>
+      <c r="Q530" s="18" t="s"/>
+      <c r="R530" s="18" t="s"/>
+      <c r="S530" s="18" t="s"/>
+      <c r="T530" s="18" t="s"/>
+      <c r="U530" s="18" t="s"/>
+      <c r="V530" s="18" t="s"/>
+      <c r="W530" s="18" t="s"/>
+      <c r="X530" s="18" t="s"/>
+      <c r="Y530" s="18" t="s"/>
+      <c r="Z530" s="18" t="s"/>
+    </row>
+    <row r="531" spans="1:26">
+      <c r="A531" s="16">
+        <v>546</v>
+      </c>
+      <c r="B531" s="16" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C531" s="17" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D531" s="18" t="s"/>
+      <c r="E531" s="18" t="s"/>
+      <c r="F531" s="18" t="s"/>
+      <c r="G531" s="18" t="s"/>
+      <c r="H531" s="18" t="s"/>
+      <c r="I531" s="18" t="s"/>
+      <c r="J531" s="18" t="s"/>
+      <c r="K531" s="18" t="s"/>
+      <c r="L531" s="18" t="s"/>
+      <c r="M531" s="18" t="s"/>
+      <c r="N531" s="18" t="s"/>
+      <c r="O531" s="18" t="s"/>
+      <c r="P531" s="18" t="s"/>
+      <c r="Q531" s="18" t="s"/>
+      <c r="R531" s="18" t="s"/>
+      <c r="S531" s="18" t="s"/>
+      <c r="T531" s="18" t="s"/>
+      <c r="U531" s="18" t="s"/>
+      <c r="V531" s="18" t="s"/>
+      <c r="W531" s="18" t="s"/>
+      <c r="X531" s="18" t="s"/>
+      <c r="Y531" s="18" t="s"/>
+      <c r="Z531" s="18" t="s"/>
+    </row>
+    <row r="532" spans="1:26">
+      <c r="A532" s="16">
+        <v>547</v>
+      </c>
+      <c r="B532" s="16" t="s"/>
+      <c r="C532" s="17" t="s"/>
+      <c r="D532" s="18" t="s"/>
+      <c r="E532" s="18" t="s"/>
+      <c r="F532" s="18" t="s"/>
+      <c r="G532" s="18" t="s"/>
+      <c r="H532" s="18" t="s"/>
+      <c r="I532" s="18" t="s"/>
+      <c r="J532" s="18" t="s"/>
+      <c r="K532" s="18" t="s"/>
+      <c r="L532" s="18" t="s"/>
+      <c r="M532" s="18" t="s"/>
+      <c r="N532" s="18" t="s"/>
+      <c r="O532" s="18" t="s"/>
+      <c r="P532" s="18" t="s"/>
+      <c r="Q532" s="18" t="s"/>
+      <c r="R532" s="18" t="s"/>
+      <c r="S532" s="18" t="s"/>
+      <c r="T532" s="18" t="s"/>
+      <c r="U532" s="18" t="s"/>
+      <c r="V532" s="18" t="s"/>
+      <c r="W532" s="18" t="s"/>
+      <c r="X532" s="18" t="s"/>
+      <c r="Y532" s="18" t="s"/>
+      <c r="Z532" s="18" t="s"/>
+    </row>
+    <row r="533" spans="1:26">
+      <c r="A533" s="16">
+        <v>548</v>
+      </c>
+      <c r="B533" s="16" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C533" s="17" t="s"/>
+      <c r="D533" s="18" t="s"/>
+      <c r="E533" s="18" t="s"/>
+      <c r="F533" s="18" t="s"/>
+      <c r="G533" s="18" t="s"/>
+      <c r="H533" s="18" t="s"/>
+      <c r="I533" s="18" t="s"/>
+      <c r="J533" s="18" t="s"/>
+      <c r="K533" s="18" t="s"/>
+      <c r="L533" s="18" t="s"/>
+      <c r="M533" s="18" t="s"/>
+      <c r="N533" s="18" t="s"/>
+      <c r="O533" s="18" t="s"/>
+      <c r="P533" s="18" t="s"/>
+      <c r="Q533" s="18" t="s"/>
+      <c r="R533" s="18" t="s"/>
+      <c r="S533" s="18" t="s"/>
+      <c r="T533" s="18" t="s"/>
+      <c r="U533" s="18" t="s"/>
+      <c r="V533" s="18" t="s"/>
+      <c r="W533" s="18" t="s"/>
+      <c r="X533" s="18" t="s"/>
+      <c r="Y533" s="18" t="s"/>
+      <c r="Z533" s="18" t="s"/>
+    </row>
+    <row r="534" spans="1:26">
+      <c r="A534" s="6">
         <v>10001</v>
       </c>
-      <c r="B526" s="7" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C526" s="8" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E526" s="5" t="s"/>
-      <c r="F526" s="5" t="s"/>
-      <c r="G526" s="5" t="s"/>
-      <c r="H526" s="5" t="s"/>
-      <c r="I526" s="5" t="s"/>
-      <c r="J526" s="5" t="s"/>
-      <c r="K526" s="5" t="s"/>
-      <c r="L526" s="5" t="s"/>
-      <c r="M526" s="5" t="s"/>
-      <c r="N526" s="5" t="s"/>
-      <c r="O526" s="5" t="s"/>
-      <c r="P526" s="5" t="s"/>
-      <c r="Q526" s="5" t="s"/>
-      <c r="R526" s="5" t="s"/>
-      <c r="S526" s="5" t="s"/>
-      <c r="T526" s="5" t="s"/>
-      <c r="U526" s="5" t="s"/>
-      <c r="V526" s="5" t="s"/>
-      <c r="W526" s="5" t="s"/>
-      <c r="X526" s="5" t="s"/>
-      <c r="Y526" s="5" t="s"/>
-      <c r="Z526" s="5" t="s"/>
-    </row>
-    <row r="527" spans="1:26">
-      <c r="A527" s="6" t="s"/>
-      <c r="B527" s="7" t="s"/>
-      <c r="C527" s="8" t="s"/>
-      <c r="D527" s="5" t="s"/>
-      <c r="E527" s="5" t="s"/>
-      <c r="F527" s="5" t="s"/>
-      <c r="G527" s="5" t="s"/>
-      <c r="H527" s="5" t="s"/>
-      <c r="I527" s="5" t="s"/>
-      <c r="J527" s="5" t="s"/>
-      <c r="K527" s="5" t="s"/>
-      <c r="L527" s="5" t="s"/>
-      <c r="M527" s="5" t="s"/>
-      <c r="N527" s="5" t="s"/>
-      <c r="O527" s="5" t="s"/>
-      <c r="P527" s="5" t="s"/>
-      <c r="Q527" s="5" t="s"/>
-      <c r="R527" s="5" t="s"/>
-      <c r="S527" s="5" t="s"/>
-      <c r="T527" s="5" t="s"/>
-      <c r="U527" s="5" t="s"/>
-      <c r="V527" s="5" t="s"/>
-      <c r="W527" s="5" t="s"/>
-      <c r="X527" s="5" t="s"/>
-      <c r="Y527" s="5" t="s"/>
-      <c r="Z527" s="5" t="s"/>
-    </row>
-    <row r="528" spans="1:26">
-      <c r="A528" s="6" t="s"/>
-      <c r="B528" s="7" t="s"/>
-      <c r="C528" s="8" t="s"/>
-      <c r="D528" s="5" t="s"/>
-      <c r="E528" s="5" t="s"/>
-      <c r="F528" s="5" t="s"/>
-      <c r="G528" s="5" t="s"/>
-      <c r="H528" s="5" t="s"/>
-      <c r="I528" s="5" t="s"/>
-      <c r="J528" s="5" t="s"/>
-      <c r="K528" s="5" t="s"/>
-      <c r="L528" s="5" t="s"/>
-      <c r="M528" s="5" t="s"/>
-      <c r="N528" s="5" t="s"/>
-      <c r="O528" s="5" t="s"/>
-      <c r="P528" s="5" t="s"/>
-      <c r="Q528" s="5" t="s"/>
-      <c r="R528" s="5" t="s"/>
-      <c r="S528" s="5" t="s"/>
-      <c r="T528" s="5" t="s"/>
-      <c r="U528" s="5" t="s"/>
-      <c r="V528" s="5" t="s"/>
-      <c r="W528" s="5" t="s"/>
-      <c r="X528" s="5" t="s"/>
-      <c r="Y528" s="5" t="s"/>
-      <c r="Z528" s="5" t="s"/>
-    </row>
-    <row r="529" spans="1:26">
-      <c r="A529" s="6" t="s"/>
-      <c r="B529" s="7" t="s"/>
-      <c r="C529" s="8" t="s"/>
-      <c r="D529" s="5" t="s"/>
-      <c r="E529" s="5" t="s"/>
-      <c r="F529" s="5" t="s"/>
-      <c r="G529" s="5" t="s"/>
-      <c r="H529" s="5" t="s"/>
-      <c r="I529" s="5" t="s"/>
-      <c r="J529" s="5" t="s"/>
-      <c r="K529" s="5" t="s"/>
-      <c r="L529" s="5" t="s"/>
-      <c r="M529" s="5" t="s"/>
-      <c r="N529" s="5" t="s"/>
-      <c r="O529" s="5" t="s"/>
-      <c r="P529" s="5" t="s"/>
-      <c r="Q529" s="5" t="s"/>
-      <c r="R529" s="5" t="s"/>
-      <c r="S529" s="5" t="s"/>
-      <c r="T529" s="5" t="s"/>
-      <c r="U529" s="5" t="s"/>
-      <c r="V529" s="5" t="s"/>
-      <c r="W529" s="5" t="s"/>
-      <c r="X529" s="5" t="s"/>
-      <c r="Y529" s="5" t="s"/>
-      <c r="Z529" s="5" t="s"/>
-    </row>
-    <row r="530" spans="1:26">
-      <c r="A530" s="6" t="s"/>
-      <c r="B530" s="7" t="s"/>
-      <c r="C530" s="8" t="s"/>
-      <c r="D530" s="5" t="s"/>
-      <c r="E530" s="5" t="s"/>
-      <c r="F530" s="5" t="s"/>
-      <c r="G530" s="5" t="s"/>
-      <c r="H530" s="5" t="s"/>
-      <c r="I530" s="5" t="s"/>
-      <c r="J530" s="5" t="s"/>
-      <c r="K530" s="5" t="s"/>
-      <c r="L530" s="5" t="s"/>
-      <c r="M530" s="5" t="s"/>
-      <c r="N530" s="5" t="s"/>
-      <c r="O530" s="5" t="s"/>
-      <c r="P530" s="5" t="s"/>
-      <c r="Q530" s="5" t="s"/>
-      <c r="R530" s="5" t="s"/>
-      <c r="S530" s="5" t="s"/>
-      <c r="T530" s="5" t="s"/>
-      <c r="U530" s="5" t="s"/>
-      <c r="V530" s="5" t="s"/>
-      <c r="W530" s="5" t="s"/>
-      <c r="X530" s="5" t="s"/>
-      <c r="Y530" s="5" t="s"/>
-      <c r="Z530" s="5" t="s"/>
-    </row>
-    <row r="531" spans="1:26">
-      <c r="A531" s="6" t="s"/>
-      <c r="B531" s="7" t="s"/>
-      <c r="C531" s="8" t="s"/>
-      <c r="D531" s="5" t="s"/>
-      <c r="E531" s="5" t="s"/>
-      <c r="F531" s="5" t="s"/>
-      <c r="G531" s="5" t="s"/>
-      <c r="H531" s="5" t="s"/>
-      <c r="I531" s="5" t="s"/>
-      <c r="J531" s="5" t="s"/>
-      <c r="K531" s="5" t="s"/>
-      <c r="L531" s="5" t="s"/>
-      <c r="M531" s="5" t="s"/>
-      <c r="N531" s="5" t="s"/>
-      <c r="O531" s="5" t="s"/>
-      <c r="P531" s="5" t="s"/>
-      <c r="Q531" s="5" t="s"/>
-      <c r="R531" s="5" t="s"/>
-      <c r="S531" s="5" t="s"/>
-      <c r="T531" s="5" t="s"/>
-      <c r="U531" s="5" t="s"/>
-      <c r="V531" s="5" t="s"/>
-      <c r="W531" s="5" t="s"/>
-      <c r="X531" s="5" t="s"/>
-      <c r="Y531" s="5" t="s"/>
-      <c r="Z531" s="5" t="s"/>
-    </row>
-    <row r="532" spans="1:26">
-      <c r="A532" s="6" t="s"/>
-      <c r="B532" s="7" t="s"/>
-      <c r="C532" s="8" t="s"/>
-      <c r="D532" s="5" t="s"/>
-      <c r="E532" s="5" t="s"/>
-      <c r="F532" s="5" t="s"/>
-      <c r="G532" s="5" t="s"/>
-      <c r="H532" s="5" t="s"/>
-      <c r="I532" s="5" t="s"/>
-      <c r="J532" s="5" t="s"/>
-      <c r="K532" s="5" t="s"/>
-      <c r="L532" s="5" t="s"/>
-      <c r="M532" s="5" t="s"/>
-      <c r="N532" s="5" t="s"/>
-      <c r="O532" s="5" t="s"/>
-      <c r="P532" s="5" t="s"/>
-      <c r="Q532" s="5" t="s"/>
-      <c r="R532" s="5" t="s"/>
-      <c r="S532" s="5" t="s"/>
-      <c r="T532" s="5" t="s"/>
-      <c r="U532" s="5" t="s"/>
-      <c r="V532" s="5" t="s"/>
-      <c r="W532" s="5" t="s"/>
-      <c r="X532" s="5" t="s"/>
-      <c r="Y532" s="5" t="s"/>
-      <c r="Z532" s="5" t="s"/>
-    </row>
-    <row r="533" spans="1:26">
-      <c r="A533" s="6" t="s"/>
-      <c r="B533" s="7" t="s"/>
-      <c r="C533" s="8" t="s"/>
-      <c r="D533" s="5" t="s"/>
-      <c r="E533" s="5" t="s"/>
-      <c r="F533" s="5" t="s"/>
-      <c r="G533" s="5" t="s"/>
-      <c r="H533" s="5" t="s"/>
-      <c r="I533" s="5" t="s"/>
-      <c r="J533" s="5" t="s"/>
-      <c r="K533" s="5" t="s"/>
-      <c r="L533" s="5" t="s"/>
-      <c r="M533" s="5" t="s"/>
-      <c r="N533" s="5" t="s"/>
-      <c r="O533" s="5" t="s"/>
-      <c r="P533" s="5" t="s"/>
-      <c r="Q533" s="5" t="s"/>
-      <c r="R533" s="5" t="s"/>
-      <c r="S533" s="5" t="s"/>
-      <c r="T533" s="5" t="s"/>
-      <c r="U533" s="5" t="s"/>
-      <c r="V533" s="5" t="s"/>
-      <c r="W533" s="5" t="s"/>
-      <c r="X533" s="5" t="s"/>
-      <c r="Y533" s="5" t="s"/>
-      <c r="Z533" s="5" t="s"/>
-    </row>
-    <row r="534" spans="1:26">
-      <c r="A534" s="6" t="s"/>
-      <c r="B534" s="7" t="s"/>
-      <c r="C534" s="8" t="s"/>
-      <c r="D534" s="5" t="s"/>
+      <c r="B534" s="7" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C534" s="8" t="s">
+        <v>1035</v>
+      </c>
       <c r="E534" s="5" t="s"/>
       <c r="F534" s="5" t="s"/>
       <c r="G534" s="5" t="s"/>
@@ -21688,8 +21750,232 @@
       <c r="Y536" s="5" t="s"/>
       <c r="Z536" s="5" t="s"/>
     </row>
+    <row r="537" spans="1:26">
+      <c r="A537" s="6" t="s"/>
+      <c r="B537" s="7" t="s"/>
+      <c r="C537" s="8" t="s"/>
+      <c r="D537" s="5" t="s"/>
+      <c r="E537" s="5" t="s"/>
+      <c r="F537" s="5" t="s"/>
+      <c r="G537" s="5" t="s"/>
+      <c r="H537" s="5" t="s"/>
+      <c r="I537" s="5" t="s"/>
+      <c r="J537" s="5" t="s"/>
+      <c r="K537" s="5" t="s"/>
+      <c r="L537" s="5" t="s"/>
+      <c r="M537" s="5" t="s"/>
+      <c r="N537" s="5" t="s"/>
+      <c r="O537" s="5" t="s"/>
+      <c r="P537" s="5" t="s"/>
+      <c r="Q537" s="5" t="s"/>
+      <c r="R537" s="5" t="s"/>
+      <c r="S537" s="5" t="s"/>
+      <c r="T537" s="5" t="s"/>
+      <c r="U537" s="5" t="s"/>
+      <c r="V537" s="5" t="s"/>
+      <c r="W537" s="5" t="s"/>
+      <c r="X537" s="5" t="s"/>
+      <c r="Y537" s="5" t="s"/>
+      <c r="Z537" s="5" t="s"/>
+    </row>
+    <row r="538" spans="1:26">
+      <c r="A538" s="6" t="s"/>
+      <c r="B538" s="7" t="s"/>
+      <c r="C538" s="8" t="s"/>
+      <c r="D538" s="5" t="s"/>
+      <c r="E538" s="5" t="s"/>
+      <c r="F538" s="5" t="s"/>
+      <c r="G538" s="5" t="s"/>
+      <c r="H538" s="5" t="s"/>
+      <c r="I538" s="5" t="s"/>
+      <c r="J538" s="5" t="s"/>
+      <c r="K538" s="5" t="s"/>
+      <c r="L538" s="5" t="s"/>
+      <c r="M538" s="5" t="s"/>
+      <c r="N538" s="5" t="s"/>
+      <c r="O538" s="5" t="s"/>
+      <c r="P538" s="5" t="s"/>
+      <c r="Q538" s="5" t="s"/>
+      <c r="R538" s="5" t="s"/>
+      <c r="S538" s="5" t="s"/>
+      <c r="T538" s="5" t="s"/>
+      <c r="U538" s="5" t="s"/>
+      <c r="V538" s="5" t="s"/>
+      <c r="W538" s="5" t="s"/>
+      <c r="X538" s="5" t="s"/>
+      <c r="Y538" s="5" t="s"/>
+      <c r="Z538" s="5" t="s"/>
+    </row>
+    <row r="539" spans="1:26">
+      <c r="A539" s="6" t="s"/>
+      <c r="B539" s="7" t="s"/>
+      <c r="C539" s="8" t="s"/>
+      <c r="D539" s="5" t="s"/>
+      <c r="E539" s="5" t="s"/>
+      <c r="F539" s="5" t="s"/>
+      <c r="G539" s="5" t="s"/>
+      <c r="H539" s="5" t="s"/>
+      <c r="I539" s="5" t="s"/>
+      <c r="J539" s="5" t="s"/>
+      <c r="K539" s="5" t="s"/>
+      <c r="L539" s="5" t="s"/>
+      <c r="M539" s="5" t="s"/>
+      <c r="N539" s="5" t="s"/>
+      <c r="O539" s="5" t="s"/>
+      <c r="P539" s="5" t="s"/>
+      <c r="Q539" s="5" t="s"/>
+      <c r="R539" s="5" t="s"/>
+      <c r="S539" s="5" t="s"/>
+      <c r="T539" s="5" t="s"/>
+      <c r="U539" s="5" t="s"/>
+      <c r="V539" s="5" t="s"/>
+      <c r="W539" s="5" t="s"/>
+      <c r="X539" s="5" t="s"/>
+      <c r="Y539" s="5" t="s"/>
+      <c r="Z539" s="5" t="s"/>
+    </row>
+    <row r="540" spans="1:26">
+      <c r="A540" s="6" t="s"/>
+      <c r="B540" s="7" t="s"/>
+      <c r="C540" s="8" t="s"/>
+      <c r="D540" s="5" t="s"/>
+      <c r="E540" s="5" t="s"/>
+      <c r="F540" s="5" t="s"/>
+      <c r="G540" s="5" t="s"/>
+      <c r="H540" s="5" t="s"/>
+      <c r="I540" s="5" t="s"/>
+      <c r="J540" s="5" t="s"/>
+      <c r="K540" s="5" t="s"/>
+      <c r="L540" s="5" t="s"/>
+      <c r="M540" s="5" t="s"/>
+      <c r="N540" s="5" t="s"/>
+      <c r="O540" s="5" t="s"/>
+      <c r="P540" s="5" t="s"/>
+      <c r="Q540" s="5" t="s"/>
+      <c r="R540" s="5" t="s"/>
+      <c r="S540" s="5" t="s"/>
+      <c r="T540" s="5" t="s"/>
+      <c r="U540" s="5" t="s"/>
+      <c r="V540" s="5" t="s"/>
+      <c r="W540" s="5" t="s"/>
+      <c r="X540" s="5" t="s"/>
+      <c r="Y540" s="5" t="s"/>
+      <c r="Z540" s="5" t="s"/>
+    </row>
+    <row r="541" spans="1:26">
+      <c r="A541" s="6" t="s"/>
+      <c r="B541" s="7" t="s"/>
+      <c r="C541" s="8" t="s"/>
+      <c r="D541" s="5" t="s"/>
+      <c r="E541" s="5" t="s"/>
+      <c r="F541" s="5" t="s"/>
+      <c r="G541" s="5" t="s"/>
+      <c r="H541" s="5" t="s"/>
+      <c r="I541" s="5" t="s"/>
+      <c r="J541" s="5" t="s"/>
+      <c r="K541" s="5" t="s"/>
+      <c r="L541" s="5" t="s"/>
+      <c r="M541" s="5" t="s"/>
+      <c r="N541" s="5" t="s"/>
+      <c r="O541" s="5" t="s"/>
+      <c r="P541" s="5" t="s"/>
+      <c r="Q541" s="5" t="s"/>
+      <c r="R541" s="5" t="s"/>
+      <c r="S541" s="5" t="s"/>
+      <c r="T541" s="5" t="s"/>
+      <c r="U541" s="5" t="s"/>
+      <c r="V541" s="5" t="s"/>
+      <c r="W541" s="5" t="s"/>
+      <c r="X541" s="5" t="s"/>
+      <c r="Y541" s="5" t="s"/>
+      <c r="Z541" s="5" t="s"/>
+    </row>
+    <row r="542" spans="1:26">
+      <c r="A542" s="6" t="s"/>
+      <c r="B542" s="7" t="s"/>
+      <c r="C542" s="8" t="s"/>
+      <c r="D542" s="5" t="s"/>
+      <c r="E542" s="5" t="s"/>
+      <c r="F542" s="5" t="s"/>
+      <c r="G542" s="5" t="s"/>
+      <c r="H542" s="5" t="s"/>
+      <c r="I542" s="5" t="s"/>
+      <c r="J542" s="5" t="s"/>
+      <c r="K542" s="5" t="s"/>
+      <c r="L542" s="5" t="s"/>
+      <c r="M542" s="5" t="s"/>
+      <c r="N542" s="5" t="s"/>
+      <c r="O542" s="5" t="s"/>
+      <c r="P542" s="5" t="s"/>
+      <c r="Q542" s="5" t="s"/>
+      <c r="R542" s="5" t="s"/>
+      <c r="S542" s="5" t="s"/>
+      <c r="T542" s="5" t="s"/>
+      <c r="U542" s="5" t="s"/>
+      <c r="V542" s="5" t="s"/>
+      <c r="W542" s="5" t="s"/>
+      <c r="X542" s="5" t="s"/>
+      <c r="Y542" s="5" t="s"/>
+      <c r="Z542" s="5" t="s"/>
+    </row>
+    <row r="543" spans="1:26">
+      <c r="A543" s="6" t="s"/>
+      <c r="B543" s="7" t="s"/>
+      <c r="C543" s="8" t="s"/>
+      <c r="D543" s="5" t="s"/>
+      <c r="E543" s="5" t="s"/>
+      <c r="F543" s="5" t="s"/>
+      <c r="G543" s="5" t="s"/>
+      <c r="H543" s="5" t="s"/>
+      <c r="I543" s="5" t="s"/>
+      <c r="J543" s="5" t="s"/>
+      <c r="K543" s="5" t="s"/>
+      <c r="L543" s="5" t="s"/>
+      <c r="M543" s="5" t="s"/>
+      <c r="N543" s="5" t="s"/>
+      <c r="O543" s="5" t="s"/>
+      <c r="P543" s="5" t="s"/>
+      <c r="Q543" s="5" t="s"/>
+      <c r="R543" s="5" t="s"/>
+      <c r="S543" s="5" t="s"/>
+      <c r="T543" s="5" t="s"/>
+      <c r="U543" s="5" t="s"/>
+      <c r="V543" s="5" t="s"/>
+      <c r="W543" s="5" t="s"/>
+      <c r="X543" s="5" t="s"/>
+      <c r="Y543" s="5" t="s"/>
+      <c r="Z543" s="5" t="s"/>
+    </row>
+    <row r="544" spans="1:26">
+      <c r="A544" s="6" t="s"/>
+      <c r="B544" s="7" t="s"/>
+      <c r="C544" s="8" t="s"/>
+      <c r="D544" s="5" t="s"/>
+      <c r="E544" s="5" t="s"/>
+      <c r="F544" s="5" t="s"/>
+      <c r="G544" s="5" t="s"/>
+      <c r="H544" s="5" t="s"/>
+      <c r="I544" s="5" t="s"/>
+      <c r="J544" s="5" t="s"/>
+      <c r="K544" s="5" t="s"/>
+      <c r="L544" s="5" t="s"/>
+      <c r="M544" s="5" t="s"/>
+      <c r="N544" s="5" t="s"/>
+      <c r="O544" s="5" t="s"/>
+      <c r="P544" s="5" t="s"/>
+      <c r="Q544" s="5" t="s"/>
+      <c r="R544" s="5" t="s"/>
+      <c r="S544" s="5" t="s"/>
+      <c r="T544" s="5" t="s"/>
+      <c r="U544" s="5" t="s"/>
+      <c r="V544" s="5" t="s"/>
+      <c r="W544" s="5" t="s"/>
+      <c r="X544" s="5" t="s"/>
+      <c r="Y544" s="5" t="s"/>
+      <c r="Z544" s="5" t="s"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C536 D1">
+  <conditionalFormatting sqref="C1:C544 D1">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="，">
       <formula>NOT(ISERROR(SEARCH("，",C1)))</formula>
     </cfRule>

--- a/backend/config/nickname_song.xlsx
+++ b/backend/config/nickname_song.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="1037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="1027">
   <si>
     <t/>
   </si>
@@ -2634,13 +2634,13 @@
     <t>Invincible Fighter</t>
   </si>
   <si>
-    <t>op,if,Invisible Frenzy</t>
+    <t>op,if,Invisible Frenzy（</t>
   </si>
   <si>
     <t>Takin’ my Heart</t>
   </si>
   <si>
-    <t>夺走我的心,夺心</t>
+    <t>朝日六花夺走我的心,夺心</t>
   </si>
   <si>
     <t>スカイクラッドの観測者</t>
@@ -2724,7 +2724,7 @@
     <t>群青</t>
   </si>
   <si>
-    <t>啊啊啊啊啊啊啊啊啊啊</t>
+    <t>啊啊啊啊啊啊啊啊啊啊,群青</t>
   </si>
   <si>
     <t>フォニイ</t>
@@ -2829,7 +2829,7 @@
     <t>Glee! Glee! Glee!</t>
   </si>
   <si>
-    <t>格里,格力,格立,格利,ggg</t>
+    <t>格里,格力,格立,格利</t>
   </si>
   <si>
     <t>[超高難易度 新SPECIAL] HELL! or HELL?</t>
@@ -2874,7 +2874,7 @@
     <t>最強☆ソング</t>
   </si>
   <si>
-    <t>最强歌,最强song,Saikyo song,Saikyo Stronger</t>
+    <t>最强歌,最强song,Saikyo song,Saikyo Stronger（</t>
   </si>
   <si>
     <t>ヒロイン育成計画</t>
@@ -2886,7 +2886,7 @@
     <t>少女レイ</t>
   </si>
   <si>
-    <t>少女rei,你要的海底谭,Layer</t>
+    <t>少女rei,你要的海底谭（,Layer</t>
   </si>
   <si>
     <t>チューリングラブ</t>
@@ -2898,7 +2898,7 @@
     <t>踊</t>
   </si>
   <si>
-    <t>Odo</t>
+    <t>Odo,踊</t>
   </si>
   <si>
     <t>アイウエ</t>
@@ -2934,6 +2934,9 @@
     <t>キミを れっつ・はぶ・ふぁん♪</t>
   </si>
   <si>
+    <t>Kimiwa Let's have fun, 小atz</t>
+  </si>
+  <si>
     <t>ダンスホール</t>
   </si>
   <si>
@@ -2973,9 +2976,6 @@
     <t>没六星,再看半集的小曲,再看半集の小曲儿</t>
   </si>
   <si>
-    <t>2023年9月25日，栞还是没六星</t>
-  </si>
-  <si>
     <t>QUEEN</t>
   </si>
   <si>
@@ -2985,9 +2985,6 @@
     <t>碧天伴走</t>
   </si>
   <si>
-    <t>逆天伴走</t>
-  </si>
-  <si>
     <t>Get Wild</t>
   </si>
   <si>
@@ -2997,9 +2994,6 @@
     <t>HOT LIMIT</t>
   </si>
   <si>
-    <t>教主,西川贵教</t>
-  </si>
-  <si>
     <t>私色きらめき日和</t>
   </si>
   <si>
@@ -3021,6 +3015,9 @@
     <t>ふぁいぶスマイル◯オールインっ！</t>
   </si>
   <si>
+    <t>我超,⚪</t>
+  </si>
+  <si>
     <t>迷路日々</t>
   </si>
   <si>
@@ -3030,10 +3027,13 @@
     <t>燦々</t>
   </si>
   <si>
+    <t>sansan,史</t>
+  </si>
+  <si>
     <t>ほな！</t>
   </si>
   <si>
-    <t>西游记</t>
+    <t>Hona!</t>
   </si>
   <si>
     <t>flow,你邦男声,优胜</t>
@@ -3081,40 +3081,10 @@
     <t>トウキョウ・シャンディ・ランデヴ</t>
   </si>
   <si>
-    <t>东京香蒂幽会</t>
-  </si>
-  <si>
     <t>Be born</t>
   </si>
   <si>
     <t>出生</t>
-  </si>
-  <si>
-    <t>影色舞</t>
-  </si>
-  <si>
-    <t>歌いましょう鳴らしましょう</t>
-  </si>
-  <si>
-    <t>歌鸣</t>
-  </si>
-  <si>
-    <t>THRONE OF ROSE</t>
-  </si>
-  <si>
-    <t>猛独が襲う</t>
-  </si>
-  <si>
-    <t>独孤猛袭,孤独猛袭,猛独孤袭</t>
-  </si>
-  <si>
-    <t>swim</t>
-  </si>
-  <si>
-    <t>游泳</t>
-  </si>
-  <si>
-    <t>everyday flower</t>
   </si>
   <si>
     <t>彩虹节拍</t>
@@ -3580,7 +3550,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="Z544"/>
+  <dimension ref="Z536"/>
   <sheetViews>
     <sheetView showGridLines="true" rightToLeft="false" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="A2" state="frozen"/>
@@ -10133,7 +10103,7 @@
         <v>388</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="D193" s="5" t="s"/>
       <c r="E193" s="5" t="s"/>
@@ -19808,7 +19778,9 @@
       <c r="B478" s="7" t="s">
         <v>945</v>
       </c>
-      <c r="C478" s="8" t="s"/>
+      <c r="C478" s="8" t="s">
+        <v>945</v>
+      </c>
       <c r="D478" s="5" t="s"/>
       <c r="E478" s="5" t="s"/>
       <c r="F478" s="5" t="s"/>
@@ -20282,7 +20254,9 @@
       <c r="B492" s="7" t="s">
         <v>972</v>
       </c>
-      <c r="C492" s="8" t="s"/>
+      <c r="C492" s="8" t="s">
+        <v>973</v>
+      </c>
       <c r="D492" s="5" t="s"/>
       <c r="E492" s="5" t="s"/>
       <c r="F492" s="5" t="s"/>
@@ -20312,7 +20286,7 @@
         <v>506</v>
       </c>
       <c r="B493" s="16" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C493" s="17" t="s"/>
       <c r="D493" s="18" t="s"/>
@@ -20344,10 +20318,10 @@
         <v>507</v>
       </c>
       <c r="B494" s="16" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C494" s="17" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="D494" s="18" t="s"/>
       <c r="E494" s="18" t="s"/>
@@ -20378,10 +20352,10 @@
         <v>508</v>
       </c>
       <c r="B495" s="16" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C495" s="17" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="D495" s="18" t="s"/>
       <c r="E495" s="18" t="s"/>
@@ -20412,10 +20386,10 @@
         <v>509</v>
       </c>
       <c r="B496" s="16" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C496" s="17" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="D496" s="18" t="s"/>
       <c r="E496" s="18" t="s"/>
@@ -20446,7 +20420,7 @@
         <v>510</v>
       </c>
       <c r="B497" s="16" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C497" s="17" t="s"/>
       <c r="D497" s="18" t="s"/>
@@ -20478,7 +20452,7 @@
         <v>511</v>
       </c>
       <c r="B498" s="16" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C498" s="17" t="s"/>
       <c r="D498" s="18" t="s"/>
@@ -20510,10 +20484,10 @@
         <v>512</v>
       </c>
       <c r="B499" s="16" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C499" s="17" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="D499" s="18" t="s"/>
       <c r="E499" s="18" t="s"/>
@@ -20544,14 +20518,12 @@
         <v>513</v>
       </c>
       <c r="B500" s="16" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C500" s="17" t="s">
-        <v>985</v>
-      </c>
-      <c r="D500" s="18" t="s">
         <v>986</v>
       </c>
+      <c r="D500" s="18" t="s"/>
       <c r="E500" s="18" t="s"/>
       <c r="F500" s="18" t="s"/>
       <c r="G500" s="18" t="s"/>
@@ -20617,7 +20589,7 @@
         <v>989</v>
       </c>
       <c r="C502" s="17" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D502" s="18" t="s"/>
       <c r="E502" s="18" t="s"/>
@@ -20648,7 +20620,7 @@
         <v>516</v>
       </c>
       <c r="B503" s="16" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C503" s="17" t="s"/>
       <c r="D503" s="18" t="s"/>
@@ -20680,7 +20652,7 @@
         <v>517</v>
       </c>
       <c r="B504" s="16" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C504" s="17" t="s"/>
       <c r="D504" s="18" t="s"/>
@@ -20712,11 +20684,9 @@
         <v>518</v>
       </c>
       <c r="B505" s="16" t="s">
-        <v>993</v>
-      </c>
-      <c r="C505" s="17" t="s">
-        <v>994</v>
-      </c>
+        <v>992</v>
+      </c>
+      <c r="C505" s="17" t="s"/>
       <c r="D505" s="18" t="s"/>
       <c r="E505" s="18" t="s"/>
       <c r="F505" s="18" t="s"/>
@@ -20746,7 +20716,7 @@
         <v>519</v>
       </c>
       <c r="B506" s="16" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C506" s="17" t="s"/>
       <c r="D506" s="18" t="s"/>
@@ -20778,10 +20748,10 @@
         <v>521</v>
       </c>
       <c r="B507" s="16" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C507" s="17" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="D507" s="18" t="s"/>
       <c r="E507" s="18" t="s"/>
@@ -20812,10 +20782,10 @@
         <v>522</v>
       </c>
       <c r="B508" s="16" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C508" s="17" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="D508" s="18" t="s"/>
       <c r="E508" s="18" t="s"/>
@@ -20846,7 +20816,7 @@
         <v>523</v>
       </c>
       <c r="B509" s="16" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C509" s="17" t="s"/>
       <c r="D509" s="18" t="s"/>
@@ -20878,9 +20848,11 @@
         <v>524</v>
       </c>
       <c r="B510" s="16" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C510" s="17" t="s"/>
+        <v>999</v>
+      </c>
+      <c r="C510" s="17" t="s">
+        <v>1000</v>
+      </c>
       <c r="D510" s="18" t="s"/>
       <c r="E510" s="18" t="s"/>
       <c r="F510" s="18" t="s"/>
@@ -20910,10 +20882,10 @@
         <v>525</v>
       </c>
       <c r="B511" s="16" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C511" s="17" t="s">
         <v>1002</v>
-      </c>
-      <c r="C511" s="17" t="s">
-        <v>1003</v>
       </c>
       <c r="D511" s="18" t="s"/>
       <c r="E511" s="18" t="s"/>
@@ -20944,9 +20916,11 @@
         <v>526</v>
       </c>
       <c r="B512" s="16" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C512" s="17" t="s">
         <v>1004</v>
       </c>
-      <c r="C512" s="17" t="s"/>
       <c r="D512" s="18" t="s"/>
       <c r="E512" s="18" t="s"/>
       <c r="F512" s="18" t="s"/>
@@ -21114,7 +21088,9 @@
       <c r="B517" s="16" t="s">
         <v>1012</v>
       </c>
-      <c r="C517" s="17" t="s"/>
+      <c r="C517" s="17" t="s">
+        <v>1012</v>
+      </c>
       <c r="D517" s="18" t="s"/>
       <c r="E517" s="18" t="s"/>
       <c r="F517" s="18" t="s"/>
@@ -21312,9 +21288,7 @@
       <c r="B523" s="16" t="s">
         <v>1021</v>
       </c>
-      <c r="C523" s="17" t="s">
-        <v>1022</v>
-      </c>
+      <c r="C523" s="17" t="s"/>
       <c r="D523" s="18" t="s"/>
       <c r="E523" s="18" t="s"/>
       <c r="F523" s="18" t="s"/>
@@ -21344,10 +21318,10 @@
         <v>539</v>
       </c>
       <c r="B524" s="16" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C524" s="17" t="s">
         <v>1023</v>
-      </c>
-      <c r="C524" s="17" t="s">
-        <v>1024</v>
       </c>
       <c r="D524" s="18" t="s"/>
       <c r="E524" s="18" t="s"/>
@@ -21374,12 +21348,8 @@
       <c r="Z524" s="18" t="s"/>
     </row>
     <row r="525" spans="1:26">
-      <c r="A525" s="16">
-        <v>540</v>
-      </c>
-      <c r="B525" s="16" t="s">
-        <v>1025</v>
-      </c>
+      <c r="A525" s="16" t="s"/>
+      <c r="B525" s="16" t="s"/>
       <c r="C525" s="17" t="s"/>
       <c r="D525" s="18" t="s"/>
       <c r="E525" s="18" t="s"/>
@@ -21406,271 +21376,239 @@
       <c r="Z525" s="18" t="s"/>
     </row>
     <row r="526" spans="1:26">
-      <c r="A526" s="16">
-        <v>541</v>
-      </c>
-      <c r="B526" s="16" t="s"/>
-      <c r="C526" s="17" t="s"/>
-      <c r="D526" s="18" t="s"/>
-      <c r="E526" s="18" t="s"/>
-      <c r="F526" s="18" t="s"/>
-      <c r="G526" s="18" t="s"/>
-      <c r="H526" s="18" t="s"/>
-      <c r="I526" s="18" t="s"/>
-      <c r="J526" s="18" t="s"/>
-      <c r="K526" s="18" t="s"/>
-      <c r="L526" s="18" t="s"/>
-      <c r="M526" s="18" t="s"/>
-      <c r="N526" s="18" t="s"/>
-      <c r="O526" s="18" t="s"/>
-      <c r="P526" s="18" t="s"/>
-      <c r="Q526" s="18" t="s"/>
-      <c r="R526" s="18" t="s"/>
-      <c r="S526" s="18" t="s"/>
-      <c r="T526" s="18" t="s"/>
-      <c r="U526" s="18" t="s"/>
-      <c r="V526" s="18" t="s"/>
-      <c r="W526" s="18" t="s"/>
-      <c r="X526" s="18" t="s"/>
-      <c r="Y526" s="18" t="s"/>
-      <c r="Z526" s="18" t="s"/>
+      <c r="A526" s="6">
+        <v>10001</v>
+      </c>
+      <c r="B526" s="7" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C526" s="8" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E526" s="5" t="s"/>
+      <c r="F526" s="5" t="s"/>
+      <c r="G526" s="5" t="s"/>
+      <c r="H526" s="5" t="s"/>
+      <c r="I526" s="5" t="s"/>
+      <c r="J526" s="5" t="s"/>
+      <c r="K526" s="5" t="s"/>
+      <c r="L526" s="5" t="s"/>
+      <c r="M526" s="5" t="s"/>
+      <c r="N526" s="5" t="s"/>
+      <c r="O526" s="5" t="s"/>
+      <c r="P526" s="5" t="s"/>
+      <c r="Q526" s="5" t="s"/>
+      <c r="R526" s="5" t="s"/>
+      <c r="S526" s="5" t="s"/>
+      <c r="T526" s="5" t="s"/>
+      <c r="U526" s="5" t="s"/>
+      <c r="V526" s="5" t="s"/>
+      <c r="W526" s="5" t="s"/>
+      <c r="X526" s="5" t="s"/>
+      <c r="Y526" s="5" t="s"/>
+      <c r="Z526" s="5" t="s"/>
     </row>
     <row r="527" spans="1:26">
-      <c r="A527" s="16">
-        <v>542</v>
-      </c>
-      <c r="B527" s="16" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C527" s="17" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D527" s="18" t="s"/>
-      <c r="E527" s="18" t="s"/>
-      <c r="F527" s="18" t="s"/>
-      <c r="G527" s="18" t="s"/>
-      <c r="H527" s="18" t="s"/>
-      <c r="I527" s="18" t="s"/>
-      <c r="J527" s="18" t="s"/>
-      <c r="K527" s="18" t="s"/>
-      <c r="L527" s="18" t="s"/>
-      <c r="M527" s="18" t="s"/>
-      <c r="N527" s="18" t="s"/>
-      <c r="O527" s="18" t="s"/>
-      <c r="P527" s="18" t="s"/>
-      <c r="Q527" s="18" t="s"/>
-      <c r="R527" s="18" t="s"/>
-      <c r="S527" s="18" t="s"/>
-      <c r="T527" s="18" t="s"/>
-      <c r="U527" s="18" t="s"/>
-      <c r="V527" s="18" t="s"/>
-      <c r="W527" s="18" t="s"/>
-      <c r="X527" s="18" t="s"/>
-      <c r="Y527" s="18" t="s"/>
-      <c r="Z527" s="18" t="s"/>
+      <c r="A527" s="6" t="s"/>
+      <c r="B527" s="7" t="s"/>
+      <c r="C527" s="8" t="s"/>
+      <c r="D527" s="5" t="s"/>
+      <c r="E527" s="5" t="s"/>
+      <c r="F527" s="5" t="s"/>
+      <c r="G527" s="5" t="s"/>
+      <c r="H527" s="5" t="s"/>
+      <c r="I527" s="5" t="s"/>
+      <c r="J527" s="5" t="s"/>
+      <c r="K527" s="5" t="s"/>
+      <c r="L527" s="5" t="s"/>
+      <c r="M527" s="5" t="s"/>
+      <c r="N527" s="5" t="s"/>
+      <c r="O527" s="5" t="s"/>
+      <c r="P527" s="5" t="s"/>
+      <c r="Q527" s="5" t="s"/>
+      <c r="R527" s="5" t="s"/>
+      <c r="S527" s="5" t="s"/>
+      <c r="T527" s="5" t="s"/>
+      <c r="U527" s="5" t="s"/>
+      <c r="V527" s="5" t="s"/>
+      <c r="W527" s="5" t="s"/>
+      <c r="X527" s="5" t="s"/>
+      <c r="Y527" s="5" t="s"/>
+      <c r="Z527" s="5" t="s"/>
     </row>
     <row r="528" spans="1:26">
-      <c r="A528" s="16">
-        <v>543</v>
-      </c>
-      <c r="B528" s="16" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C528" s="17" t="s"/>
-      <c r="D528" s="18" t="s"/>
-      <c r="E528" s="18" t="s"/>
-      <c r="F528" s="18" t="s"/>
-      <c r="G528" s="18" t="s"/>
-      <c r="H528" s="18" t="s"/>
-      <c r="I528" s="18" t="s"/>
-      <c r="J528" s="18" t="s"/>
-      <c r="K528" s="18" t="s"/>
-      <c r="L528" s="18" t="s"/>
-      <c r="M528" s="18" t="s"/>
-      <c r="N528" s="18" t="s"/>
-      <c r="O528" s="18" t="s"/>
-      <c r="P528" s="18" t="s"/>
-      <c r="Q528" s="18" t="s"/>
-      <c r="R528" s="18" t="s"/>
-      <c r="S528" s="18" t="s"/>
-      <c r="T528" s="18" t="s"/>
-      <c r="U528" s="18" t="s"/>
-      <c r="V528" s="18" t="s"/>
-      <c r="W528" s="18" t="s"/>
-      <c r="X528" s="18" t="s"/>
-      <c r="Y528" s="18" t="s"/>
-      <c r="Z528" s="18" t="s"/>
+      <c r="A528" s="6" t="s"/>
+      <c r="B528" s="7" t="s"/>
+      <c r="C528" s="8" t="s"/>
+      <c r="D528" s="5" t="s"/>
+      <c r="E528" s="5" t="s"/>
+      <c r="F528" s="5" t="s"/>
+      <c r="G528" s="5" t="s"/>
+      <c r="H528" s="5" t="s"/>
+      <c r="I528" s="5" t="s"/>
+      <c r="J528" s="5" t="s"/>
+      <c r="K528" s="5" t="s"/>
+      <c r="L528" s="5" t="s"/>
+      <c r="M528" s="5" t="s"/>
+      <c r="N528" s="5" t="s"/>
+      <c r="O528" s="5" t="s"/>
+      <c r="P528" s="5" t="s"/>
+      <c r="Q528" s="5" t="s"/>
+      <c r="R528" s="5" t="s"/>
+      <c r="S528" s="5" t="s"/>
+      <c r="T528" s="5" t="s"/>
+      <c r="U528" s="5" t="s"/>
+      <c r="V528" s="5" t="s"/>
+      <c r="W528" s="5" t="s"/>
+      <c r="X528" s="5" t="s"/>
+      <c r="Y528" s="5" t="s"/>
+      <c r="Z528" s="5" t="s"/>
     </row>
     <row r="529" spans="1:26">
-      <c r="A529" s="16">
-        <v>544</v>
-      </c>
-      <c r="B529" s="16" t="s"/>
-      <c r="C529" s="17" t="s"/>
-      <c r="D529" s="18" t="s"/>
-      <c r="E529" s="18" t="s"/>
-      <c r="F529" s="18" t="s"/>
-      <c r="G529" s="18" t="s"/>
-      <c r="H529" s="18" t="s"/>
-      <c r="I529" s="18" t="s"/>
-      <c r="J529" s="18" t="s"/>
-      <c r="K529" s="18" t="s"/>
-      <c r="L529" s="18" t="s"/>
-      <c r="M529" s="18" t="s"/>
-      <c r="N529" s="18" t="s"/>
-      <c r="O529" s="18" t="s"/>
-      <c r="P529" s="18" t="s"/>
-      <c r="Q529" s="18" t="s"/>
-      <c r="R529" s="18" t="s"/>
-      <c r="S529" s="18" t="s"/>
-      <c r="T529" s="18" t="s"/>
-      <c r="U529" s="18" t="s"/>
-      <c r="V529" s="18" t="s"/>
-      <c r="W529" s="18" t="s"/>
-      <c r="X529" s="18" t="s"/>
-      <c r="Y529" s="18" t="s"/>
-      <c r="Z529" s="18" t="s"/>
+      <c r="A529" s="6" t="s"/>
+      <c r="B529" s="7" t="s"/>
+      <c r="C529" s="8" t="s"/>
+      <c r="D529" s="5" t="s"/>
+      <c r="E529" s="5" t="s"/>
+      <c r="F529" s="5" t="s"/>
+      <c r="G529" s="5" t="s"/>
+      <c r="H529" s="5" t="s"/>
+      <c r="I529" s="5" t="s"/>
+      <c r="J529" s="5" t="s"/>
+      <c r="K529" s="5" t="s"/>
+      <c r="L529" s="5" t="s"/>
+      <c r="M529" s="5" t="s"/>
+      <c r="N529" s="5" t="s"/>
+      <c r="O529" s="5" t="s"/>
+      <c r="P529" s="5" t="s"/>
+      <c r="Q529" s="5" t="s"/>
+      <c r="R529" s="5" t="s"/>
+      <c r="S529" s="5" t="s"/>
+      <c r="T529" s="5" t="s"/>
+      <c r="U529" s="5" t="s"/>
+      <c r="V529" s="5" t="s"/>
+      <c r="W529" s="5" t="s"/>
+      <c r="X529" s="5" t="s"/>
+      <c r="Y529" s="5" t="s"/>
+      <c r="Z529" s="5" t="s"/>
     </row>
     <row r="530" spans="1:26">
-      <c r="A530" s="16">
-        <v>545</v>
-      </c>
-      <c r="B530" s="16" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C530" s="17" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D530" s="18" t="s"/>
-      <c r="E530" s="18" t="s"/>
-      <c r="F530" s="18" t="s"/>
-      <c r="G530" s="18" t="s"/>
-      <c r="H530" s="18" t="s"/>
-      <c r="I530" s="18" t="s"/>
-      <c r="J530" s="18" t="s"/>
-      <c r="K530" s="18" t="s"/>
-      <c r="L530" s="18" t="s"/>
-      <c r="M530" s="18" t="s"/>
-      <c r="N530" s="18" t="s"/>
-      <c r="O530" s="18" t="s"/>
-      <c r="P530" s="18" t="s"/>
-      <c r="Q530" s="18" t="s"/>
-      <c r="R530" s="18" t="s"/>
-      <c r="S530" s="18" t="s"/>
-      <c r="T530" s="18" t="s"/>
-      <c r="U530" s="18" t="s"/>
-      <c r="V530" s="18" t="s"/>
-      <c r="W530" s="18" t="s"/>
-      <c r="X530" s="18" t="s"/>
-      <c r="Y530" s="18" t="s"/>
-      <c r="Z530" s="18" t="s"/>
+      <c r="A530" s="6" t="s"/>
+      <c r="B530" s="7" t="s"/>
+      <c r="C530" s="8" t="s"/>
+      <c r="D530" s="5" t="s"/>
+      <c r="E530" s="5" t="s"/>
+      <c r="F530" s="5" t="s"/>
+      <c r="G530" s="5" t="s"/>
+      <c r="H530" s="5" t="s"/>
+      <c r="I530" s="5" t="s"/>
+      <c r="J530" s="5" t="s"/>
+      <c r="K530" s="5" t="s"/>
+      <c r="L530" s="5" t="s"/>
+      <c r="M530" s="5" t="s"/>
+      <c r="N530" s="5" t="s"/>
+      <c r="O530" s="5" t="s"/>
+      <c r="P530" s="5" t="s"/>
+      <c r="Q530" s="5" t="s"/>
+      <c r="R530" s="5" t="s"/>
+      <c r="S530" s="5" t="s"/>
+      <c r="T530" s="5" t="s"/>
+      <c r="U530" s="5" t="s"/>
+      <c r="V530" s="5" t="s"/>
+      <c r="W530" s="5" t="s"/>
+      <c r="X530" s="5" t="s"/>
+      <c r="Y530" s="5" t="s"/>
+      <c r="Z530" s="5" t="s"/>
     </row>
     <row r="531" spans="1:26">
-      <c r="A531" s="16">
-        <v>546</v>
-      </c>
-      <c r="B531" s="16" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C531" s="17" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D531" s="18" t="s"/>
-      <c r="E531" s="18" t="s"/>
-      <c r="F531" s="18" t="s"/>
-      <c r="G531" s="18" t="s"/>
-      <c r="H531" s="18" t="s"/>
-      <c r="I531" s="18" t="s"/>
-      <c r="J531" s="18" t="s"/>
-      <c r="K531" s="18" t="s"/>
-      <c r="L531" s="18" t="s"/>
-      <c r="M531" s="18" t="s"/>
-      <c r="N531" s="18" t="s"/>
-      <c r="O531" s="18" t="s"/>
-      <c r="P531" s="18" t="s"/>
-      <c r="Q531" s="18" t="s"/>
-      <c r="R531" s="18" t="s"/>
-      <c r="S531" s="18" t="s"/>
-      <c r="T531" s="18" t="s"/>
-      <c r="U531" s="18" t="s"/>
-      <c r="V531" s="18" t="s"/>
-      <c r="W531" s="18" t="s"/>
-      <c r="X531" s="18" t="s"/>
-      <c r="Y531" s="18" t="s"/>
-      <c r="Z531" s="18" t="s"/>
+      <c r="A531" s="6" t="s"/>
+      <c r="B531" s="7" t="s"/>
+      <c r="C531" s="8" t="s"/>
+      <c r="D531" s="5" t="s"/>
+      <c r="E531" s="5" t="s"/>
+      <c r="F531" s="5" t="s"/>
+      <c r="G531" s="5" t="s"/>
+      <c r="H531" s="5" t="s"/>
+      <c r="I531" s="5" t="s"/>
+      <c r="J531" s="5" t="s"/>
+      <c r="K531" s="5" t="s"/>
+      <c r="L531" s="5" t="s"/>
+      <c r="M531" s="5" t="s"/>
+      <c r="N531" s="5" t="s"/>
+      <c r="O531" s="5" t="s"/>
+      <c r="P531" s="5" t="s"/>
+      <c r="Q531" s="5" t="s"/>
+      <c r="R531" s="5" t="s"/>
+      <c r="S531" s="5" t="s"/>
+      <c r="T531" s="5" t="s"/>
+      <c r="U531" s="5" t="s"/>
+      <c r="V531" s="5" t="s"/>
+      <c r="W531" s="5" t="s"/>
+      <c r="X531" s="5" t="s"/>
+      <c r="Y531" s="5" t="s"/>
+      <c r="Z531" s="5" t="s"/>
     </row>
     <row r="532" spans="1:26">
-      <c r="A532" s="16">
-        <v>547</v>
-      </c>
-      <c r="B532" s="16" t="s"/>
-      <c r="C532" s="17" t="s"/>
-      <c r="D532" s="18" t="s"/>
-      <c r="E532" s="18" t="s"/>
-      <c r="F532" s="18" t="s"/>
-      <c r="G532" s="18" t="s"/>
-      <c r="H532" s="18" t="s"/>
-      <c r="I532" s="18" t="s"/>
-      <c r="J532" s="18" t="s"/>
-      <c r="K532" s="18" t="s"/>
-      <c r="L532" s="18" t="s"/>
-      <c r="M532" s="18" t="s"/>
-      <c r="N532" s="18" t="s"/>
-      <c r="O532" s="18" t="s"/>
-      <c r="P532" s="18" t="s"/>
-      <c r="Q532" s="18" t="s"/>
-      <c r="R532" s="18" t="s"/>
-      <c r="S532" s="18" t="s"/>
-      <c r="T532" s="18" t="s"/>
-      <c r="U532" s="18" t="s"/>
-      <c r="V532" s="18" t="s"/>
-      <c r="W532" s="18" t="s"/>
-      <c r="X532" s="18" t="s"/>
-      <c r="Y532" s="18" t="s"/>
-      <c r="Z532" s="18" t="s"/>
+      <c r="A532" s="6" t="s"/>
+      <c r="B532" s="7" t="s"/>
+      <c r="C532" s="8" t="s"/>
+      <c r="D532" s="5" t="s"/>
+      <c r="E532" s="5" t="s"/>
+      <c r="F532" s="5" t="s"/>
+      <c r="G532" s="5" t="s"/>
+      <c r="H532" s="5" t="s"/>
+      <c r="I532" s="5" t="s"/>
+      <c r="J532" s="5" t="s"/>
+      <c r="K532" s="5" t="s"/>
+      <c r="L532" s="5" t="s"/>
+      <c r="M532" s="5" t="s"/>
+      <c r="N532" s="5" t="s"/>
+      <c r="O532" s="5" t="s"/>
+      <c r="P532" s="5" t="s"/>
+      <c r="Q532" s="5" t="s"/>
+      <c r="R532" s="5" t="s"/>
+      <c r="S532" s="5" t="s"/>
+      <c r="T532" s="5" t="s"/>
+      <c r="U532" s="5" t="s"/>
+      <c r="V532" s="5" t="s"/>
+      <c r="W532" s="5" t="s"/>
+      <c r="X532" s="5" t="s"/>
+      <c r="Y532" s="5" t="s"/>
+      <c r="Z532" s="5" t="s"/>
     </row>
     <row r="533" spans="1:26">
-      <c r="A533" s="16">
-        <v>548</v>
-      </c>
-      <c r="B533" s="16" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C533" s="17" t="s"/>
-      <c r="D533" s="18" t="s"/>
-      <c r="E533" s="18" t="s"/>
-      <c r="F533" s="18" t="s"/>
-      <c r="G533" s="18" t="s"/>
-      <c r="H533" s="18" t="s"/>
-      <c r="I533" s="18" t="s"/>
-      <c r="J533" s="18" t="s"/>
-      <c r="K533" s="18" t="s"/>
-      <c r="L533" s="18" t="s"/>
-      <c r="M533" s="18" t="s"/>
-      <c r="N533" s="18" t="s"/>
-      <c r="O533" s="18" t="s"/>
-      <c r="P533" s="18" t="s"/>
-      <c r="Q533" s="18" t="s"/>
-      <c r="R533" s="18" t="s"/>
-      <c r="S533" s="18" t="s"/>
-      <c r="T533" s="18" t="s"/>
-      <c r="U533" s="18" t="s"/>
-      <c r="V533" s="18" t="s"/>
-      <c r="W533" s="18" t="s"/>
-      <c r="X533" s="18" t="s"/>
-      <c r="Y533" s="18" t="s"/>
-      <c r="Z533" s="18" t="s"/>
+      <c r="A533" s="6" t="s"/>
+      <c r="B533" s="7" t="s"/>
+      <c r="C533" s="8" t="s"/>
+      <c r="D533" s="5" t="s"/>
+      <c r="E533" s="5" t="s"/>
+      <c r="F533" s="5" t="s"/>
+      <c r="G533" s="5" t="s"/>
+      <c r="H533" s="5" t="s"/>
+      <c r="I533" s="5" t="s"/>
+      <c r="J533" s="5" t="s"/>
+      <c r="K533" s="5" t="s"/>
+      <c r="L533" s="5" t="s"/>
+      <c r="M533" s="5" t="s"/>
+      <c r="N533" s="5" t="s"/>
+      <c r="O533" s="5" t="s"/>
+      <c r="P533" s="5" t="s"/>
+      <c r="Q533" s="5" t="s"/>
+      <c r="R533" s="5" t="s"/>
+      <c r="S533" s="5" t="s"/>
+      <c r="T533" s="5" t="s"/>
+      <c r="U533" s="5" t="s"/>
+      <c r="V533" s="5" t="s"/>
+      <c r="W533" s="5" t="s"/>
+      <c r="X533" s="5" t="s"/>
+      <c r="Y533" s="5" t="s"/>
+      <c r="Z533" s="5" t="s"/>
     </row>
     <row r="534" spans="1:26">
-      <c r="A534" s="6">
-        <v>10001</v>
-      </c>
-      <c r="B534" s="7" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C534" s="8" t="s">
-        <v>1035</v>
-      </c>
+      <c r="A534" s="6" t="s"/>
+      <c r="B534" s="7" t="s"/>
+      <c r="C534" s="8" t="s"/>
+      <c r="D534" s="5" t="s"/>
       <c r="E534" s="5" t="s"/>
       <c r="F534" s="5" t="s"/>
       <c r="G534" s="5" t="s"/>
@@ -21750,232 +21688,8 @@
       <c r="Y536" s="5" t="s"/>
       <c r="Z536" s="5" t="s"/>
     </row>
-    <row r="537" spans="1:26">
-      <c r="A537" s="6" t="s"/>
-      <c r="B537" s="7" t="s"/>
-      <c r="C537" s="8" t="s"/>
-      <c r="D537" s="5" t="s"/>
-      <c r="E537" s="5" t="s"/>
-      <c r="F537" s="5" t="s"/>
-      <c r="G537" s="5" t="s"/>
-      <c r="H537" s="5" t="s"/>
-      <c r="I537" s="5" t="s"/>
-      <c r="J537" s="5" t="s"/>
-      <c r="K537" s="5" t="s"/>
-      <c r="L537" s="5" t="s"/>
-      <c r="M537" s="5" t="s"/>
-      <c r="N537" s="5" t="s"/>
-      <c r="O537" s="5" t="s"/>
-      <c r="P537" s="5" t="s"/>
-      <c r="Q537" s="5" t="s"/>
-      <c r="R537" s="5" t="s"/>
-      <c r="S537" s="5" t="s"/>
-      <c r="T537" s="5" t="s"/>
-      <c r="U537" s="5" t="s"/>
-      <c r="V537" s="5" t="s"/>
-      <c r="W537" s="5" t="s"/>
-      <c r="X537" s="5" t="s"/>
-      <c r="Y537" s="5" t="s"/>
-      <c r="Z537" s="5" t="s"/>
-    </row>
-    <row r="538" spans="1:26">
-      <c r="A538" s="6" t="s"/>
-      <c r="B538" s="7" t="s"/>
-      <c r="C538" s="8" t="s"/>
-      <c r="D538" s="5" t="s"/>
-      <c r="E538" s="5" t="s"/>
-      <c r="F538" s="5" t="s"/>
-      <c r="G538" s="5" t="s"/>
-      <c r="H538" s="5" t="s"/>
-      <c r="I538" s="5" t="s"/>
-      <c r="J538" s="5" t="s"/>
-      <c r="K538" s="5" t="s"/>
-      <c r="L538" s="5" t="s"/>
-      <c r="M538" s="5" t="s"/>
-      <c r="N538" s="5" t="s"/>
-      <c r="O538" s="5" t="s"/>
-      <c r="P538" s="5" t="s"/>
-      <c r="Q538" s="5" t="s"/>
-      <c r="R538" s="5" t="s"/>
-      <c r="S538" s="5" t="s"/>
-      <c r="T538" s="5" t="s"/>
-      <c r="U538" s="5" t="s"/>
-      <c r="V538" s="5" t="s"/>
-      <c r="W538" s="5" t="s"/>
-      <c r="X538" s="5" t="s"/>
-      <c r="Y538" s="5" t="s"/>
-      <c r="Z538" s="5" t="s"/>
-    </row>
-    <row r="539" spans="1:26">
-      <c r="A539" s="6" t="s"/>
-      <c r="B539" s="7" t="s"/>
-      <c r="C539" s="8" t="s"/>
-      <c r="D539" s="5" t="s"/>
-      <c r="E539" s="5" t="s"/>
-      <c r="F539" s="5" t="s"/>
-      <c r="G539" s="5" t="s"/>
-      <c r="H539" s="5" t="s"/>
-      <c r="I539" s="5" t="s"/>
-      <c r="J539" s="5" t="s"/>
-      <c r="K539" s="5" t="s"/>
-      <c r="L539" s="5" t="s"/>
-      <c r="M539" s="5" t="s"/>
-      <c r="N539" s="5" t="s"/>
-      <c r="O539" s="5" t="s"/>
-      <c r="P539" s="5" t="s"/>
-      <c r="Q539" s="5" t="s"/>
-      <c r="R539" s="5" t="s"/>
-      <c r="S539" s="5" t="s"/>
-      <c r="T539" s="5" t="s"/>
-      <c r="U539" s="5" t="s"/>
-      <c r="V539" s="5" t="s"/>
-      <c r="W539" s="5" t="s"/>
-      <c r="X539" s="5" t="s"/>
-      <c r="Y539" s="5" t="s"/>
-      <c r="Z539" s="5" t="s"/>
-    </row>
-    <row r="540" spans="1:26">
-      <c r="A540" s="6" t="s"/>
-      <c r="B540" s="7" t="s"/>
-      <c r="C540" s="8" t="s"/>
-      <c r="D540" s="5" t="s"/>
-      <c r="E540" s="5" t="s"/>
-      <c r="F540" s="5" t="s"/>
-      <c r="G540" s="5" t="s"/>
-      <c r="H540" s="5" t="s"/>
-      <c r="I540" s="5" t="s"/>
-      <c r="J540" s="5" t="s"/>
-      <c r="K540" s="5" t="s"/>
-      <c r="L540" s="5" t="s"/>
-      <c r="M540" s="5" t="s"/>
-      <c r="N540" s="5" t="s"/>
-      <c r="O540" s="5" t="s"/>
-      <c r="P540" s="5" t="s"/>
-      <c r="Q540" s="5" t="s"/>
-      <c r="R540" s="5" t="s"/>
-      <c r="S540" s="5" t="s"/>
-      <c r="T540" s="5" t="s"/>
-      <c r="U540" s="5" t="s"/>
-      <c r="V540" s="5" t="s"/>
-      <c r="W540" s="5" t="s"/>
-      <c r="X540" s="5" t="s"/>
-      <c r="Y540" s="5" t="s"/>
-      <c r="Z540" s="5" t="s"/>
-    </row>
-    <row r="541" spans="1:26">
-      <c r="A541" s="6" t="s"/>
-      <c r="B541" s="7" t="s"/>
-      <c r="C541" s="8" t="s"/>
-      <c r="D541" s="5" t="s"/>
-      <c r="E541" s="5" t="s"/>
-      <c r="F541" s="5" t="s"/>
-      <c r="G541" s="5" t="s"/>
-      <c r="H541" s="5" t="s"/>
-      <c r="I541" s="5" t="s"/>
-      <c r="J541" s="5" t="s"/>
-      <c r="K541" s="5" t="s"/>
-      <c r="L541" s="5" t="s"/>
-      <c r="M541" s="5" t="s"/>
-      <c r="N541" s="5" t="s"/>
-      <c r="O541" s="5" t="s"/>
-      <c r="P541" s="5" t="s"/>
-      <c r="Q541" s="5" t="s"/>
-      <c r="R541" s="5" t="s"/>
-      <c r="S541" s="5" t="s"/>
-      <c r="T541" s="5" t="s"/>
-      <c r="U541" s="5" t="s"/>
-      <c r="V541" s="5" t="s"/>
-      <c r="W541" s="5" t="s"/>
-      <c r="X541" s="5" t="s"/>
-      <c r="Y541" s="5" t="s"/>
-      <c r="Z541" s="5" t="s"/>
-    </row>
-    <row r="542" spans="1:26">
-      <c r="A542" s="6" t="s"/>
-      <c r="B542" s="7" t="s"/>
-      <c r="C542" s="8" t="s"/>
-      <c r="D542" s="5" t="s"/>
-      <c r="E542" s="5" t="s"/>
-      <c r="F542" s="5" t="s"/>
-      <c r="G542" s="5" t="s"/>
-      <c r="H542" s="5" t="s"/>
-      <c r="I542" s="5" t="s"/>
-      <c r="J542" s="5" t="s"/>
-      <c r="K542" s="5" t="s"/>
-      <c r="L542" s="5" t="s"/>
-      <c r="M542" s="5" t="s"/>
-      <c r="N542" s="5" t="s"/>
-      <c r="O542" s="5" t="s"/>
-      <c r="P542" s="5" t="s"/>
-      <c r="Q542" s="5" t="s"/>
-      <c r="R542" s="5" t="s"/>
-      <c r="S542" s="5" t="s"/>
-      <c r="T542" s="5" t="s"/>
-      <c r="U542" s="5" t="s"/>
-      <c r="V542" s="5" t="s"/>
-      <c r="W542" s="5" t="s"/>
-      <c r="X542" s="5" t="s"/>
-      <c r="Y542" s="5" t="s"/>
-      <c r="Z542" s="5" t="s"/>
-    </row>
-    <row r="543" spans="1:26">
-      <c r="A543" s="6" t="s"/>
-      <c r="B543" s="7" t="s"/>
-      <c r="C543" s="8" t="s"/>
-      <c r="D543" s="5" t="s"/>
-      <c r="E543" s="5" t="s"/>
-      <c r="F543" s="5" t="s"/>
-      <c r="G543" s="5" t="s"/>
-      <c r="H543" s="5" t="s"/>
-      <c r="I543" s="5" t="s"/>
-      <c r="J543" s="5" t="s"/>
-      <c r="K543" s="5" t="s"/>
-      <c r="L543" s="5" t="s"/>
-      <c r="M543" s="5" t="s"/>
-      <c r="N543" s="5" t="s"/>
-      <c r="O543" s="5" t="s"/>
-      <c r="P543" s="5" t="s"/>
-      <c r="Q543" s="5" t="s"/>
-      <c r="R543" s="5" t="s"/>
-      <c r="S543" s="5" t="s"/>
-      <c r="T543" s="5" t="s"/>
-      <c r="U543" s="5" t="s"/>
-      <c r="V543" s="5" t="s"/>
-      <c r="W543" s="5" t="s"/>
-      <c r="X543" s="5" t="s"/>
-      <c r="Y543" s="5" t="s"/>
-      <c r="Z543" s="5" t="s"/>
-    </row>
-    <row r="544" spans="1:26">
-      <c r="A544" s="6" t="s"/>
-      <c r="B544" s="7" t="s"/>
-      <c r="C544" s="8" t="s"/>
-      <c r="D544" s="5" t="s"/>
-      <c r="E544" s="5" t="s"/>
-      <c r="F544" s="5" t="s"/>
-      <c r="G544" s="5" t="s"/>
-      <c r="H544" s="5" t="s"/>
-      <c r="I544" s="5" t="s"/>
-      <c r="J544" s="5" t="s"/>
-      <c r="K544" s="5" t="s"/>
-      <c r="L544" s="5" t="s"/>
-      <c r="M544" s="5" t="s"/>
-      <c r="N544" s="5" t="s"/>
-      <c r="O544" s="5" t="s"/>
-      <c r="P544" s="5" t="s"/>
-      <c r="Q544" s="5" t="s"/>
-      <c r="R544" s="5" t="s"/>
-      <c r="S544" s="5" t="s"/>
-      <c r="T544" s="5" t="s"/>
-      <c r="U544" s="5" t="s"/>
-      <c r="V544" s="5" t="s"/>
-      <c r="W544" s="5" t="s"/>
-      <c r="X544" s="5" t="s"/>
-      <c r="Y544" s="5" t="s"/>
-      <c r="Z544" s="5" t="s"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C544 D1">
+  <conditionalFormatting sqref="C1:C536 D1">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="，">
       <formula>NOT(ISERROR(SEARCH("，",C1)))</formula>
     </cfRule>

--- a/backend/config/nickname_song.xlsx
+++ b/backend/config/nickname_song.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="1047">
   <si>
     <t/>
   </si>
@@ -2634,13 +2634,13 @@
     <t>Invincible Fighter</t>
   </si>
   <si>
-    <t>op,if,Invisible Frenzy（</t>
+    <t>op,if,Invisible Frenzy</t>
   </si>
   <si>
     <t>Takin’ my Heart</t>
   </si>
   <si>
-    <t>朝日六花夺走我的心,夺心</t>
+    <t>夺走我的心,夺心</t>
   </si>
   <si>
     <t>スカイクラッドの観測者</t>
@@ -2724,7 +2724,7 @@
     <t>群青</t>
   </si>
   <si>
-    <t>啊啊啊啊啊啊啊啊啊啊,群青</t>
+    <t>啊啊啊啊啊啊啊啊啊啊</t>
   </si>
   <si>
     <t>フォニイ</t>
@@ -2829,7 +2829,7 @@
     <t>Glee! Glee! Glee!</t>
   </si>
   <si>
-    <t>格里,格力,格立,格利</t>
+    <t>格里,格力,格立,格利,ggg</t>
   </si>
   <si>
     <t>[超高難易度 新SPECIAL] HELL! or HELL?</t>
@@ -2874,7 +2874,7 @@
     <t>最強☆ソング</t>
   </si>
   <si>
-    <t>最强歌,最强song,Saikyo song,Saikyo Stronger（</t>
+    <t>最强歌,最强song,Saikyo song,Saikyo Stronger</t>
   </si>
   <si>
     <t>ヒロイン育成計画</t>
@@ -2886,7 +2886,7 @@
     <t>少女レイ</t>
   </si>
   <si>
-    <t>少女rei,你要的海底谭（,Layer</t>
+    <t>少女rei,你要的海底谭,Layer</t>
   </si>
   <si>
     <t>チューリングラブ</t>
@@ -2934,7 +2934,7 @@
     <t>キミを れっつ・はぶ・ふぁん♪</t>
   </si>
   <si>
-    <t>Kimiwa Let's have fun, 小atz</t>
+    <t>Let'have fun!</t>
   </si>
   <si>
     <t>ダンスホール</t>
@@ -2976,6 +2976,9 @@
     <t>没六星,再看半集的小曲,再看半集の小曲儿</t>
   </si>
   <si>
+    <t>2023年9月25日，栞还是没六星</t>
+  </si>
+  <si>
     <t>QUEEN</t>
   </si>
   <si>
@@ -2985,6 +2988,9 @@
     <t>碧天伴走</t>
   </si>
   <si>
+    <t>逆天伴走,爱灯</t>
+  </si>
+  <si>
     <t>Get Wild</t>
   </si>
   <si>
@@ -2994,9 +3000,15 @@
     <t>HOT LIMIT</t>
   </si>
   <si>
+    <t>教主,西川贵教,阳性</t>
+  </si>
+  <si>
     <t>私色きらめき日和</t>
   </si>
   <si>
+    <t>Ever Sky Blue</t>
+  </si>
+  <si>
     <t>極彩色</t>
   </si>
   <si>
@@ -3015,7 +3027,7 @@
     <t>ふぁいぶスマイル◯オールインっ！</t>
   </si>
   <si>
-    <t>我超,⚪</t>
+    <t>我超,原</t>
   </si>
   <si>
     <t>迷路日々</t>
@@ -3027,13 +3039,13 @@
     <t>燦々</t>
   </si>
   <si>
-    <t>sansan,史</t>
+    <t>sansan,sensen（,尾杀一万级</t>
   </si>
   <si>
     <t>ほな！</t>
   </si>
   <si>
-    <t>Hona!</t>
+    <t>西游记,Hona!</t>
   </si>
   <si>
     <t>flow,你邦男声,优胜</t>
@@ -3045,7 +3057,7 @@
     <t>チルドレンレコード(Re:boot)</t>
   </si>
   <si>
-    <t>孩童记录</t>
+    <t>孩童记录,children record</t>
   </si>
   <si>
     <t>音がえしのセレナーデ</t>
@@ -3081,10 +3093,58 @@
     <t>トウキョウ・シャンディ・ランデヴ</t>
   </si>
   <si>
+    <t>东京香蒂幽会</t>
+  </si>
+  <si>
     <t>Be born</t>
   </si>
   <si>
     <t>出生</t>
+  </si>
+  <si>
+    <t>影色舞</t>
+  </si>
+  <si>
+    <t>影色舞,冰,溜大了的小曲</t>
+  </si>
+  <si>
+    <t>歌いましょう鳴らしましょう</t>
+  </si>
+  <si>
+    <t>歌鸣,一同演奏一同歌唱</t>
+  </si>
+  <si>
+    <t>THRONE OF ROSE</t>
+  </si>
+  <si>
+    <t>蔷薇王座</t>
+  </si>
+  <si>
+    <t>猛独が襲う</t>
+  </si>
+  <si>
+    <t>独孤猛袭,孤独猛袭,猛独孤袭</t>
+  </si>
+  <si>
+    <t>swim</t>
+  </si>
+  <si>
+    <t>游泳</t>
+  </si>
+  <si>
+    <t>ヴィラン</t>
+  </si>
+  <si>
+    <t>villain</t>
+  </si>
+  <si>
+    <t>everyday flower</t>
+  </si>
+  <si>
+    <t>每天花,每日花,日日花</t>
+  </si>
+  <si>
+    <t>BATTLE CRY</t>
   </si>
   <si>
     <t>彩虹节拍</t>
@@ -3550,7 +3610,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="Z536"/>
+  <dimension ref="Z546"/>
   <sheetViews>
     <sheetView showGridLines="true" rightToLeft="false" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="A2" state="frozen"/>
@@ -10103,7 +10163,7 @@
         <v>388</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>1026</v>
+        <v>1046</v>
       </c>
       <c r="D193" s="5" t="s"/>
       <c r="E193" s="5" t="s"/>
@@ -20523,7 +20583,9 @@
       <c r="C500" s="17" t="s">
         <v>986</v>
       </c>
-      <c r="D500" s="18" t="s"/>
+      <c r="D500" s="18" t="s">
+        <v>987</v>
+      </c>
       <c r="E500" s="18" t="s"/>
       <c r="F500" s="18" t="s"/>
       <c r="G500" s="18" t="s"/>
@@ -20552,10 +20614,10 @@
         <v>514</v>
       </c>
       <c r="B501" s="16" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C501" s="17" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D501" s="18" t="s"/>
       <c r="E501" s="18" t="s"/>
@@ -20586,10 +20648,10 @@
         <v>515</v>
       </c>
       <c r="B502" s="16" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C502" s="17" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="D502" s="18" t="s"/>
       <c r="E502" s="18" t="s"/>
@@ -20620,7 +20682,7 @@
         <v>516</v>
       </c>
       <c r="B503" s="16" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="C503" s="17" t="s"/>
       <c r="D503" s="18" t="s"/>
@@ -20652,7 +20714,7 @@
         <v>517</v>
       </c>
       <c r="B504" s="16" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="C504" s="17" t="s"/>
       <c r="D504" s="18" t="s"/>
@@ -20684,9 +20746,11 @@
         <v>518</v>
       </c>
       <c r="B505" s="16" t="s">
-        <v>992</v>
-      </c>
-      <c r="C505" s="17" t="s"/>
+        <v>994</v>
+      </c>
+      <c r="C505" s="17" t="s">
+        <v>995</v>
+      </c>
       <c r="D505" s="18" t="s"/>
       <c r="E505" s="18" t="s"/>
       <c r="F505" s="18" t="s"/>
@@ -20716,7 +20780,7 @@
         <v>519</v>
       </c>
       <c r="B506" s="16" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="C506" s="17" t="s"/>
       <c r="D506" s="18" t="s"/>
@@ -20745,14 +20809,12 @@
     </row>
     <row r="507" spans="1:26">
       <c r="A507" s="16">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B507" s="16" t="s">
-        <v>994</v>
-      </c>
-      <c r="C507" s="17" t="s">
-        <v>995</v>
-      </c>
+        <v>997</v>
+      </c>
+      <c r="C507" s="17" t="s"/>
       <c r="D507" s="18" t="s"/>
       <c r="E507" s="18" t="s"/>
       <c r="F507" s="18" t="s"/>
@@ -20779,13 +20841,13 @@
     </row>
     <row r="508" spans="1:26">
       <c r="A508" s="16">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B508" s="16" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="C508" s="17" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="D508" s="18" t="s"/>
       <c r="E508" s="18" t="s"/>
@@ -20813,12 +20875,14 @@
     </row>
     <row r="509" spans="1:26">
       <c r="A509" s="16">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B509" s="16" t="s">
-        <v>998</v>
-      </c>
-      <c r="C509" s="17" t="s"/>
+        <v>1000</v>
+      </c>
+      <c r="C509" s="17" t="s">
+        <v>1001</v>
+      </c>
       <c r="D509" s="18" t="s"/>
       <c r="E509" s="18" t="s"/>
       <c r="F509" s="18" t="s"/>
@@ -20845,14 +20909,12 @@
     </row>
     <row r="510" spans="1:26">
       <c r="A510" s="16">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B510" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="C510" s="17" t="s">
-        <v>1000</v>
-      </c>
+        <v>1002</v>
+      </c>
+      <c r="C510" s="17" t="s"/>
       <c r="D510" s="18" t="s"/>
       <c r="E510" s="18" t="s"/>
       <c r="F510" s="18" t="s"/>
@@ -20879,13 +20941,13 @@
     </row>
     <row r="511" spans="1:26">
       <c r="A511" s="16">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B511" s="16" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="C511" s="17" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="D511" s="18" t="s"/>
       <c r="E511" s="18" t="s"/>
@@ -20913,13 +20975,13 @@
     </row>
     <row r="512" spans="1:26">
       <c r="A512" s="16">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B512" s="16" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C512" s="17" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="D512" s="18" t="s"/>
       <c r="E512" s="18" t="s"/>
@@ -20947,13 +21009,13 @@
     </row>
     <row r="513" spans="1:26">
       <c r="A513" s="16">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B513" s="16" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="C513" s="17" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="D513" s="18" t="s"/>
       <c r="E513" s="18" t="s"/>
@@ -20981,17 +21043,15 @@
     </row>
     <row r="514" spans="1:26">
       <c r="A514" s="16">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B514" s="16" t="s">
-        <v>733</v>
+        <v>1009</v>
       </c>
       <c r="C514" s="17" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D514" s="18" t="s">
-        <v>1008</v>
-      </c>
+        <v>1010</v>
+      </c>
+      <c r="D514" s="18" t="s"/>
       <c r="E514" s="18" t="s"/>
       <c r="F514" s="18" t="s"/>
       <c r="G514" s="18" t="s"/>
@@ -21017,15 +21077,17 @@
     </row>
     <row r="515" spans="1:26">
       <c r="A515" s="16">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B515" s="16" t="s">
-        <v>1009</v>
+        <v>733</v>
       </c>
       <c r="C515" s="17" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D515" s="18" t="s"/>
+        <v>1011</v>
+      </c>
+      <c r="D515" s="18" t="s">
+        <v>1012</v>
+      </c>
       <c r="E515" s="18" t="s"/>
       <c r="F515" s="18" t="s"/>
       <c r="G515" s="18" t="s"/>
@@ -21051,12 +21113,14 @@
     </row>
     <row r="516" spans="1:26">
       <c r="A516" s="16">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B516" s="16" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C516" s="17" t="s"/>
+        <v>1013</v>
+      </c>
+      <c r="C516" s="17" t="s">
+        <v>1014</v>
+      </c>
       <c r="D516" s="18" t="s"/>
       <c r="E516" s="18" t="s"/>
       <c r="F516" s="18" t="s"/>
@@ -21083,14 +21147,12 @@
     </row>
     <row r="517" spans="1:26">
       <c r="A517" s="16">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B517" s="16" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C517" s="17" t="s">
-        <v>1012</v>
-      </c>
+        <v>1015</v>
+      </c>
+      <c r="C517" s="17" t="s"/>
       <c r="D517" s="18" t="s"/>
       <c r="E517" s="18" t="s"/>
       <c r="F517" s="18" t="s"/>
@@ -21117,13 +21179,13 @@
     </row>
     <row r="518" spans="1:26">
       <c r="A518" s="16">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B518" s="16" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="C518" s="17" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="D518" s="18" t="s"/>
       <c r="E518" s="18" t="s"/>
@@ -21151,13 +21213,13 @@
     </row>
     <row r="519" spans="1:26">
       <c r="A519" s="16">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B519" s="16" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="C519" s="17" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D519" s="18" t="s"/>
       <c r="E519" s="18" t="s"/>
@@ -21185,12 +21247,14 @@
     </row>
     <row r="520" spans="1:26">
       <c r="A520" s="16">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B520" s="16" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C520" s="17" t="s"/>
+        <v>1019</v>
+      </c>
+      <c r="C520" s="17" t="s">
+        <v>1020</v>
+      </c>
       <c r="D520" s="18" t="s"/>
       <c r="E520" s="18" t="s"/>
       <c r="F520" s="18" t="s"/>
@@ -21217,10 +21281,10 @@
     </row>
     <row r="521" spans="1:26">
       <c r="A521" s="16">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B521" s="16" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="C521" s="17" t="s"/>
       <c r="D521" s="18" t="s"/>
@@ -21249,14 +21313,12 @@
     </row>
     <row r="522" spans="1:26">
       <c r="A522" s="16">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B522" s="16" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C522" s="17" t="s">
-        <v>1020</v>
-      </c>
+        <v>1022</v>
+      </c>
+      <c r="C522" s="17" t="s"/>
       <c r="D522" s="18" t="s"/>
       <c r="E522" s="18" t="s"/>
       <c r="F522" s="18" t="s"/>
@@ -21283,12 +21345,14 @@
     </row>
     <row r="523" spans="1:26">
       <c r="A523" s="16">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B523" s="16" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C523" s="17" t="s"/>
+        <v>1023</v>
+      </c>
+      <c r="C523" s="17" t="s">
+        <v>1024</v>
+      </c>
       <c r="D523" s="18" t="s"/>
       <c r="E523" s="18" t="s"/>
       <c r="F523" s="18" t="s"/>
@@ -21315,13 +21379,13 @@
     </row>
     <row r="524" spans="1:26">
       <c r="A524" s="16">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B524" s="16" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="C524" s="17" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="D524" s="18" t="s"/>
       <c r="E524" s="18" t="s"/>
@@ -21348,9 +21412,15 @@
       <c r="Z524" s="18" t="s"/>
     </row>
     <row r="525" spans="1:26">
-      <c r="A525" s="16" t="s"/>
-      <c r="B525" s="16" t="s"/>
-      <c r="C525" s="17" t="s"/>
+      <c r="A525" s="16">
+        <v>539</v>
+      </c>
+      <c r="B525" s="16" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C525" s="17" t="s">
+        <v>1028</v>
+      </c>
       <c r="D525" s="18" t="s"/>
       <c r="E525" s="18" t="s"/>
       <c r="F525" s="18" t="s"/>
@@ -21376,295 +21446,345 @@
       <c r="Z525" s="18" t="s"/>
     </row>
     <row r="526" spans="1:26">
-      <c r="A526" s="6">
+      <c r="A526" s="16">
+        <v>540</v>
+      </c>
+      <c r="B526" s="16" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C526" s="17" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D526" s="18" t="s"/>
+      <c r="E526" s="18" t="s"/>
+      <c r="F526" s="18" t="s"/>
+      <c r="G526" s="18" t="s"/>
+      <c r="H526" s="18" t="s"/>
+      <c r="I526" s="18" t="s"/>
+      <c r="J526" s="18" t="s"/>
+      <c r="K526" s="18" t="s"/>
+      <c r="L526" s="18" t="s"/>
+      <c r="M526" s="18" t="s"/>
+      <c r="N526" s="18" t="s"/>
+      <c r="O526" s="18" t="s"/>
+      <c r="P526" s="18" t="s"/>
+      <c r="Q526" s="18" t="s"/>
+      <c r="R526" s="18" t="s"/>
+      <c r="S526" s="18" t="s"/>
+      <c r="T526" s="18" t="s"/>
+      <c r="U526" s="18" t="s"/>
+      <c r="V526" s="18" t="s"/>
+      <c r="W526" s="18" t="s"/>
+      <c r="X526" s="18" t="s"/>
+      <c r="Y526" s="18" t="s"/>
+      <c r="Z526" s="18" t="s"/>
+    </row>
+    <row r="527" spans="1:26">
+      <c r="A527" s="16">
+        <v>541</v>
+      </c>
+      <c r="B527" s="16" t="s"/>
+      <c r="C527" s="17" t="s"/>
+      <c r="D527" s="18" t="s"/>
+      <c r="E527" s="18" t="s"/>
+      <c r="F527" s="18" t="s"/>
+      <c r="G527" s="18" t="s"/>
+      <c r="H527" s="18" t="s"/>
+      <c r="I527" s="18" t="s"/>
+      <c r="J527" s="18" t="s"/>
+      <c r="K527" s="18" t="s"/>
+      <c r="L527" s="18" t="s"/>
+      <c r="M527" s="18" t="s"/>
+      <c r="N527" s="18" t="s"/>
+      <c r="O527" s="18" t="s"/>
+      <c r="P527" s="18" t="s"/>
+      <c r="Q527" s="18" t="s"/>
+      <c r="R527" s="18" t="s"/>
+      <c r="S527" s="18" t="s"/>
+      <c r="T527" s="18" t="s"/>
+      <c r="U527" s="18" t="s"/>
+      <c r="V527" s="18" t="s"/>
+      <c r="W527" s="18" t="s"/>
+      <c r="X527" s="18" t="s"/>
+      <c r="Y527" s="18" t="s"/>
+      <c r="Z527" s="18" t="s"/>
+    </row>
+    <row r="528" spans="1:26">
+      <c r="A528" s="16">
+        <v>542</v>
+      </c>
+      <c r="B528" s="16" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C528" s="17" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D528" s="18" t="s"/>
+      <c r="E528" s="18" t="s"/>
+      <c r="F528" s="18" t="s"/>
+      <c r="G528" s="18" t="s"/>
+      <c r="H528" s="18" t="s"/>
+      <c r="I528" s="18" t="s"/>
+      <c r="J528" s="18" t="s"/>
+      <c r="K528" s="18" t="s"/>
+      <c r="L528" s="18" t="s"/>
+      <c r="M528" s="18" t="s"/>
+      <c r="N528" s="18" t="s"/>
+      <c r="O528" s="18" t="s"/>
+      <c r="P528" s="18" t="s"/>
+      <c r="Q528" s="18" t="s"/>
+      <c r="R528" s="18" t="s"/>
+      <c r="S528" s="18" t="s"/>
+      <c r="T528" s="18" t="s"/>
+      <c r="U528" s="18" t="s"/>
+      <c r="V528" s="18" t="s"/>
+      <c r="W528" s="18" t="s"/>
+      <c r="X528" s="18" t="s"/>
+      <c r="Y528" s="18" t="s"/>
+      <c r="Z528" s="18" t="s"/>
+    </row>
+    <row r="529" spans="1:26">
+      <c r="A529" s="16">
+        <v>543</v>
+      </c>
+      <c r="B529" s="16" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C529" s="17" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D529" s="18" t="s"/>
+      <c r="E529" s="18" t="s"/>
+      <c r="F529" s="18" t="s"/>
+      <c r="G529" s="18" t="s"/>
+      <c r="H529" s="18" t="s"/>
+      <c r="I529" s="18" t="s"/>
+      <c r="J529" s="18" t="s"/>
+      <c r="K529" s="18" t="s"/>
+      <c r="L529" s="18" t="s"/>
+      <c r="M529" s="18" t="s"/>
+      <c r="N529" s="18" t="s"/>
+      <c r="O529" s="18" t="s"/>
+      <c r="P529" s="18" t="s"/>
+      <c r="Q529" s="18" t="s"/>
+      <c r="R529" s="18" t="s"/>
+      <c r="S529" s="18" t="s"/>
+      <c r="T529" s="18" t="s"/>
+      <c r="U529" s="18" t="s"/>
+      <c r="V529" s="18" t="s"/>
+      <c r="W529" s="18" t="s"/>
+      <c r="X529" s="18" t="s"/>
+      <c r="Y529" s="18" t="s"/>
+      <c r="Z529" s="18" t="s"/>
+    </row>
+    <row r="530" spans="1:26">
+      <c r="A530" s="16">
+        <v>544</v>
+      </c>
+      <c r="B530" s="16" t="s"/>
+      <c r="C530" s="17" t="s"/>
+      <c r="D530" s="18" t="s"/>
+      <c r="E530" s="18" t="s"/>
+      <c r="F530" s="18" t="s"/>
+      <c r="G530" s="18" t="s"/>
+      <c r="H530" s="18" t="s"/>
+      <c r="I530" s="18" t="s"/>
+      <c r="J530" s="18" t="s"/>
+      <c r="K530" s="18" t="s"/>
+      <c r="L530" s="18" t="s"/>
+      <c r="M530" s="18" t="s"/>
+      <c r="N530" s="18" t="s"/>
+      <c r="O530" s="18" t="s"/>
+      <c r="P530" s="18" t="s"/>
+      <c r="Q530" s="18" t="s"/>
+      <c r="R530" s="18" t="s"/>
+      <c r="S530" s="18" t="s"/>
+      <c r="T530" s="18" t="s"/>
+      <c r="U530" s="18" t="s"/>
+      <c r="V530" s="18" t="s"/>
+      <c r="W530" s="18" t="s"/>
+      <c r="X530" s="18" t="s"/>
+      <c r="Y530" s="18" t="s"/>
+      <c r="Z530" s="18" t="s"/>
+    </row>
+    <row r="531" spans="1:26">
+      <c r="A531" s="16">
+        <v>545</v>
+      </c>
+      <c r="B531" s="16" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C531" s="17" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D531" s="18" t="s"/>
+      <c r="E531" s="18" t="s"/>
+      <c r="F531" s="18" t="s"/>
+      <c r="G531" s="18" t="s"/>
+      <c r="H531" s="18" t="s"/>
+      <c r="I531" s="18" t="s"/>
+      <c r="J531" s="18" t="s"/>
+      <c r="K531" s="18" t="s"/>
+      <c r="L531" s="18" t="s"/>
+      <c r="M531" s="18" t="s"/>
+      <c r="N531" s="18" t="s"/>
+      <c r="O531" s="18" t="s"/>
+      <c r="P531" s="18" t="s"/>
+      <c r="Q531" s="18" t="s"/>
+      <c r="R531" s="18" t="s"/>
+      <c r="S531" s="18" t="s"/>
+      <c r="T531" s="18" t="s"/>
+      <c r="U531" s="18" t="s"/>
+      <c r="V531" s="18" t="s"/>
+      <c r="W531" s="18" t="s"/>
+      <c r="X531" s="18" t="s"/>
+      <c r="Y531" s="18" t="s"/>
+      <c r="Z531" s="18" t="s"/>
+    </row>
+    <row r="532" spans="1:26">
+      <c r="A532" s="16">
+        <v>546</v>
+      </c>
+      <c r="B532" s="16" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C532" s="17" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D532" s="18" t="s"/>
+      <c r="E532" s="18" t="s"/>
+      <c r="F532" s="18" t="s"/>
+      <c r="G532" s="18" t="s"/>
+      <c r="H532" s="18" t="s"/>
+      <c r="I532" s="18" t="s"/>
+      <c r="J532" s="18" t="s"/>
+      <c r="K532" s="18" t="s"/>
+      <c r="L532" s="18" t="s"/>
+      <c r="M532" s="18" t="s"/>
+      <c r="N532" s="18" t="s"/>
+      <c r="O532" s="18" t="s"/>
+      <c r="P532" s="18" t="s"/>
+      <c r="Q532" s="18" t="s"/>
+      <c r="R532" s="18" t="s"/>
+      <c r="S532" s="18" t="s"/>
+      <c r="T532" s="18" t="s"/>
+      <c r="U532" s="18" t="s"/>
+      <c r="V532" s="18" t="s"/>
+      <c r="W532" s="18" t="s"/>
+      <c r="X532" s="18" t="s"/>
+      <c r="Y532" s="18" t="s"/>
+      <c r="Z532" s="18" t="s"/>
+    </row>
+    <row r="533" spans="1:26">
+      <c r="A533" s="16">
+        <v>547</v>
+      </c>
+      <c r="B533" s="16" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C533" s="17" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D533" s="18" t="s"/>
+      <c r="E533" s="18" t="s"/>
+      <c r="F533" s="18" t="s"/>
+      <c r="G533" s="18" t="s"/>
+      <c r="H533" s="18" t="s"/>
+      <c r="I533" s="18" t="s"/>
+      <c r="J533" s="18" t="s"/>
+      <c r="K533" s="18" t="s"/>
+      <c r="L533" s="18" t="s"/>
+      <c r="M533" s="18" t="s"/>
+      <c r="N533" s="18" t="s"/>
+      <c r="O533" s="18" t="s"/>
+      <c r="P533" s="18" t="s"/>
+      <c r="Q533" s="18" t="s"/>
+      <c r="R533" s="18" t="s"/>
+      <c r="S533" s="18" t="s"/>
+      <c r="T533" s="18" t="s"/>
+      <c r="U533" s="18" t="s"/>
+      <c r="V533" s="18" t="s"/>
+      <c r="W533" s="18" t="s"/>
+      <c r="X533" s="18" t="s"/>
+      <c r="Y533" s="18" t="s"/>
+      <c r="Z533" s="18" t="s"/>
+    </row>
+    <row r="534" spans="1:26">
+      <c r="A534" s="16">
+        <v>548</v>
+      </c>
+      <c r="B534" s="16" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C534" s="17" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D534" s="18" t="s"/>
+      <c r="E534" s="18" t="s"/>
+      <c r="F534" s="18" t="s"/>
+      <c r="G534" s="18" t="s"/>
+      <c r="H534" s="18" t="s"/>
+      <c r="I534" s="18" t="s"/>
+      <c r="J534" s="18" t="s"/>
+      <c r="K534" s="18" t="s"/>
+      <c r="L534" s="18" t="s"/>
+      <c r="M534" s="18" t="s"/>
+      <c r="N534" s="18" t="s"/>
+      <c r="O534" s="18" t="s"/>
+      <c r="P534" s="18" t="s"/>
+      <c r="Q534" s="18" t="s"/>
+      <c r="R534" s="18" t="s"/>
+      <c r="S534" s="18" t="s"/>
+      <c r="T534" s="18" t="s"/>
+      <c r="U534" s="18" t="s"/>
+      <c r="V534" s="18" t="s"/>
+      <c r="W534" s="18" t="s"/>
+      <c r="X534" s="18" t="s"/>
+      <c r="Y534" s="18" t="s"/>
+      <c r="Z534" s="18" t="s"/>
+    </row>
+    <row r="535" spans="1:26">
+      <c r="A535" s="16">
+        <v>549</v>
+      </c>
+      <c r="B535" s="16" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C535" s="17" t="s"/>
+      <c r="D535" s="18" t="s"/>
+      <c r="E535" s="18" t="s"/>
+      <c r="F535" s="18" t="s"/>
+      <c r="G535" s="18" t="s"/>
+      <c r="H535" s="18" t="s"/>
+      <c r="I535" s="18" t="s"/>
+      <c r="J535" s="18" t="s"/>
+      <c r="K535" s="18" t="s"/>
+      <c r="L535" s="18" t="s"/>
+      <c r="M535" s="18" t="s"/>
+      <c r="N535" s="18" t="s"/>
+      <c r="O535" s="18" t="s"/>
+      <c r="P535" s="18" t="s"/>
+      <c r="Q535" s="18" t="s"/>
+      <c r="R535" s="18" t="s"/>
+      <c r="S535" s="18" t="s"/>
+      <c r="T535" s="18" t="s"/>
+      <c r="U535" s="18" t="s"/>
+      <c r="V535" s="18" t="s"/>
+      <c r="W535" s="18" t="s"/>
+      <c r="X535" s="18" t="s"/>
+      <c r="Y535" s="18" t="s"/>
+      <c r="Z535" s="18" t="s"/>
+    </row>
+    <row r="536" spans="1:26">
+      <c r="A536" s="6">
         <v>10001</v>
       </c>
-      <c r="B526" s="7" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C526" s="8" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E526" s="5" t="s"/>
-      <c r="F526" s="5" t="s"/>
-      <c r="G526" s="5" t="s"/>
-      <c r="H526" s="5" t="s"/>
-      <c r="I526" s="5" t="s"/>
-      <c r="J526" s="5" t="s"/>
-      <c r="K526" s="5" t="s"/>
-      <c r="L526" s="5" t="s"/>
-      <c r="M526" s="5" t="s"/>
-      <c r="N526" s="5" t="s"/>
-      <c r="O526" s="5" t="s"/>
-      <c r="P526" s="5" t="s"/>
-      <c r="Q526" s="5" t="s"/>
-      <c r="R526" s="5" t="s"/>
-      <c r="S526" s="5" t="s"/>
-      <c r="T526" s="5" t="s"/>
-      <c r="U526" s="5" t="s"/>
-      <c r="V526" s="5" t="s"/>
-      <c r="W526" s="5" t="s"/>
-      <c r="X526" s="5" t="s"/>
-      <c r="Y526" s="5" t="s"/>
-      <c r="Z526" s="5" t="s"/>
-    </row>
-    <row r="527" spans="1:26">
-      <c r="A527" s="6" t="s"/>
-      <c r="B527" s="7" t="s"/>
-      <c r="C527" s="8" t="s"/>
-      <c r="D527" s="5" t="s"/>
-      <c r="E527" s="5" t="s"/>
-      <c r="F527" s="5" t="s"/>
-      <c r="G527" s="5" t="s"/>
-      <c r="H527" s="5" t="s"/>
-      <c r="I527" s="5" t="s"/>
-      <c r="J527" s="5" t="s"/>
-      <c r="K527" s="5" t="s"/>
-      <c r="L527" s="5" t="s"/>
-      <c r="M527" s="5" t="s"/>
-      <c r="N527" s="5" t="s"/>
-      <c r="O527" s="5" t="s"/>
-      <c r="P527" s="5" t="s"/>
-      <c r="Q527" s="5" t="s"/>
-      <c r="R527" s="5" t="s"/>
-      <c r="S527" s="5" t="s"/>
-      <c r="T527" s="5" t="s"/>
-      <c r="U527" s="5" t="s"/>
-      <c r="V527" s="5" t="s"/>
-      <c r="W527" s="5" t="s"/>
-      <c r="X527" s="5" t="s"/>
-      <c r="Y527" s="5" t="s"/>
-      <c r="Z527" s="5" t="s"/>
-    </row>
-    <row r="528" spans="1:26">
-      <c r="A528" s="6" t="s"/>
-      <c r="B528" s="7" t="s"/>
-      <c r="C528" s="8" t="s"/>
-      <c r="D528" s="5" t="s"/>
-      <c r="E528" s="5" t="s"/>
-      <c r="F528" s="5" t="s"/>
-      <c r="G528" s="5" t="s"/>
-      <c r="H528" s="5" t="s"/>
-      <c r="I528" s="5" t="s"/>
-      <c r="J528" s="5" t="s"/>
-      <c r="K528" s="5" t="s"/>
-      <c r="L528" s="5" t="s"/>
-      <c r="M528" s="5" t="s"/>
-      <c r="N528" s="5" t="s"/>
-      <c r="O528" s="5" t="s"/>
-      <c r="P528" s="5" t="s"/>
-      <c r="Q528" s="5" t="s"/>
-      <c r="R528" s="5" t="s"/>
-      <c r="S528" s="5" t="s"/>
-      <c r="T528" s="5" t="s"/>
-      <c r="U528" s="5" t="s"/>
-      <c r="V528" s="5" t="s"/>
-      <c r="W528" s="5" t="s"/>
-      <c r="X528" s="5" t="s"/>
-      <c r="Y528" s="5" t="s"/>
-      <c r="Z528" s="5" t="s"/>
-    </row>
-    <row r="529" spans="1:26">
-      <c r="A529" s="6" t="s"/>
-      <c r="B529" s="7" t="s"/>
-      <c r="C529" s="8" t="s"/>
-      <c r="D529" s="5" t="s"/>
-      <c r="E529" s="5" t="s"/>
-      <c r="F529" s="5" t="s"/>
-      <c r="G529" s="5" t="s"/>
-      <c r="H529" s="5" t="s"/>
-      <c r="I529" s="5" t="s"/>
-      <c r="J529" s="5" t="s"/>
-      <c r="K529" s="5" t="s"/>
-      <c r="L529" s="5" t="s"/>
-      <c r="M529" s="5" t="s"/>
-      <c r="N529" s="5" t="s"/>
-      <c r="O529" s="5" t="s"/>
-      <c r="P529" s="5" t="s"/>
-      <c r="Q529" s="5" t="s"/>
-      <c r="R529" s="5" t="s"/>
-      <c r="S529" s="5" t="s"/>
-      <c r="T529" s="5" t="s"/>
-      <c r="U529" s="5" t="s"/>
-      <c r="V529" s="5" t="s"/>
-      <c r="W529" s="5" t="s"/>
-      <c r="X529" s="5" t="s"/>
-      <c r="Y529" s="5" t="s"/>
-      <c r="Z529" s="5" t="s"/>
-    </row>
-    <row r="530" spans="1:26">
-      <c r="A530" s="6" t="s"/>
-      <c r="B530" s="7" t="s"/>
-      <c r="C530" s="8" t="s"/>
-      <c r="D530" s="5" t="s"/>
-      <c r="E530" s="5" t="s"/>
-      <c r="F530" s="5" t="s"/>
-      <c r="G530" s="5" t="s"/>
-      <c r="H530" s="5" t="s"/>
-      <c r="I530" s="5" t="s"/>
-      <c r="J530" s="5" t="s"/>
-      <c r="K530" s="5" t="s"/>
-      <c r="L530" s="5" t="s"/>
-      <c r="M530" s="5" t="s"/>
-      <c r="N530" s="5" t="s"/>
-      <c r="O530" s="5" t="s"/>
-      <c r="P530" s="5" t="s"/>
-      <c r="Q530" s="5" t="s"/>
-      <c r="R530" s="5" t="s"/>
-      <c r="S530" s="5" t="s"/>
-      <c r="T530" s="5" t="s"/>
-      <c r="U530" s="5" t="s"/>
-      <c r="V530" s="5" t="s"/>
-      <c r="W530" s="5" t="s"/>
-      <c r="X530" s="5" t="s"/>
-      <c r="Y530" s="5" t="s"/>
-      <c r="Z530" s="5" t="s"/>
-    </row>
-    <row r="531" spans="1:26">
-      <c r="A531" s="6" t="s"/>
-      <c r="B531" s="7" t="s"/>
-      <c r="C531" s="8" t="s"/>
-      <c r="D531" s="5" t="s"/>
-      <c r="E531" s="5" t="s"/>
-      <c r="F531" s="5" t="s"/>
-      <c r="G531" s="5" t="s"/>
-      <c r="H531" s="5" t="s"/>
-      <c r="I531" s="5" t="s"/>
-      <c r="J531" s="5" t="s"/>
-      <c r="K531" s="5" t="s"/>
-      <c r="L531" s="5" t="s"/>
-      <c r="M531" s="5" t="s"/>
-      <c r="N531" s="5" t="s"/>
-      <c r="O531" s="5" t="s"/>
-      <c r="P531" s="5" t="s"/>
-      <c r="Q531" s="5" t="s"/>
-      <c r="R531" s="5" t="s"/>
-      <c r="S531" s="5" t="s"/>
-      <c r="T531" s="5" t="s"/>
-      <c r="U531" s="5" t="s"/>
-      <c r="V531" s="5" t="s"/>
-      <c r="W531" s="5" t="s"/>
-      <c r="X531" s="5" t="s"/>
-      <c r="Y531" s="5" t="s"/>
-      <c r="Z531" s="5" t="s"/>
-    </row>
-    <row r="532" spans="1:26">
-      <c r="A532" s="6" t="s"/>
-      <c r="B532" s="7" t="s"/>
-      <c r="C532" s="8" t="s"/>
-      <c r="D532" s="5" t="s"/>
-      <c r="E532" s="5" t="s"/>
-      <c r="F532" s="5" t="s"/>
-      <c r="G532" s="5" t="s"/>
-      <c r="H532" s="5" t="s"/>
-      <c r="I532" s="5" t="s"/>
-      <c r="J532" s="5" t="s"/>
-      <c r="K532" s="5" t="s"/>
-      <c r="L532" s="5" t="s"/>
-      <c r="M532" s="5" t="s"/>
-      <c r="N532" s="5" t="s"/>
-      <c r="O532" s="5" t="s"/>
-      <c r="P532" s="5" t="s"/>
-      <c r="Q532" s="5" t="s"/>
-      <c r="R532" s="5" t="s"/>
-      <c r="S532" s="5" t="s"/>
-      <c r="T532" s="5" t="s"/>
-      <c r="U532" s="5" t="s"/>
-      <c r="V532" s="5" t="s"/>
-      <c r="W532" s="5" t="s"/>
-      <c r="X532" s="5" t="s"/>
-      <c r="Y532" s="5" t="s"/>
-      <c r="Z532" s="5" t="s"/>
-    </row>
-    <row r="533" spans="1:26">
-      <c r="A533" s="6" t="s"/>
-      <c r="B533" s="7" t="s"/>
-      <c r="C533" s="8" t="s"/>
-      <c r="D533" s="5" t="s"/>
-      <c r="E533" s="5" t="s"/>
-      <c r="F533" s="5" t="s"/>
-      <c r="G533" s="5" t="s"/>
-      <c r="H533" s="5" t="s"/>
-      <c r="I533" s="5" t="s"/>
-      <c r="J533" s="5" t="s"/>
-      <c r="K533" s="5" t="s"/>
-      <c r="L533" s="5" t="s"/>
-      <c r="M533" s="5" t="s"/>
-      <c r="N533" s="5" t="s"/>
-      <c r="O533" s="5" t="s"/>
-      <c r="P533" s="5" t="s"/>
-      <c r="Q533" s="5" t="s"/>
-      <c r="R533" s="5" t="s"/>
-      <c r="S533" s="5" t="s"/>
-      <c r="T533" s="5" t="s"/>
-      <c r="U533" s="5" t="s"/>
-      <c r="V533" s="5" t="s"/>
-      <c r="W533" s="5" t="s"/>
-      <c r="X533" s="5" t="s"/>
-      <c r="Y533" s="5" t="s"/>
-      <c r="Z533" s="5" t="s"/>
-    </row>
-    <row r="534" spans="1:26">
-      <c r="A534" s="6" t="s"/>
-      <c r="B534" s="7" t="s"/>
-      <c r="C534" s="8" t="s"/>
-      <c r="D534" s="5" t="s"/>
-      <c r="E534" s="5" t="s"/>
-      <c r="F534" s="5" t="s"/>
-      <c r="G534" s="5" t="s"/>
-      <c r="H534" s="5" t="s"/>
-      <c r="I534" s="5" t="s"/>
-      <c r="J534" s="5" t="s"/>
-      <c r="K534" s="5" t="s"/>
-      <c r="L534" s="5" t="s"/>
-      <c r="M534" s="5" t="s"/>
-      <c r="N534" s="5" t="s"/>
-      <c r="O534" s="5" t="s"/>
-      <c r="P534" s="5" t="s"/>
-      <c r="Q534" s="5" t="s"/>
-      <c r="R534" s="5" t="s"/>
-      <c r="S534" s="5" t="s"/>
-      <c r="T534" s="5" t="s"/>
-      <c r="U534" s="5" t="s"/>
-      <c r="V534" s="5" t="s"/>
-      <c r="W534" s="5" t="s"/>
-      <c r="X534" s="5" t="s"/>
-      <c r="Y534" s="5" t="s"/>
-      <c r="Z534" s="5" t="s"/>
-    </row>
-    <row r="535" spans="1:26">
-      <c r="A535" s="6" t="s"/>
-      <c r="B535" s="7" t="s"/>
-      <c r="C535" s="8" t="s"/>
-      <c r="D535" s="5" t="s"/>
-      <c r="E535" s="5" t="s"/>
-      <c r="F535" s="5" t="s"/>
-      <c r="G535" s="5" t="s"/>
-      <c r="H535" s="5" t="s"/>
-      <c r="I535" s="5" t="s"/>
-      <c r="J535" s="5" t="s"/>
-      <c r="K535" s="5" t="s"/>
-      <c r="L535" s="5" t="s"/>
-      <c r="M535" s="5" t="s"/>
-      <c r="N535" s="5" t="s"/>
-      <c r="O535" s="5" t="s"/>
-      <c r="P535" s="5" t="s"/>
-      <c r="Q535" s="5" t="s"/>
-      <c r="R535" s="5" t="s"/>
-      <c r="S535" s="5" t="s"/>
-      <c r="T535" s="5" t="s"/>
-      <c r="U535" s="5" t="s"/>
-      <c r="V535" s="5" t="s"/>
-      <c r="W535" s="5" t="s"/>
-      <c r="X535" s="5" t="s"/>
-      <c r="Y535" s="5" t="s"/>
-      <c r="Z535" s="5" t="s"/>
-    </row>
-    <row r="536" spans="1:26">
-      <c r="A536" s="6" t="s"/>
-      <c r="B536" s="7" t="s"/>
-      <c r="C536" s="8" t="s"/>
-      <c r="D536" s="5" t="s"/>
+      <c r="B536" s="7" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C536" s="8" t="s">
+        <v>1045</v>
+      </c>
       <c r="E536" s="5" t="s"/>
       <c r="F536" s="5" t="s"/>
       <c r="G536" s="5" t="s"/>
@@ -21688,8 +21808,288 @@
       <c r="Y536" s="5" t="s"/>
       <c r="Z536" s="5" t="s"/>
     </row>
+    <row r="537" spans="1:26">
+      <c r="A537" s="6" t="s"/>
+      <c r="B537" s="7" t="s"/>
+      <c r="C537" s="8" t="s"/>
+      <c r="D537" s="5" t="s"/>
+      <c r="E537" s="5" t="s"/>
+      <c r="F537" s="5" t="s"/>
+      <c r="G537" s="5" t="s"/>
+      <c r="H537" s="5" t="s"/>
+      <c r="I537" s="5" t="s"/>
+      <c r="J537" s="5" t="s"/>
+      <c r="K537" s="5" t="s"/>
+      <c r="L537" s="5" t="s"/>
+      <c r="M537" s="5" t="s"/>
+      <c r="N537" s="5" t="s"/>
+      <c r="O537" s="5" t="s"/>
+      <c r="P537" s="5" t="s"/>
+      <c r="Q537" s="5" t="s"/>
+      <c r="R537" s="5" t="s"/>
+      <c r="S537" s="5" t="s"/>
+      <c r="T537" s="5" t="s"/>
+      <c r="U537" s="5" t="s"/>
+      <c r="V537" s="5" t="s"/>
+      <c r="W537" s="5" t="s"/>
+      <c r="X537" s="5" t="s"/>
+      <c r="Y537" s="5" t="s"/>
+      <c r="Z537" s="5" t="s"/>
+    </row>
+    <row r="538" spans="1:26">
+      <c r="A538" s="6" t="s"/>
+      <c r="B538" s="7" t="s"/>
+      <c r="C538" s="8" t="s"/>
+      <c r="D538" s="5" t="s"/>
+      <c r="E538" s="5" t="s"/>
+      <c r="F538" s="5" t="s"/>
+      <c r="G538" s="5" t="s"/>
+      <c r="H538" s="5" t="s"/>
+      <c r="I538" s="5" t="s"/>
+      <c r="J538" s="5" t="s"/>
+      <c r="K538" s="5" t="s"/>
+      <c r="L538" s="5" t="s"/>
+      <c r="M538" s="5" t="s"/>
+      <c r="N538" s="5" t="s"/>
+      <c r="O538" s="5" t="s"/>
+      <c r="P538" s="5" t="s"/>
+      <c r="Q538" s="5" t="s"/>
+      <c r="R538" s="5" t="s"/>
+      <c r="S538" s="5" t="s"/>
+      <c r="T538" s="5" t="s"/>
+      <c r="U538" s="5" t="s"/>
+      <c r="V538" s="5" t="s"/>
+      <c r="W538" s="5" t="s"/>
+      <c r="X538" s="5" t="s"/>
+      <c r="Y538" s="5" t="s"/>
+      <c r="Z538" s="5" t="s"/>
+    </row>
+    <row r="539" spans="1:26">
+      <c r="A539" s="6" t="s"/>
+      <c r="B539" s="7" t="s"/>
+      <c r="C539" s="8" t="s"/>
+      <c r="D539" s="5" t="s"/>
+      <c r="E539" s="5" t="s"/>
+      <c r="F539" s="5" t="s"/>
+      <c r="G539" s="5" t="s"/>
+      <c r="H539" s="5" t="s"/>
+      <c r="I539" s="5" t="s"/>
+      <c r="J539" s="5" t="s"/>
+      <c r="K539" s="5" t="s"/>
+      <c r="L539" s="5" t="s"/>
+      <c r="M539" s="5" t="s"/>
+      <c r="N539" s="5" t="s"/>
+      <c r="O539" s="5" t="s"/>
+      <c r="P539" s="5" t="s"/>
+      <c r="Q539" s="5" t="s"/>
+      <c r="R539" s="5" t="s"/>
+      <c r="S539" s="5" t="s"/>
+      <c r="T539" s="5" t="s"/>
+      <c r="U539" s="5" t="s"/>
+      <c r="V539" s="5" t="s"/>
+      <c r="W539" s="5" t="s"/>
+      <c r="X539" s="5" t="s"/>
+      <c r="Y539" s="5" t="s"/>
+      <c r="Z539" s="5" t="s"/>
+    </row>
+    <row r="540" spans="1:26">
+      <c r="A540" s="6" t="s"/>
+      <c r="B540" s="7" t="s"/>
+      <c r="C540" s="8" t="s"/>
+      <c r="D540" s="5" t="s"/>
+      <c r="E540" s="5" t="s"/>
+      <c r="F540" s="5" t="s"/>
+      <c r="G540" s="5" t="s"/>
+      <c r="H540" s="5" t="s"/>
+      <c r="I540" s="5" t="s"/>
+      <c r="J540" s="5" t="s"/>
+      <c r="K540" s="5" t="s"/>
+      <c r="L540" s="5" t="s"/>
+      <c r="M540" s="5" t="s"/>
+      <c r="N540" s="5" t="s"/>
+      <c r="O540" s="5" t="s"/>
+      <c r="P540" s="5" t="s"/>
+      <c r="Q540" s="5" t="s"/>
+      <c r="R540" s="5" t="s"/>
+      <c r="S540" s="5" t="s"/>
+      <c r="T540" s="5" t="s"/>
+      <c r="U540" s="5" t="s"/>
+      <c r="V540" s="5" t="s"/>
+      <c r="W540" s="5" t="s"/>
+      <c r="X540" s="5" t="s"/>
+      <c r="Y540" s="5" t="s"/>
+      <c r="Z540" s="5" t="s"/>
+    </row>
+    <row r="541" spans="1:26">
+      <c r="A541" s="6" t="s"/>
+      <c r="B541" s="7" t="s"/>
+      <c r="C541" s="8" t="s"/>
+      <c r="D541" s="5" t="s"/>
+      <c r="E541" s="5" t="s"/>
+      <c r="F541" s="5" t="s"/>
+      <c r="G541" s="5" t="s"/>
+      <c r="H541" s="5" t="s"/>
+      <c r="I541" s="5" t="s"/>
+      <c r="J541" s="5" t="s"/>
+      <c r="K541" s="5" t="s"/>
+      <c r="L541" s="5" t="s"/>
+      <c r="M541" s="5" t="s"/>
+      <c r="N541" s="5" t="s"/>
+      <c r="O541" s="5" t="s"/>
+      <c r="P541" s="5" t="s"/>
+      <c r="Q541" s="5" t="s"/>
+      <c r="R541" s="5" t="s"/>
+      <c r="S541" s="5" t="s"/>
+      <c r="T541" s="5" t="s"/>
+      <c r="U541" s="5" t="s"/>
+      <c r="V541" s="5" t="s"/>
+      <c r="W541" s="5" t="s"/>
+      <c r="X541" s="5" t="s"/>
+      <c r="Y541" s="5" t="s"/>
+      <c r="Z541" s="5" t="s"/>
+    </row>
+    <row r="542" spans="1:26">
+      <c r="A542" s="6" t="s"/>
+      <c r="B542" s="7" t="s"/>
+      <c r="C542" s="8" t="s"/>
+      <c r="D542" s="5" t="s"/>
+      <c r="E542" s="5" t="s"/>
+      <c r="F542" s="5" t="s"/>
+      <c r="G542" s="5" t="s"/>
+      <c r="H542" s="5" t="s"/>
+      <c r="I542" s="5" t="s"/>
+      <c r="J542" s="5" t="s"/>
+      <c r="K542" s="5" t="s"/>
+      <c r="L542" s="5" t="s"/>
+      <c r="M542" s="5" t="s"/>
+      <c r="N542" s="5" t="s"/>
+      <c r="O542" s="5" t="s"/>
+      <c r="P542" s="5" t="s"/>
+      <c r="Q542" s="5" t="s"/>
+      <c r="R542" s="5" t="s"/>
+      <c r="S542" s="5" t="s"/>
+      <c r="T542" s="5" t="s"/>
+      <c r="U542" s="5" t="s"/>
+      <c r="V542" s="5" t="s"/>
+      <c r="W542" s="5" t="s"/>
+      <c r="X542" s="5" t="s"/>
+      <c r="Y542" s="5" t="s"/>
+      <c r="Z542" s="5" t="s"/>
+    </row>
+    <row r="543" spans="1:26">
+      <c r="A543" s="6" t="s"/>
+      <c r="B543" s="7" t="s"/>
+      <c r="C543" s="8" t="s"/>
+      <c r="D543" s="5" t="s"/>
+      <c r="E543" s="5" t="s"/>
+      <c r="F543" s="5" t="s"/>
+      <c r="G543" s="5" t="s"/>
+      <c r="H543" s="5" t="s"/>
+      <c r="I543" s="5" t="s"/>
+      <c r="J543" s="5" t="s"/>
+      <c r="K543" s="5" t="s"/>
+      <c r="L543" s="5" t="s"/>
+      <c r="M543" s="5" t="s"/>
+      <c r="N543" s="5" t="s"/>
+      <c r="O543" s="5" t="s"/>
+      <c r="P543" s="5" t="s"/>
+      <c r="Q543" s="5" t="s"/>
+      <c r="R543" s="5" t="s"/>
+      <c r="S543" s="5" t="s"/>
+      <c r="T543" s="5" t="s"/>
+      <c r="U543" s="5" t="s"/>
+      <c r="V543" s="5" t="s"/>
+      <c r="W543" s="5" t="s"/>
+      <c r="X543" s="5" t="s"/>
+      <c r="Y543" s="5" t="s"/>
+      <c r="Z543" s="5" t="s"/>
+    </row>
+    <row r="544" spans="1:26">
+      <c r="A544" s="6" t="s"/>
+      <c r="B544" s="7" t="s"/>
+      <c r="C544" s="8" t="s"/>
+      <c r="D544" s="5" t="s"/>
+      <c r="E544" s="5" t="s"/>
+      <c r="F544" s="5" t="s"/>
+      <c r="G544" s="5" t="s"/>
+      <c r="H544" s="5" t="s"/>
+      <c r="I544" s="5" t="s"/>
+      <c r="J544" s="5" t="s"/>
+      <c r="K544" s="5" t="s"/>
+      <c r="L544" s="5" t="s"/>
+      <c r="M544" s="5" t="s"/>
+      <c r="N544" s="5" t="s"/>
+      <c r="O544" s="5" t="s"/>
+      <c r="P544" s="5" t="s"/>
+      <c r="Q544" s="5" t="s"/>
+      <c r="R544" s="5" t="s"/>
+      <c r="S544" s="5" t="s"/>
+      <c r="T544" s="5" t="s"/>
+      <c r="U544" s="5" t="s"/>
+      <c r="V544" s="5" t="s"/>
+      <c r="W544" s="5" t="s"/>
+      <c r="X544" s="5" t="s"/>
+      <c r="Y544" s="5" t="s"/>
+      <c r="Z544" s="5" t="s"/>
+    </row>
+    <row r="545" spans="1:26">
+      <c r="A545" s="6" t="s"/>
+      <c r="B545" s="7" t="s"/>
+      <c r="C545" s="8" t="s"/>
+      <c r="D545" s="5" t="s"/>
+      <c r="E545" s="5" t="s"/>
+      <c r="F545" s="5" t="s"/>
+      <c r="G545" s="5" t="s"/>
+      <c r="H545" s="5" t="s"/>
+      <c r="I545" s="5" t="s"/>
+      <c r="J545" s="5" t="s"/>
+      <c r="K545" s="5" t="s"/>
+      <c r="L545" s="5" t="s"/>
+      <c r="M545" s="5" t="s"/>
+      <c r="N545" s="5" t="s"/>
+      <c r="O545" s="5" t="s"/>
+      <c r="P545" s="5" t="s"/>
+      <c r="Q545" s="5" t="s"/>
+      <c r="R545" s="5" t="s"/>
+      <c r="S545" s="5" t="s"/>
+      <c r="T545" s="5" t="s"/>
+      <c r="U545" s="5" t="s"/>
+      <c r="V545" s="5" t="s"/>
+      <c r="W545" s="5" t="s"/>
+      <c r="X545" s="5" t="s"/>
+      <c r="Y545" s="5" t="s"/>
+      <c r="Z545" s="5" t="s"/>
+    </row>
+    <row r="546" spans="1:26">
+      <c r="A546" s="6" t="s"/>
+      <c r="B546" s="7" t="s"/>
+      <c r="C546" s="8" t="s"/>
+      <c r="D546" s="5" t="s"/>
+      <c r="E546" s="5" t="s"/>
+      <c r="F546" s="5" t="s"/>
+      <c r="G546" s="5" t="s"/>
+      <c r="H546" s="5" t="s"/>
+      <c r="I546" s="5" t="s"/>
+      <c r="J546" s="5" t="s"/>
+      <c r="K546" s="5" t="s"/>
+      <c r="L546" s="5" t="s"/>
+      <c r="M546" s="5" t="s"/>
+      <c r="N546" s="5" t="s"/>
+      <c r="O546" s="5" t="s"/>
+      <c r="P546" s="5" t="s"/>
+      <c r="Q546" s="5" t="s"/>
+      <c r="R546" s="5" t="s"/>
+      <c r="S546" s="5" t="s"/>
+      <c r="T546" s="5" t="s"/>
+      <c r="U546" s="5" t="s"/>
+      <c r="V546" s="5" t="s"/>
+      <c r="W546" s="5" t="s"/>
+      <c r="X546" s="5" t="s"/>
+      <c r="Y546" s="5" t="s"/>
+      <c r="Z546" s="5" t="s"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C536 D1">
+  <conditionalFormatting sqref="C1:C546 D1">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="，">
       <formula>NOT(ISERROR(SEARCH("，",C1)))</formula>
     </cfRule>

--- a/backend/config/nickname_song.xlsx
+++ b/backend/config/nickname_song.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="1047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="1049">
   <si>
     <t/>
   </si>
@@ -2973,10 +2973,10 @@
     <t>栞</t>
   </si>
   <si>
-    <t>没六星,再看半集的小曲,再看半集の小曲儿</t>
-  </si>
-  <si>
-    <t>2023年9月25日，栞还是没六星</t>
+    <t>再看半集的小曲,再看半集の小曲儿</t>
+  </si>
+  <si>
+    <t>六星出了，删了</t>
   </si>
   <si>
     <t>QUEEN</t>
@@ -3111,7 +3111,7 @@
     <t>歌いましょう鳴らしましょう</t>
   </si>
   <si>
-    <t>歌鸣,一同演奏一同歌唱</t>
+    <t>歌鸣,一同演奏一同歌唱,歌什么什么鸣什么什么</t>
   </si>
   <si>
     <t>THRONE OF ROSE</t>
@@ -3145,6 +3145,12 @@
   </si>
   <si>
     <t>BATTLE CRY</t>
+  </si>
+  <si>
+    <t>战吼</t>
+  </si>
+  <si>
+    <t>裸の勇者</t>
   </si>
   <si>
     <t>彩虹节拍</t>
@@ -3610,7 +3616,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="Z546"/>
+  <dimension ref="Z545"/>
   <sheetViews>
     <sheetView showGridLines="true" rightToLeft="false" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="A2" state="frozen"/>
@@ -10163,7 +10169,7 @@
         <v>388</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="D193" s="5" t="s"/>
       <c r="E193" s="5" t="s"/>
@@ -21481,10 +21487,14 @@
     </row>
     <row r="527" spans="1:26">
       <c r="A527" s="16">
-        <v>541</v>
-      </c>
-      <c r="B527" s="16" t="s"/>
-      <c r="C527" s="17" t="s"/>
+        <v>542</v>
+      </c>
+      <c r="B527" s="16" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C527" s="17" t="s">
+        <v>1032</v>
+      </c>
       <c r="D527" s="18" t="s"/>
       <c r="E527" s="18" t="s"/>
       <c r="F527" s="18" t="s"/>
@@ -21511,13 +21521,13 @@
     </row>
     <row r="528" spans="1:26">
       <c r="A528" s="16">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B528" s="16" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="C528" s="17" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="D528" s="18" t="s"/>
       <c r="E528" s="18" t="s"/>
@@ -21545,13 +21555,13 @@
     </row>
     <row r="529" spans="1:26">
       <c r="A529" s="16">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B529" s="16" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="C529" s="17" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="D529" s="18" t="s"/>
       <c r="E529" s="18" t="s"/>
@@ -21579,10 +21589,14 @@
     </row>
     <row r="530" spans="1:26">
       <c r="A530" s="16">
-        <v>544</v>
-      </c>
-      <c r="B530" s="16" t="s"/>
-      <c r="C530" s="17" t="s"/>
+        <v>546</v>
+      </c>
+      <c r="B530" s="16" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C530" s="17" t="s">
+        <v>1038</v>
+      </c>
       <c r="D530" s="18" t="s"/>
       <c r="E530" s="18" t="s"/>
       <c r="F530" s="18" t="s"/>
@@ -21609,13 +21623,13 @@
     </row>
     <row r="531" spans="1:26">
       <c r="A531" s="16">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B531" s="16" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="C531" s="17" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="D531" s="18" t="s"/>
       <c r="E531" s="18" t="s"/>
@@ -21643,13 +21657,13 @@
     </row>
     <row r="532" spans="1:26">
       <c r="A532" s="16">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B532" s="16" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="C532" s="17" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="D532" s="18" t="s"/>
       <c r="E532" s="18" t="s"/>
@@ -21677,13 +21691,13 @@
     </row>
     <row r="533" spans="1:26">
       <c r="A533" s="16">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B533" s="16" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="C533" s="17" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="D533" s="18" t="s"/>
       <c r="E533" s="18" t="s"/>
@@ -21711,14 +21725,12 @@
     </row>
     <row r="534" spans="1:26">
       <c r="A534" s="16">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B534" s="16" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C534" s="17" t="s">
-        <v>1042</v>
-      </c>
+        <v>1045</v>
+      </c>
+      <c r="C534" s="17" t="s"/>
       <c r="D534" s="18" t="s"/>
       <c r="E534" s="18" t="s"/>
       <c r="F534" s="18" t="s"/>
@@ -21744,47 +21756,43 @@
       <c r="Z534" s="18" t="s"/>
     </row>
     <row r="535" spans="1:26">
-      <c r="A535" s="16">
-        <v>549</v>
-      </c>
-      <c r="B535" s="16" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C535" s="17" t="s"/>
-      <c r="D535" s="18" t="s"/>
-      <c r="E535" s="18" t="s"/>
-      <c r="F535" s="18" t="s"/>
-      <c r="G535" s="18" t="s"/>
-      <c r="H535" s="18" t="s"/>
-      <c r="I535" s="18" t="s"/>
-      <c r="J535" s="18" t="s"/>
-      <c r="K535" s="18" t="s"/>
-      <c r="L535" s="18" t="s"/>
-      <c r="M535" s="18" t="s"/>
-      <c r="N535" s="18" t="s"/>
-      <c r="O535" s="18" t="s"/>
-      <c r="P535" s="18" t="s"/>
-      <c r="Q535" s="18" t="s"/>
-      <c r="R535" s="18" t="s"/>
-      <c r="S535" s="18" t="s"/>
-      <c r="T535" s="18" t="s"/>
-      <c r="U535" s="18" t="s"/>
-      <c r="V535" s="18" t="s"/>
-      <c r="W535" s="18" t="s"/>
-      <c r="X535" s="18" t="s"/>
-      <c r="Y535" s="18" t="s"/>
-      <c r="Z535" s="18" t="s"/>
+      <c r="A535" s="6">
+        <v>10001</v>
+      </c>
+      <c r="B535" s="7" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C535" s="8" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E535" s="5" t="s"/>
+      <c r="F535" s="5" t="s"/>
+      <c r="G535" s="5" t="s"/>
+      <c r="H535" s="5" t="s"/>
+      <c r="I535" s="5" t="s"/>
+      <c r="J535" s="5" t="s"/>
+      <c r="K535" s="5" t="s"/>
+      <c r="L535" s="5" t="s"/>
+      <c r="M535" s="5" t="s"/>
+      <c r="N535" s="5" t="s"/>
+      <c r="O535" s="5" t="s"/>
+      <c r="P535" s="5" t="s"/>
+      <c r="Q535" s="5" t="s"/>
+      <c r="R535" s="5" t="s"/>
+      <c r="S535" s="5" t="s"/>
+      <c r="T535" s="5" t="s"/>
+      <c r="U535" s="5" t="s"/>
+      <c r="V535" s="5" t="s"/>
+      <c r="W535" s="5" t="s"/>
+      <c r="X535" s="5" t="s"/>
+      <c r="Y535" s="5" t="s"/>
+      <c r="Z535" s="5" t="s"/>
     </row>
     <row r="536" spans="1:26">
-      <c r="A536" s="6">
-        <v>10001</v>
-      </c>
-      <c r="B536" s="7" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C536" s="8" t="s">
-        <v>1045</v>
-      </c>
+      <c r="A536" s="6" t="s"/>
+      <c r="B536" s="7" t="s"/>
+      <c r="C536" s="8" t="s"/>
+      <c r="D536" s="5" t="s"/>
       <c r="E536" s="5" t="s"/>
       <c r="F536" s="5" t="s"/>
       <c r="G536" s="5" t="s"/>
@@ -22060,36 +22068,8 @@
       <c r="Y545" s="5" t="s"/>
       <c r="Z545" s="5" t="s"/>
     </row>
-    <row r="546" spans="1:26">
-      <c r="A546" s="6" t="s"/>
-      <c r="B546" s="7" t="s"/>
-      <c r="C546" s="8" t="s"/>
-      <c r="D546" s="5" t="s"/>
-      <c r="E546" s="5" t="s"/>
-      <c r="F546" s="5" t="s"/>
-      <c r="G546" s="5" t="s"/>
-      <c r="H546" s="5" t="s"/>
-      <c r="I546" s="5" t="s"/>
-      <c r="J546" s="5" t="s"/>
-      <c r="K546" s="5" t="s"/>
-      <c r="L546" s="5" t="s"/>
-      <c r="M546" s="5" t="s"/>
-      <c r="N546" s="5" t="s"/>
-      <c r="O546" s="5" t="s"/>
-      <c r="P546" s="5" t="s"/>
-      <c r="Q546" s="5" t="s"/>
-      <c r="R546" s="5" t="s"/>
-      <c r="S546" s="5" t="s"/>
-      <c r="T546" s="5" t="s"/>
-      <c r="U546" s="5" t="s"/>
-      <c r="V546" s="5" t="s"/>
-      <c r="W546" s="5" t="s"/>
-      <c r="X546" s="5" t="s"/>
-      <c r="Y546" s="5" t="s"/>
-      <c r="Z546" s="5" t="s"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C546 D1">
+  <conditionalFormatting sqref="C1:C545 D1">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="，">
       <formula>NOT(ISERROR(SEARCH("，",C1)))</formula>
     </cfRule>

--- a/backend/config/nickname_song.xlsx
+++ b/backend/config/nickname_song.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="1049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="1051">
   <si>
     <t/>
   </si>
@@ -3151,6 +3151,12 @@
   </si>
   <si>
     <t>裸の勇者</t>
+  </si>
+  <si>
+    <t>That's why I'm here</t>
+  </si>
+  <si>
+    <t>テレキャスタービーボーイ</t>
   </si>
   <si>
     <t>彩虹节拍</t>
@@ -3616,7 +3622,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="Z545"/>
+  <dimension ref="Z547"/>
   <sheetViews>
     <sheetView showGridLines="true" rightToLeft="false" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="A2" state="frozen"/>
@@ -10169,7 +10175,7 @@
         <v>388</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="D193" s="5" t="s"/>
       <c r="E193" s="5" t="s"/>
@@ -21756,71 +21762,77 @@
       <c r="Z534" s="18" t="s"/>
     </row>
     <row r="535" spans="1:26">
-      <c r="A535" s="6">
+      <c r="A535" s="16">
+        <v>551</v>
+      </c>
+      <c r="B535" s="16" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C535" s="17" t="s"/>
+      <c r="E535" s="18" t="s"/>
+      <c r="F535" s="18" t="s"/>
+      <c r="G535" s="18" t="s"/>
+      <c r="H535" s="18" t="s"/>
+      <c r="I535" s="18" t="s"/>
+      <c r="J535" s="18" t="s"/>
+      <c r="K535" s="18" t="s"/>
+      <c r="L535" s="18" t="s"/>
+      <c r="M535" s="18" t="s"/>
+      <c r="N535" s="18" t="s"/>
+      <c r="O535" s="18" t="s"/>
+      <c r="P535" s="18" t="s"/>
+      <c r="Q535" s="18" t="s"/>
+      <c r="R535" s="18" t="s"/>
+      <c r="S535" s="18" t="s"/>
+      <c r="T535" s="18" t="s"/>
+      <c r="U535" s="18" t="s"/>
+      <c r="V535" s="18" t="s"/>
+      <c r="W535" s="18" t="s"/>
+      <c r="X535" s="18" t="s"/>
+      <c r="Y535" s="18" t="s"/>
+      <c r="Z535" s="18" t="s"/>
+    </row>
+    <row r="536" spans="1:26">
+      <c r="A536" s="16">
+        <v>552</v>
+      </c>
+      <c r="B536" s="16" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C536" s="17" t="s"/>
+      <c r="E536" s="18" t="s"/>
+      <c r="F536" s="18" t="s"/>
+      <c r="G536" s="18" t="s"/>
+      <c r="H536" s="18" t="s"/>
+      <c r="I536" s="18" t="s"/>
+      <c r="J536" s="18" t="s"/>
+      <c r="K536" s="18" t="s"/>
+      <c r="L536" s="18" t="s"/>
+      <c r="M536" s="18" t="s"/>
+      <c r="N536" s="18" t="s"/>
+      <c r="O536" s="18" t="s"/>
+      <c r="P536" s="18" t="s"/>
+      <c r="Q536" s="18" t="s"/>
+      <c r="R536" s="18" t="s"/>
+      <c r="S536" s="18" t="s"/>
+      <c r="T536" s="18" t="s"/>
+      <c r="U536" s="18" t="s"/>
+      <c r="V536" s="18" t="s"/>
+      <c r="W536" s="18" t="s"/>
+      <c r="X536" s="18" t="s"/>
+      <c r="Y536" s="18" t="s"/>
+      <c r="Z536" s="18" t="s"/>
+    </row>
+    <row r="537" spans="1:26">
+      <c r="A537" s="6">
         <v>10001</v>
       </c>
-      <c r="B535" s="7" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C535" s="8" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E535" s="5" t="s"/>
-      <c r="F535" s="5" t="s"/>
-      <c r="G535" s="5" t="s"/>
-      <c r="H535" s="5" t="s"/>
-      <c r="I535" s="5" t="s"/>
-      <c r="J535" s="5" t="s"/>
-      <c r="K535" s="5" t="s"/>
-      <c r="L535" s="5" t="s"/>
-      <c r="M535" s="5" t="s"/>
-      <c r="N535" s="5" t="s"/>
-      <c r="O535" s="5" t="s"/>
-      <c r="P535" s="5" t="s"/>
-      <c r="Q535" s="5" t="s"/>
-      <c r="R535" s="5" t="s"/>
-      <c r="S535" s="5" t="s"/>
-      <c r="T535" s="5" t="s"/>
-      <c r="U535" s="5" t="s"/>
-      <c r="V535" s="5" t="s"/>
-      <c r="W535" s="5" t="s"/>
-      <c r="X535" s="5" t="s"/>
-      <c r="Y535" s="5" t="s"/>
-      <c r="Z535" s="5" t="s"/>
-    </row>
-    <row r="536" spans="1:26">
-      <c r="A536" s="6" t="s"/>
-      <c r="B536" s="7" t="s"/>
-      <c r="C536" s="8" t="s"/>
-      <c r="D536" s="5" t="s"/>
-      <c r="E536" s="5" t="s"/>
-      <c r="F536" s="5" t="s"/>
-      <c r="G536" s="5" t="s"/>
-      <c r="H536" s="5" t="s"/>
-      <c r="I536" s="5" t="s"/>
-      <c r="J536" s="5" t="s"/>
-      <c r="K536" s="5" t="s"/>
-      <c r="L536" s="5" t="s"/>
-      <c r="M536" s="5" t="s"/>
-      <c r="N536" s="5" t="s"/>
-      <c r="O536" s="5" t="s"/>
-      <c r="P536" s="5" t="s"/>
-      <c r="Q536" s="5" t="s"/>
-      <c r="R536" s="5" t="s"/>
-      <c r="S536" s="5" t="s"/>
-      <c r="T536" s="5" t="s"/>
-      <c r="U536" s="5" t="s"/>
-      <c r="V536" s="5" t="s"/>
-      <c r="W536" s="5" t="s"/>
-      <c r="X536" s="5" t="s"/>
-      <c r="Y536" s="5" t="s"/>
-      <c r="Z536" s="5" t="s"/>
-    </row>
-    <row r="537" spans="1:26">
-      <c r="A537" s="6" t="s"/>
-      <c r="B537" s="7" t="s"/>
-      <c r="C537" s="8" t="s"/>
-      <c r="D537" s="5" t="s"/>
+      <c r="B537" s="7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C537" s="8" t="s">
+        <v>1049</v>
+      </c>
       <c r="E537" s="5" t="s"/>
       <c r="F537" s="5" t="s"/>
       <c r="G537" s="5" t="s"/>
@@ -22068,8 +22080,64 @@
       <c r="Y545" s="5" t="s"/>
       <c r="Z545" s="5" t="s"/>
     </row>
+    <row r="546" spans="1:26">
+      <c r="A546" s="6" t="s"/>
+      <c r="B546" s="7" t="s"/>
+      <c r="C546" s="8" t="s"/>
+      <c r="D546" s="5" t="s"/>
+      <c r="E546" s="5" t="s"/>
+      <c r="F546" s="5" t="s"/>
+      <c r="G546" s="5" t="s"/>
+      <c r="H546" s="5" t="s"/>
+      <c r="I546" s="5" t="s"/>
+      <c r="J546" s="5" t="s"/>
+      <c r="K546" s="5" t="s"/>
+      <c r="L546" s="5" t="s"/>
+      <c r="M546" s="5" t="s"/>
+      <c r="N546" s="5" t="s"/>
+      <c r="O546" s="5" t="s"/>
+      <c r="P546" s="5" t="s"/>
+      <c r="Q546" s="5" t="s"/>
+      <c r="R546" s="5" t="s"/>
+      <c r="S546" s="5" t="s"/>
+      <c r="T546" s="5" t="s"/>
+      <c r="U546" s="5" t="s"/>
+      <c r="V546" s="5" t="s"/>
+      <c r="W546" s="5" t="s"/>
+      <c r="X546" s="5" t="s"/>
+      <c r="Y546" s="5" t="s"/>
+      <c r="Z546" s="5" t="s"/>
+    </row>
+    <row r="547" spans="1:26">
+      <c r="A547" s="6" t="s"/>
+      <c r="B547" s="7" t="s"/>
+      <c r="C547" s="8" t="s"/>
+      <c r="D547" s="5" t="s"/>
+      <c r="E547" s="5" t="s"/>
+      <c r="F547" s="5" t="s"/>
+      <c r="G547" s="5" t="s"/>
+      <c r="H547" s="5" t="s"/>
+      <c r="I547" s="5" t="s"/>
+      <c r="J547" s="5" t="s"/>
+      <c r="K547" s="5" t="s"/>
+      <c r="L547" s="5" t="s"/>
+      <c r="M547" s="5" t="s"/>
+      <c r="N547" s="5" t="s"/>
+      <c r="O547" s="5" t="s"/>
+      <c r="P547" s="5" t="s"/>
+      <c r="Q547" s="5" t="s"/>
+      <c r="R547" s="5" t="s"/>
+      <c r="S547" s="5" t="s"/>
+      <c r="T547" s="5" t="s"/>
+      <c r="U547" s="5" t="s"/>
+      <c r="V547" s="5" t="s"/>
+      <c r="W547" s="5" t="s"/>
+      <c r="X547" s="5" t="s"/>
+      <c r="Y547" s="5" t="s"/>
+      <c r="Z547" s="5" t="s"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C545 D1">
+  <conditionalFormatting sqref="C1:C547 D1">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="，">
       <formula>NOT(ISERROR(SEARCH("，",C1)))</formula>
     </cfRule>

--- a/backend/config/nickname_song.xlsx
+++ b/backend/config/nickname_song.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="1086">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="1087">
   <si>
     <t/>
   </si>
@@ -3262,6 +3262,9 @@
   </si>
   <si>
     <t>Radiate Warriors</t>
+  </si>
+  <si>
+    <t>A Sunset So Bright</t>
   </si>
   <si>
     <t>彩虹节拍</t>
@@ -10296,7 +10299,7 @@
         <v>388</v>
       </c>
       <c r="C193" s="15" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="D193" s="6" t="s"/>
       <c r="E193" s="6" t="s"/>
@@ -22509,8 +22512,12 @@
       <c r="Z553" s="20" t="s"/>
     </row>
     <row r="554" spans="1:26">
-      <c r="A554" s="19" t="s"/>
-      <c r="B554" s="19" t="s"/>
+      <c r="A554" s="19">
+        <v>577</v>
+      </c>
+      <c r="B554" s="19" t="s">
+        <v>1083</v>
+      </c>
       <c r="C554" s="21" t="s"/>
       <c r="E554" s="20" t="s"/>
       <c r="F554" s="20" t="s"/>
@@ -22540,10 +22547,10 @@
         <v>10001</v>
       </c>
       <c r="B555" s="8" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C555" s="9" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="E555" s="6" t="s"/>
       <c r="F555" s="6" t="s"/>

--- a/backend/config/nickname_song.xlsx
+++ b/backend/config/nickname_song.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="1087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="1135">
   <si>
     <t/>
   </si>
@@ -960,7 +960,7 @@
     <t>Wake up!</t>
   </si>
   <si>
-    <t>起来,我靠,海贼</t>
+    <t>起来,我靠,海贼王</t>
   </si>
   <si>
     <t>名前のない怪物</t>
@@ -1002,7 +1002,7 @@
     <t>はれやか すこやか ぴかりんりん♪</t>
   </si>
   <si>
-    <t>皮卡燐燐,BPM230</t>
+    <t>皮卡燐燐,BPM230,太阳公公当空照</t>
   </si>
   <si>
     <t>らしさ</t>
@@ -1197,7 +1197,7 @@
     <t>海色</t>
   </si>
   <si>
-    <t>各位群友早上好,舰c,你开头断了,你结尾断了,恐怖的,确实,miiro</t>
+    <t>各位群友早上好,舰c,你开头断了,你结尾断了,恐怖的海色,确实,miiro</t>
   </si>
   <si>
     <t>青い栞</t>
@@ -2019,7 +2019,7 @@
     <t>Sing Alive</t>
   </si>
   <si>
-    <t>棋盘,ykn下棋,sa</t>
+    <t>棋盘,歌活,ykn下棋,sa</t>
   </si>
   <si>
     <t>ヒューマノイド</t>
@@ -2049,7 +2049,7 @@
     <t>ここから先は歌にならない</t>
   </si>
   <si>
-    <t>重制人生,先歌</t>
+    <t>我们的重制人生,先歌</t>
   </si>
   <si>
     <t>Singing “OURS”</t>
@@ -2085,7 +2085,7 @@
     <t>競宴Red×Violet</t>
   </si>
   <si>
-    <t>竞宴,喜宴,婚后高歌曲,对山歌,山歌,美竹兰你就是个（）,美竹兰你就是个(),囍宴</t>
+    <t>竞宴,喜宴,囍宴,婚后高歌曲,对山歌,山歌,美竹兰你就是个（）,美竹兰你就是个()</t>
   </si>
   <si>
     <t>Trouble Joyful!!</t>
@@ -2229,7 +2229,7 @@
     <t>Keep the Heat and Fire Yourself Up</t>
   </si>
   <si>
-    <t>封神演义,kthafyu</t>
+    <t>封神演义,kthafyu,歌名很长</t>
   </si>
   <si>
     <t>SPARK-AGAIN</t>
@@ -2403,7 +2403,7 @@
     <t>unravel</t>
   </si>
   <si>
-    <t>音宝的痛,舌尖上的东京,东京食尸鬼,喰种,洗海带,TK</t>
+    <t>音宝的痛,舌尖上的东京,东京食尸鬼,东京喰种,洗海带,TK</t>
   </si>
   <si>
     <t>脳漿炸裂ガール</t>
@@ -2451,7 +2451,7 @@
     <t>THE HISTORIC...</t>
   </si>
   <si>
-    <t>r u ready we r ready,ruready,785939大分长途海q1,gdbw</t>
+    <t>ruready,gdbw,184p</t>
   </si>
   <si>
     <t>Light a fire</t>
@@ -2616,7 +2616,7 @@
     <t>divine intervention</t>
   </si>
   <si>
-    <t>神灵介入</t>
+    <t>神灵介入,魔女的使命</t>
   </si>
   <si>
     <t>狂乱 Hey Kids!!</t>
@@ -2694,7 +2694,7 @@
     <t>VORACITY</t>
   </si>
   <si>
-    <t>骨王,op</t>
+    <t>骨王</t>
   </si>
   <si>
     <t>えがお、あーゆーれでぃ???</t>
@@ -2736,7 +2736,7 @@
     <t>phony</t>
   </si>
   <si>
-    <t>南瓜头.mp4,闪光,高达,BPM208,27闪光</t>
+    <t>南瓜头.mp4,闪光,高达,闪光的哈萨维,BPM208,27闪光</t>
   </si>
   <si>
     <t>転生林檎</t>
@@ -2769,7 +2769,7 @@
     <t>YELL</t>
   </si>
   <si>
-    <t>毕业活翻唱</t>
+    <t>毕业活翻唱,生物股长</t>
   </si>
   <si>
     <t>See you! 〜それぞれの明日へ〜</t>
@@ -2787,7 +2787,7 @@
     <t>新時代</t>
   </si>
   <si>
-    <t>新时代</t>
+    <t>新时代,海贼王</t>
   </si>
   <si>
     <t>五等分の気持ち</t>
@@ -2799,13 +2799,13 @@
     <t>命に嫌われている</t>
   </si>
   <si>
-    <t>传说的20秒,命嫌</t>
+    <t>传说的20秒,命嫌,被生命所厌恶</t>
   </si>
   <si>
     <t>＊ ～アスタリスク～</t>
   </si>
   <si>
-    <t>死神,Asterisk,劲爆7轨1k,*</t>
+    <t>死神,asterisk,劲爆7轨1k,*,＊,星号</t>
   </si>
   <si>
     <t>ALIVE</t>
@@ -2817,13 +2817,13 @@
     <t>ダーリンダンス</t>
   </si>
   <si>
-    <t>darling dance</t>
+    <t>darling dance,达令舞</t>
   </si>
   <si>
     <t>神っぽいな</t>
   </si>
   <si>
-    <t>像神一样啊,嘟嘟噜嘟嘟嘟噜嘿,你游vocal最高音</t>
+    <t>像神一样啊,嘟嘟噜嘟嘟嘟噜嘿,你游vocal最高音.god-ish</t>
   </si>
   <si>
     <t>キズナミュージック♪（3Dライブモード対応）</t>
@@ -2898,19 +2898,19 @@
     <t>チューリングラブ</t>
   </si>
   <si>
-    <t>turing love,truing love,turning love,理科生</t>
+    <t>turing love,truing love,turning love,理科生,图灵之恋,图灵爱</t>
   </si>
   <si>
     <t>踊</t>
   </si>
   <si>
-    <t>Odo,踊</t>
+    <t>odo,踊</t>
   </si>
   <si>
     <t>アイウエ</t>
   </si>
   <si>
-    <t>aiue,AIUE,新福星小子</t>
+    <t>aiue,AIUE,新福星小子,爱之上</t>
   </si>
   <si>
     <t>Angel's Ladder</t>
@@ -2928,7 +2928,7 @@
     <t>心絵</t>
   </si>
   <si>
-    <t>心绘</t>
+    <t>心绘,棒球大联盟</t>
   </si>
   <si>
     <t>酔いどれ知らず</t>
@@ -2958,7 +2958,7 @@
     <t>CHAINSAW BLOOD</t>
   </si>
   <si>
-    <t>电锯血</t>
+    <t>电锯人,电锯血</t>
   </si>
   <si>
     <t>ファイトソング</t>
@@ -2970,7 +2970,7 @@
     <t>オドループ</t>
   </si>
   <si>
-    <t>Odd loop</t>
+    <t>oddloop</t>
   </si>
   <si>
     <t>ペトリコール・オベーション</t>
@@ -2985,7 +2985,7 @@
     <t>壱雫空</t>
   </si>
   <si>
-    <t>shizuku,一雫空,幻想时间,一下空</t>
+    <t>hitoshizuku,一雫空,幻想时间,一下空</t>
   </si>
   <si>
     <t>栞</t>
@@ -3000,7 +3000,7 @@
     <t>QUEEN</t>
   </si>
   <si>
-    <t>女王,皇后</t>
+    <t>女王,皇后,queen</t>
   </si>
   <si>
     <t>碧天伴走</t>
@@ -3012,6 +3012,9 @@
     <t>Get Wild</t>
   </si>
   <si>
+    <t>小室</t>
+  </si>
+  <si>
     <t>愛のしるし</t>
   </si>
   <si>
@@ -3030,6 +3033,9 @@
     <t>Ever Sky Blue</t>
   </si>
   <si>
+    <t>ever sky blue</t>
+  </si>
+  <si>
     <t>極彩色</t>
   </si>
   <si>
@@ -3045,6 +3051,9 @@
     <t>ボクらの夏's☆ショーたいむっ！！</t>
   </si>
   <si>
+    <t>summer summer summer,撒嘛撒嘛撒嘛,阿吉吉,抹布洗</t>
+  </si>
+  <si>
     <t>ふぁいぶスマイル◯オールインっ！</t>
   </si>
   <si>
@@ -3054,19 +3063,19 @@
     <t>迷路日々</t>
   </si>
   <si>
-    <t>迷路日日,melody,断手日</t>
+    <t>melody,迷路日日,断手日</t>
   </si>
   <si>
     <t>燦々</t>
   </si>
   <si>
-    <t>sansan,sensen（,尾杀一万级</t>
+    <t>sansan,尾杀一万级,1081combo</t>
   </si>
   <si>
     <t>ほな！</t>
   </si>
   <si>
-    <t>西游记,Hona!</t>
+    <t>西游记,hona,Hona</t>
   </si>
   <si>
     <t>flow,你邦男声,优胜</t>
@@ -3087,6 +3096,9 @@
     <t>祝福</t>
   </si>
   <si>
+    <t>高达,水星的魔女,水魔</t>
+  </si>
+  <si>
     <t>可愛くてごめん</t>
   </si>
   <si>
@@ -3102,10 +3114,13 @@
     <t>D-tecnoLife</t>
   </si>
   <si>
+    <t>d-tecnolife,死神</t>
+  </si>
+  <si>
     <t>サウダージ</t>
   </si>
   <si>
-    <t>saudade</t>
+    <t>saudade,relife,重返17岁</t>
   </si>
   <si>
     <t>ヒバナ-Reloaded-</t>
@@ -3186,13 +3201,13 @@
     <t>テレキャスタービーボーイ</t>
   </si>
   <si>
-    <t>telecaster B-boy</t>
+    <t>telecaster B-boy,电吉他说唱男孩</t>
   </si>
   <si>
     <t>処救生</t>
   </si>
   <si>
-    <t>处救生</t>
+    <t>处救生,呼吸,kokyuu</t>
   </si>
   <si>
     <t>Chu Chueen!</t>
@@ -3204,13 +3219,13 @@
     <t>Merry Merry Thanks!!</t>
   </si>
   <si>
-    <t>圣诞</t>
+    <t>蝶圣诞</t>
   </si>
   <si>
     <t>東京テディベア</t>
   </si>
   <si>
-    <t>东京泰迪熊</t>
+    <t>东京泰迪熊,敷衍了事</t>
   </si>
   <si>
     <t>青春 To Be Continued</t>
@@ -3222,9 +3237,21 @@
     <t>覚悟のLiberation</t>
   </si>
   <si>
+    <t>觉悟,liberation</t>
+  </si>
+  <si>
+    <t>らいふ・いず・みゅーじかるっ♪♪♪</t>
+  </si>
+  <si>
+    <t>life is musical</t>
+  </si>
+  <si>
     <t>粉雪</t>
   </si>
   <si>
+    <t>一升的眼泪</t>
+  </si>
+  <si>
     <t>Overdose</t>
   </si>
   <si>
@@ -3237,9 +3264,15 @@
     <t>slash</t>
   </si>
   <si>
+    <t>高达,水星的魔女,水魔,/,／</t>
+  </si>
+  <si>
     <t>私は最強</t>
   </si>
   <si>
+    <t>我是最强,海贼王</t>
+  </si>
+  <si>
     <t>強風オールバック</t>
   </si>
   <si>
@@ -3255,16 +3288,127 @@
     <t>カオスが極まる</t>
   </si>
   <si>
+    <t>混沌至极,chaos,蓝色监狱</t>
+  </si>
+  <si>
     <t>第ゼロ感</t>
   </si>
   <si>
-    <t>第零感</t>
+    <t>第零感,灌篮高手</t>
+  </si>
+  <si>
+    <t>グッド・バイ</t>
+  </si>
+  <si>
+    <t>goodbye,再见,再会,rose</t>
   </si>
   <si>
     <t>Radiate Warriors</t>
   </si>
   <si>
     <t>A Sunset So Bright</t>
+  </si>
+  <si>
+    <t>どりーみんチュチュ</t>
+  </si>
+  <si>
+    <t>dreamin chuchu,情人节</t>
+  </si>
+  <si>
+    <t>Ray of hope</t>
+  </si>
+  <si>
+    <t>輪符雨</t>
+  </si>
+  <si>
+    <t>refrain,轮符雨</t>
+  </si>
+  <si>
+    <t>蒼穹へのトレイル</t>
+  </si>
+  <si>
+    <t>苍穹</t>
+  </si>
+  <si>
+    <t>ドラマチック！アライブ</t>
+  </si>
+  <si>
+    <t>dramatic arrive</t>
+  </si>
+  <si>
+    <t>ReReReエボリューションず☆</t>
+  </si>
+  <si>
+    <t>rerere evolutions</t>
+  </si>
+  <si>
+    <t>VIOLET LINE</t>
+  </si>
+  <si>
+    <t>紫线,VL,vl,violet line</t>
+  </si>
+  <si>
+    <t>Always recall.</t>
+  </si>
+  <si>
+    <t>誓いのWingbeat</t>
+  </si>
+  <si>
+    <t>wb</t>
+  </si>
+  <si>
+    <t>アイドル</t>
+  </si>
+  <si>
+    <t>idol,偶像,推子,我推的孩子</t>
+  </si>
+  <si>
+    <t>青のすみか</t>
+  </si>
+  <si>
+    <t>苍蓝所栖,咒术回战,咒回</t>
+  </si>
+  <si>
+    <t>乙女解剖</t>
+  </si>
+  <si>
+    <t>少女解剖</t>
+  </si>
+  <si>
+    <t>ノンブレス・オブリージュ</t>
+  </si>
+  <si>
+    <t>non-breath oblige,无呼吸义务</t>
+  </si>
+  <si>
+    <t>きゅうくらりん</t>
+  </si>
+  <si>
+    <t>kyu-kurarin,心跳不止</t>
+  </si>
+  <si>
+    <t>かくれんぼ</t>
+  </si>
+  <si>
+    <t>捉迷藏,alia</t>
+  </si>
+  <si>
+    <t>ボッカデラベリタ</t>
+  </si>
+  <si>
+    <t>真理之口</t>
+  </si>
+  <si>
+    <t>怪獣の花唄</t>
+  </si>
+  <si>
+    <t>怪兽的花之歌,怪兽的花歌,怪兽的花呗</t>
+  </si>
+  <si>
+    <t>[超高難易度 新SPECIAL] SENSENFUKOKU</t>
+  </si>
+  <si>
+    <t>トレモロアイズ</t>
   </si>
   <si>
     <t>彩虹节拍</t>
@@ -3379,22 +3523,28 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0"/>
-    <xf fontId="4" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
@@ -3425,14 +3575,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="8" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0"/>
+    <xf fontId="8" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf fontId="6" fillId="0" borderId="0" xfId="0"/>
+    <xf fontId="6" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <dxfs count="1">
@@ -3449,7 +3608,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3491,7 +3650,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="等线 Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3500,7 +3659,7 @@
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -3543,16 +3702,16 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="等线" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="游明朝"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -3736,7 +3895,9 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}"/>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
   </a:extLst>
 </a:theme>
 </file>
@@ -3746,10 +3907,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="Z565"/>
+  <dimension ref="Z588"/>
   <sheetViews>
     <sheetView showGridLines="true" rightToLeft="false" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="A2" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" state="frozen"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -10299,7 +10460,7 @@
         <v>388</v>
       </c>
       <c r="C193" s="15" t="s">
-        <v>1086</v>
+        <v>1134</v>
       </c>
       <c r="D193" s="6" t="s"/>
       <c r="E193" s="6" t="s"/>
@@ -20862,7 +21023,9 @@
       <c r="B504" s="19" t="s">
         <v>998</v>
       </c>
-      <c r="C504" s="21" t="s"/>
+      <c r="C504" s="21" t="s">
+        <v>999</v>
+      </c>
       <c r="D504" s="20" t="s"/>
       <c r="E504" s="20" t="s"/>
       <c r="F504" s="20" t="s"/>
@@ -20892,7 +21055,7 @@
         <v>517</v>
       </c>
       <c r="B505" s="19" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C505" s="21" t="s"/>
       <c r="D505" s="20" t="s"/>
@@ -20924,10 +21087,10 @@
         <v>518</v>
       </c>
       <c r="B506" s="19" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C506" s="21" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D506" s="20" t="s"/>
       <c r="E506" s="20" t="s"/>
@@ -20958,10 +21121,10 @@
         <v>519</v>
       </c>
       <c r="B507" s="19" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C507" s="11" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D507" s="20" t="s"/>
       <c r="E507" s="20" t="s"/>
@@ -20992,9 +21155,11 @@
         <v>520</v>
       </c>
       <c r="B508" s="19" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C508" s="21" t="s"/>
+        <v>1005</v>
+      </c>
+      <c r="C508" s="21" t="s">
+        <v>1006</v>
+      </c>
       <c r="D508" s="20" t="s"/>
       <c r="E508" s="20" t="s"/>
       <c r="F508" s="20" t="s"/>
@@ -21024,10 +21189,10 @@
         <v>521</v>
       </c>
       <c r="B509" s="19" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="C509" s="21" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="D509" s="20" t="s"/>
       <c r="E509" s="20" t="s"/>
@@ -21058,10 +21223,10 @@
         <v>522</v>
       </c>
       <c r="B510" s="19" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="C510" s="21" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="D510" s="20" t="s"/>
       <c r="E510" s="20" t="s"/>
@@ -21092,9 +21257,11 @@
         <v>523</v>
       </c>
       <c r="B511" s="19" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C511" s="21" t="s"/>
+        <v>1011</v>
+      </c>
+      <c r="C511" s="21" t="s">
+        <v>1012</v>
+      </c>
       <c r="D511" s="20" t="s"/>
       <c r="E511" s="20" t="s"/>
       <c r="F511" s="20" t="s"/>
@@ -21124,10 +21291,10 @@
         <v>524</v>
       </c>
       <c r="B512" s="19" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="C512" s="21" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="D512" s="20" t="s"/>
       <c r="E512" s="20" t="s"/>
@@ -21158,10 +21325,10 @@
         <v>525</v>
       </c>
       <c r="B513" s="19" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="C513" s="11" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="D513" s="20" t="s"/>
       <c r="E513" s="20" t="s"/>
@@ -21192,10 +21359,10 @@
         <v>526</v>
       </c>
       <c r="B514" s="19" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="C514" s="21" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="D514" s="20" t="s"/>
       <c r="E514" s="20" t="s"/>
@@ -21226,10 +21393,10 @@
         <v>527</v>
       </c>
       <c r="B515" s="19" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="C515" s="21" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="D515" s="20" t="s"/>
       <c r="E515" s="20" t="s"/>
@@ -21263,10 +21430,10 @@
         <v>733</v>
       </c>
       <c r="C516" s="21" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="D516" s="20" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="E516" s="20" t="s"/>
       <c r="F516" s="20" t="s"/>
@@ -21296,10 +21463,10 @@
         <v>529</v>
       </c>
       <c r="B517" s="19" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="C517" s="21" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="D517" s="20" t="s"/>
       <c r="E517" s="20" t="s"/>
@@ -21330,7 +21497,7 @@
         <v>530</v>
       </c>
       <c r="B518" s="19" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="C518" s="21" t="s"/>
       <c r="D518" s="20" t="s"/>
@@ -21362,10 +21529,10 @@
         <v>532</v>
       </c>
       <c r="B519" s="19" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="C519" s="21" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="D519" s="20" t="s"/>
       <c r="E519" s="20" t="s"/>
@@ -21396,10 +21563,10 @@
         <v>533</v>
       </c>
       <c r="B520" s="19" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="C520" s="21" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="D520" s="20" t="s"/>
       <c r="E520" s="20" t="s"/>
@@ -21430,10 +21597,10 @@
         <v>534</v>
       </c>
       <c r="B521" s="19" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="C521" s="21" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="D521" s="20" t="s"/>
       <c r="E521" s="20" t="s"/>
@@ -21464,9 +21631,11 @@
         <v>535</v>
       </c>
       <c r="B522" s="19" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C522" s="21" t="s"/>
+        <v>1032</v>
+      </c>
+      <c r="C522" s="21" t="s">
+        <v>1033</v>
+      </c>
       <c r="D522" s="20" t="s"/>
       <c r="E522" s="20" t="s"/>
       <c r="F522" s="20" t="s"/>
@@ -21496,10 +21665,10 @@
         <v>536</v>
       </c>
       <c r="B523" s="19" t="s">
-        <v>1029</v>
+        <v>1034</v>
       </c>
       <c r="C523" s="11" t="s">
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="D523" s="20" t="s"/>
       <c r="E523" s="20" t="s"/>
@@ -21530,10 +21699,10 @@
         <v>537</v>
       </c>
       <c r="B524" s="19" t="s">
-        <v>1031</v>
+        <v>1036</v>
       </c>
       <c r="C524" s="21" t="s">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="D524" s="20" t="s"/>
       <c r="E524" s="20" t="s"/>
@@ -21564,10 +21733,10 @@
         <v>538</v>
       </c>
       <c r="B525" s="19" t="s">
-        <v>1033</v>
+        <v>1038</v>
       </c>
       <c r="C525" s="11" t="s">
-        <v>1034</v>
+        <v>1039</v>
       </c>
       <c r="D525" s="20" t="s"/>
       <c r="E525" s="20" t="s"/>
@@ -21598,10 +21767,10 @@
         <v>539</v>
       </c>
       <c r="B526" s="19" t="s">
-        <v>1035</v>
+        <v>1040</v>
       </c>
       <c r="C526" s="11" t="s">
-        <v>1036</v>
+        <v>1041</v>
       </c>
       <c r="D526" s="20" t="s"/>
       <c r="E526" s="20" t="s"/>
@@ -21632,10 +21801,10 @@
         <v>540</v>
       </c>
       <c r="B527" s="19" t="s">
-        <v>1037</v>
+        <v>1042</v>
       </c>
       <c r="C527" s="21" t="s">
-        <v>1038</v>
+        <v>1043</v>
       </c>
       <c r="D527" s="20" t="s"/>
       <c r="E527" s="20" t="s"/>
@@ -21666,10 +21835,10 @@
         <v>542</v>
       </c>
       <c r="B528" s="19" t="s">
-        <v>1039</v>
+        <v>1044</v>
       </c>
       <c r="C528" s="21" t="s">
-        <v>1040</v>
+        <v>1045</v>
       </c>
       <c r="D528" s="20" t="s"/>
       <c r="E528" s="20" t="s"/>
@@ -21700,10 +21869,10 @@
         <v>543</v>
       </c>
       <c r="B529" s="19" t="s">
-        <v>1041</v>
+        <v>1046</v>
       </c>
       <c r="C529" s="21" t="s">
-        <v>1042</v>
+        <v>1047</v>
       </c>
       <c r="D529" s="20" t="s"/>
       <c r="E529" s="20" t="s"/>
@@ -21734,10 +21903,10 @@
         <v>545</v>
       </c>
       <c r="B530" s="19" t="s">
-        <v>1043</v>
+        <v>1048</v>
       </c>
       <c r="C530" s="11" t="s">
-        <v>1044</v>
+        <v>1049</v>
       </c>
       <c r="D530" s="20" t="s"/>
       <c r="E530" s="20" t="s"/>
@@ -21768,10 +21937,10 @@
         <v>546</v>
       </c>
       <c r="B531" s="19" t="s">
-        <v>1045</v>
+        <v>1050</v>
       </c>
       <c r="C531" s="21" t="s">
-        <v>1046</v>
+        <v>1051</v>
       </c>
       <c r="D531" s="20" t="s"/>
       <c r="E531" s="20" t="s"/>
@@ -21802,10 +21971,10 @@
         <v>547</v>
       </c>
       <c r="B532" s="19" t="s">
-        <v>1047</v>
+        <v>1052</v>
       </c>
       <c r="C532" s="21" t="s">
-        <v>1048</v>
+        <v>1053</v>
       </c>
       <c r="D532" s="20" t="s"/>
       <c r="E532" s="20" t="s"/>
@@ -21836,10 +22005,10 @@
         <v>548</v>
       </c>
       <c r="B533" s="19" t="s">
-        <v>1049</v>
+        <v>1054</v>
       </c>
       <c r="C533" s="21" t="s">
-        <v>1050</v>
+        <v>1055</v>
       </c>
       <c r="D533" s="20" t="s"/>
       <c r="E533" s="20" t="s"/>
@@ -21870,10 +22039,10 @@
         <v>549</v>
       </c>
       <c r="B534" s="19" t="s">
-        <v>1051</v>
+        <v>1056</v>
       </c>
       <c r="C534" s="21" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="D534" s="20" t="s"/>
       <c r="E534" s="20" t="s"/>
@@ -21904,10 +22073,10 @@
         <v>550</v>
       </c>
       <c r="B535" s="19" t="s">
-        <v>1053</v>
+        <v>1058</v>
       </c>
       <c r="C535" s="11" t="s">
-        <v>1054</v>
+        <v>1059</v>
       </c>
       <c r="D535" s="20" t="s"/>
       <c r="E535" s="20" t="s"/>
@@ -21938,7 +22107,7 @@
         <v>551</v>
       </c>
       <c r="B536" s="19" t="s">
-        <v>1055</v>
+        <v>1060</v>
       </c>
       <c r="C536" s="21" t="s"/>
       <c r="E536" s="20" t="s"/>
@@ -21969,10 +22138,10 @@
         <v>552</v>
       </c>
       <c r="B537" s="19" t="s">
-        <v>1056</v>
+        <v>1061</v>
       </c>
       <c r="C537" s="11" t="s">
-        <v>1057</v>
+        <v>1062</v>
       </c>
       <c r="E537" s="20" t="s"/>
       <c r="F537" s="20" t="s"/>
@@ -22002,10 +22171,10 @@
         <v>553</v>
       </c>
       <c r="B538" s="19" t="s">
-        <v>1058</v>
+        <v>1063</v>
       </c>
       <c r="C538" s="11" t="s">
-        <v>1059</v>
+        <v>1064</v>
       </c>
       <c r="E538" s="20" t="s"/>
       <c r="F538" s="20" t="s"/>
@@ -22035,10 +22204,10 @@
         <v>554</v>
       </c>
       <c r="B539" s="19" t="s">
-        <v>1060</v>
+        <v>1065</v>
       </c>
       <c r="C539" s="11" t="s">
-        <v>1061</v>
+        <v>1066</v>
       </c>
       <c r="E539" s="20" t="s"/>
       <c r="F539" s="20" t="s"/>
@@ -22068,10 +22237,10 @@
         <v>555</v>
       </c>
       <c r="B540" s="19" t="s">
-        <v>1062</v>
+        <v>1067</v>
       </c>
       <c r="C540" s="11" t="s">
-        <v>1063</v>
+        <v>1068</v>
       </c>
       <c r="E540" s="20" t="s"/>
       <c r="F540" s="20" t="s"/>
@@ -22101,10 +22270,10 @@
         <v>556</v>
       </c>
       <c r="B541" s="19" t="s">
-        <v>1064</v>
+        <v>1069</v>
       </c>
       <c r="C541" s="11" t="s">
-        <v>1065</v>
+        <v>1070</v>
       </c>
       <c r="E541" s="20" t="s"/>
       <c r="F541" s="20" t="s"/>
@@ -22134,10 +22303,10 @@
         <v>557</v>
       </c>
       <c r="B542" s="19" t="s">
-        <v>1066</v>
+        <v>1071</v>
       </c>
       <c r="C542" s="11" t="s">
-        <v>1067</v>
+        <v>1072</v>
       </c>
       <c r="E542" s="20" t="s"/>
       <c r="F542" s="20" t="s"/>
@@ -22167,9 +22336,11 @@
         <v>558</v>
       </c>
       <c r="B543" s="19" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C543" s="21" t="s"/>
+        <v>1073</v>
+      </c>
+      <c r="C543" s="21" t="s">
+        <v>1074</v>
+      </c>
       <c r="E543" s="20" t="s"/>
       <c r="F543" s="20" t="s"/>
       <c r="G543" s="20" t="s"/>
@@ -22195,12 +22366,14 @@
     </row>
     <row r="544" spans="1:26">
       <c r="A544" s="19">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B544" s="19" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C544" s="21" t="s"/>
+        <v>1075</v>
+      </c>
+      <c r="C544" s="21" t="s">
+        <v>1076</v>
+      </c>
       <c r="E544" s="20" t="s"/>
       <c r="F544" s="20" t="s"/>
       <c r="G544" s="20" t="s"/>
@@ -22226,12 +22399,14 @@
     </row>
     <row r="545" spans="1:26">
       <c r="A545" s="19">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B545" s="19" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C545" s="21" t="s"/>
+        <v>1077</v>
+      </c>
+      <c r="C545" s="21" t="s">
+        <v>1078</v>
+      </c>
       <c r="E545" s="20" t="s"/>
       <c r="F545" s="20" t="s"/>
       <c r="G545" s="20" t="s"/>
@@ -22257,14 +22432,12 @@
     </row>
     <row r="546" spans="1:26">
       <c r="A546" s="19">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B546" s="19" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C546" s="11" t="s">
-        <v>1072</v>
-      </c>
+        <v>1079</v>
+      </c>
+      <c r="C546" s="21" t="s"/>
       <c r="E546" s="20" t="s"/>
       <c r="F546" s="20" t="s"/>
       <c r="G546" s="20" t="s"/>
@@ -22290,12 +22463,14 @@
     </row>
     <row r="547" spans="1:26">
       <c r="A547" s="19">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B547" s="19" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C547" s="11" t="s"/>
+        <v>1080</v>
+      </c>
+      <c r="C547" s="11" t="s">
+        <v>1081</v>
+      </c>
       <c r="E547" s="20" t="s"/>
       <c r="F547" s="20" t="s"/>
       <c r="G547" s="20" t="s"/>
@@ -22321,12 +22496,14 @@
     </row>
     <row r="548" spans="1:26">
       <c r="A548" s="19">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B548" s="19" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C548" s="11" t="s"/>
+        <v>1082</v>
+      </c>
+      <c r="C548" s="11" t="s">
+        <v>1083</v>
+      </c>
       <c r="E548" s="20" t="s"/>
       <c r="F548" s="20" t="s"/>
       <c r="G548" s="20" t="s"/>
@@ -22352,13 +22529,13 @@
     </row>
     <row r="549" spans="1:26">
       <c r="A549" s="19">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B549" s="19" t="s">
-        <v>1075</v>
+        <v>1084</v>
       </c>
       <c r="C549" s="11" t="s">
-        <v>1076</v>
+        <v>1085</v>
       </c>
       <c r="E549" s="20" t="s"/>
       <c r="F549" s="20" t="s"/>
@@ -22385,13 +22562,13 @@
     </row>
     <row r="550" spans="1:26">
       <c r="A550" s="19">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B550" s="19" t="s">
-        <v>1077</v>
+        <v>1086</v>
       </c>
       <c r="C550" s="11" t="s">
-        <v>1078</v>
+        <v>1087</v>
       </c>
       <c r="E550" s="20" t="s"/>
       <c r="F550" s="20" t="s"/>
@@ -22418,12 +22595,14 @@
     </row>
     <row r="551" spans="1:26">
       <c r="A551" s="19">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B551" s="19" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C551" s="11" t="s"/>
+        <v>1088</v>
+      </c>
+      <c r="C551" s="11" t="s">
+        <v>1089</v>
+      </c>
       <c r="E551" s="20" t="s"/>
       <c r="F551" s="20" t="s"/>
       <c r="G551" s="20" t="s"/>
@@ -22449,13 +22628,13 @@
     </row>
     <row r="552" spans="1:26">
       <c r="A552" s="19">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B552" s="19" t="s">
-        <v>1080</v>
+        <v>1090</v>
       </c>
       <c r="C552" s="11" t="s">
-        <v>1081</v>
+        <v>1091</v>
       </c>
       <c r="E552" s="20" t="s"/>
       <c r="F552" s="20" t="s"/>
@@ -22482,12 +22661,14 @@
     </row>
     <row r="553" spans="1:26">
       <c r="A553" s="19">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B553" s="19" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C553" s="21" t="s"/>
+        <v>1092</v>
+      </c>
+      <c r="C553" s="11" t="s">
+        <v>1093</v>
+      </c>
       <c r="E553" s="20" t="s"/>
       <c r="F553" s="20" t="s"/>
       <c r="G553" s="20" t="s"/>
@@ -22513,12 +22694,14 @@
     </row>
     <row r="554" spans="1:26">
       <c r="A554" s="19">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="B554" s="19" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C554" s="21" t="s"/>
+        <v>1094</v>
+      </c>
+      <c r="C554" s="11" t="s">
+        <v>1095</v>
+      </c>
       <c r="E554" s="20" t="s"/>
       <c r="F554" s="20" t="s"/>
       <c r="G554" s="20" t="s"/>
@@ -22543,183 +22726,207 @@
       <c r="Z554" s="20" t="s"/>
     </row>
     <row r="555" spans="1:26">
-      <c r="A555" s="7">
-        <v>10001</v>
-      </c>
-      <c r="B555" s="8" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C555" s="9" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E555" s="6" t="s"/>
-      <c r="F555" s="6" t="s"/>
-      <c r="G555" s="6" t="s"/>
-      <c r="H555" s="6" t="s"/>
-      <c r="I555" s="6" t="s"/>
-      <c r="J555" s="6" t="s"/>
-      <c r="K555" s="6" t="s"/>
-      <c r="L555" s="6" t="s"/>
-      <c r="M555" s="6" t="s"/>
-      <c r="N555" s="6" t="s"/>
-      <c r="O555" s="6" t="s"/>
-      <c r="P555" s="6" t="s"/>
-      <c r="Q555" s="6" t="s"/>
-      <c r="R555" s="6" t="s"/>
-      <c r="S555" s="6" t="s"/>
-      <c r="T555" s="6" t="s"/>
-      <c r="U555" s="6" t="s"/>
-      <c r="V555" s="6" t="s"/>
-      <c r="W555" s="6" t="s"/>
-      <c r="X555" s="6" t="s"/>
-      <c r="Y555" s="6" t="s"/>
-      <c r="Z555" s="6" t="s"/>
+      <c r="A555" s="19">
+        <v>572</v>
+      </c>
+      <c r="B555" s="19" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C555" s="21" t="s"/>
+      <c r="E555" s="20" t="s"/>
+      <c r="F555" s="20" t="s"/>
+      <c r="G555" s="20" t="s"/>
+      <c r="H555" s="20" t="s"/>
+      <c r="I555" s="20" t="s"/>
+      <c r="J555" s="20" t="s"/>
+      <c r="K555" s="20" t="s"/>
+      <c r="L555" s="20" t="s"/>
+      <c r="M555" s="20" t="s"/>
+      <c r="N555" s="20" t="s"/>
+      <c r="O555" s="20" t="s"/>
+      <c r="P555" s="20" t="s"/>
+      <c r="Q555" s="20" t="s"/>
+      <c r="R555" s="20" t="s"/>
+      <c r="S555" s="20" t="s"/>
+      <c r="T555" s="20" t="s"/>
+      <c r="U555" s="20" t="s"/>
+      <c r="V555" s="20" t="s"/>
+      <c r="W555" s="20" t="s"/>
+      <c r="X555" s="20" t="s"/>
+      <c r="Y555" s="20" t="s"/>
+      <c r="Z555" s="20" t="s"/>
     </row>
     <row r="556" spans="1:26">
-      <c r="A556" s="7" t="s"/>
-      <c r="B556" s="8" t="s"/>
-      <c r="C556" s="9" t="s"/>
-      <c r="D556" s="6" t="s"/>
-      <c r="E556" s="6" t="s"/>
-      <c r="F556" s="6" t="s"/>
-      <c r="G556" s="6" t="s"/>
-      <c r="H556" s="6" t="s"/>
-      <c r="I556" s="6" t="s"/>
-      <c r="J556" s="6" t="s"/>
-      <c r="K556" s="6" t="s"/>
-      <c r="L556" s="6" t="s"/>
-      <c r="M556" s="6" t="s"/>
-      <c r="N556" s="6" t="s"/>
-      <c r="O556" s="6" t="s"/>
-      <c r="P556" s="6" t="s"/>
-      <c r="Q556" s="6" t="s"/>
-      <c r="R556" s="6" t="s"/>
-      <c r="S556" s="6" t="s"/>
-      <c r="T556" s="6" t="s"/>
-      <c r="U556" s="6" t="s"/>
-      <c r="V556" s="6" t="s"/>
-      <c r="W556" s="6" t="s"/>
-      <c r="X556" s="6" t="s"/>
-      <c r="Y556" s="6" t="s"/>
-      <c r="Z556" s="6" t="s"/>
+      <c r="A556" s="19">
+        <v>577</v>
+      </c>
+      <c r="B556" s="19" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C556" s="21" t="s"/>
+      <c r="E556" s="20" t="s"/>
+      <c r="F556" s="20" t="s"/>
+      <c r="G556" s="20" t="s"/>
+      <c r="H556" s="20" t="s"/>
+      <c r="I556" s="20" t="s"/>
+      <c r="J556" s="20" t="s"/>
+      <c r="K556" s="20" t="s"/>
+      <c r="L556" s="20" t="s"/>
+      <c r="M556" s="20" t="s"/>
+      <c r="N556" s="20" t="s"/>
+      <c r="O556" s="20" t="s"/>
+      <c r="P556" s="20" t="s"/>
+      <c r="Q556" s="20" t="s"/>
+      <c r="R556" s="20" t="s"/>
+      <c r="S556" s="20" t="s"/>
+      <c r="T556" s="20" t="s"/>
+      <c r="U556" s="20" t="s"/>
+      <c r="V556" s="20" t="s"/>
+      <c r="W556" s="20" t="s"/>
+      <c r="X556" s="20" t="s"/>
+      <c r="Y556" s="20" t="s"/>
+      <c r="Z556" s="20" t="s"/>
     </row>
     <row r="557" spans="1:26">
-      <c r="A557" s="7" t="s"/>
-      <c r="B557" s="8" t="s"/>
-      <c r="C557" s="9" t="s"/>
-      <c r="D557" s="6" t="s"/>
-      <c r="E557" s="6" t="s"/>
-      <c r="F557" s="6" t="s"/>
-      <c r="G557" s="6" t="s"/>
-      <c r="H557" s="6" t="s"/>
-      <c r="I557" s="6" t="s"/>
-      <c r="J557" s="6" t="s"/>
-      <c r="K557" s="6" t="s"/>
-      <c r="L557" s="6" t="s"/>
-      <c r="M557" s="6" t="s"/>
-      <c r="N557" s="6" t="s"/>
-      <c r="O557" s="6" t="s"/>
-      <c r="P557" s="6" t="s"/>
-      <c r="Q557" s="6" t="s"/>
-      <c r="R557" s="6" t="s"/>
-      <c r="S557" s="6" t="s"/>
-      <c r="T557" s="6" t="s"/>
-      <c r="U557" s="6" t="s"/>
-      <c r="V557" s="6" t="s"/>
-      <c r="W557" s="6" t="s"/>
-      <c r="X557" s="6" t="s"/>
-      <c r="Y557" s="6" t="s"/>
-      <c r="Z557" s="6" t="s"/>
+      <c r="A557" s="19">
+        <v>578</v>
+      </c>
+      <c r="B557" s="19" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C557" s="21" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E557" s="20" t="s"/>
+      <c r="F557" s="20" t="s"/>
+      <c r="G557" s="20" t="s"/>
+      <c r="H557" s="20" t="s"/>
+      <c r="I557" s="20" t="s"/>
+      <c r="J557" s="20" t="s"/>
+      <c r="K557" s="20" t="s"/>
+      <c r="L557" s="20" t="s"/>
+      <c r="M557" s="20" t="s"/>
+      <c r="N557" s="20" t="s"/>
+      <c r="O557" s="20" t="s"/>
+      <c r="P557" s="20" t="s"/>
+      <c r="Q557" s="20" t="s"/>
+      <c r="R557" s="20" t="s"/>
+      <c r="S557" s="20" t="s"/>
+      <c r="T557" s="20" t="s"/>
+      <c r="U557" s="20" t="s"/>
+      <c r="V557" s="20" t="s"/>
+      <c r="W557" s="20" t="s"/>
+      <c r="X557" s="20" t="s"/>
+      <c r="Y557" s="20" t="s"/>
+      <c r="Z557" s="20" t="s"/>
     </row>
     <row r="558" spans="1:26">
-      <c r="A558" s="7" t="s"/>
-      <c r="B558" s="8" t="s"/>
-      <c r="C558" s="9" t="s"/>
-      <c r="D558" s="6" t="s"/>
-      <c r="E558" s="6" t="s"/>
-      <c r="F558" s="6" t="s"/>
-      <c r="G558" s="6" t="s"/>
-      <c r="H558" s="6" t="s"/>
-      <c r="I558" s="6" t="s"/>
-      <c r="J558" s="6" t="s"/>
-      <c r="K558" s="6" t="s"/>
-      <c r="L558" s="6" t="s"/>
-      <c r="M558" s="6" t="s"/>
-      <c r="N558" s="6" t="s"/>
-      <c r="O558" s="6" t="s"/>
-      <c r="P558" s="6" t="s"/>
-      <c r="Q558" s="6" t="s"/>
-      <c r="R558" s="6" t="s"/>
-      <c r="S558" s="6" t="s"/>
-      <c r="T558" s="6" t="s"/>
-      <c r="U558" s="6" t="s"/>
-      <c r="V558" s="6" t="s"/>
-      <c r="W558" s="6" t="s"/>
-      <c r="X558" s="6" t="s"/>
-      <c r="Y558" s="6" t="s"/>
-      <c r="Z558" s="6" t="s"/>
+      <c r="A558" s="19">
+        <v>579</v>
+      </c>
+      <c r="B558" s="19" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C558" s="21" t="s"/>
+      <c r="E558" s="20" t="s"/>
+      <c r="F558" s="20" t="s"/>
+      <c r="G558" s="20" t="s"/>
+      <c r="H558" s="20" t="s"/>
+      <c r="I558" s="20" t="s"/>
+      <c r="J558" s="20" t="s"/>
+      <c r="K558" s="20" t="s"/>
+      <c r="L558" s="20" t="s"/>
+      <c r="M558" s="20" t="s"/>
+      <c r="N558" s="20" t="s"/>
+      <c r="O558" s="20" t="s"/>
+      <c r="P558" s="20" t="s"/>
+      <c r="Q558" s="20" t="s"/>
+      <c r="R558" s="20" t="s"/>
+      <c r="S558" s="20" t="s"/>
+      <c r="T558" s="20" t="s"/>
+      <c r="U558" s="20" t="s"/>
+      <c r="V558" s="20" t="s"/>
+      <c r="W558" s="20" t="s"/>
+      <c r="X558" s="20" t="s"/>
+      <c r="Y558" s="20" t="s"/>
+      <c r="Z558" s="20" t="s"/>
     </row>
     <row r="559" spans="1:26">
-      <c r="A559" s="7" t="s"/>
-      <c r="B559" s="8" t="s"/>
-      <c r="C559" s="9" t="s"/>
-      <c r="D559" s="6" t="s"/>
-      <c r="E559" s="6" t="s"/>
-      <c r="F559" s="6" t="s"/>
-      <c r="G559" s="6" t="s"/>
-      <c r="H559" s="6" t="s"/>
-      <c r="I559" s="6" t="s"/>
-      <c r="J559" s="6" t="s"/>
-      <c r="K559" s="6" t="s"/>
-      <c r="L559" s="6" t="s"/>
-      <c r="M559" s="6" t="s"/>
-      <c r="N559" s="6" t="s"/>
-      <c r="O559" s="6" t="s"/>
-      <c r="P559" s="6" t="s"/>
-      <c r="Q559" s="6" t="s"/>
-      <c r="R559" s="6" t="s"/>
-      <c r="S559" s="6" t="s"/>
-      <c r="T559" s="6" t="s"/>
-      <c r="U559" s="6" t="s"/>
-      <c r="V559" s="6" t="s"/>
-      <c r="W559" s="6" t="s"/>
-      <c r="X559" s="6" t="s"/>
-      <c r="Y559" s="6" t="s"/>
-      <c r="Z559" s="6" t="s"/>
+      <c r="A559" s="19">
+        <v>580</v>
+      </c>
+      <c r="B559" s="19" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C559" s="21" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E559" s="20" t="s"/>
+      <c r="F559" s="20" t="s"/>
+      <c r="G559" s="20" t="s"/>
+      <c r="H559" s="20" t="s"/>
+      <c r="I559" s="20" t="s"/>
+      <c r="J559" s="20" t="s"/>
+      <c r="K559" s="20" t="s"/>
+      <c r="L559" s="20" t="s"/>
+      <c r="M559" s="20" t="s"/>
+      <c r="N559" s="20" t="s"/>
+      <c r="O559" s="20" t="s"/>
+      <c r="P559" s="20" t="s"/>
+      <c r="Q559" s="20" t="s"/>
+      <c r="R559" s="20" t="s"/>
+      <c r="S559" s="20" t="s"/>
+      <c r="T559" s="20" t="s"/>
+      <c r="U559" s="20" t="s"/>
+      <c r="V559" s="20" t="s"/>
+      <c r="W559" s="20" t="s"/>
+      <c r="X559" s="20" t="s"/>
+      <c r="Y559" s="20" t="s"/>
+      <c r="Z559" s="20" t="s"/>
     </row>
     <row r="560" spans="1:26">
-      <c r="A560" s="7" t="s"/>
-      <c r="B560" s="8" t="s"/>
-      <c r="C560" s="9" t="s"/>
-      <c r="D560" s="6" t="s"/>
-      <c r="E560" s="6" t="s"/>
-      <c r="F560" s="6" t="s"/>
-      <c r="G560" s="6" t="s"/>
-      <c r="H560" s="6" t="s"/>
-      <c r="I560" s="6" t="s"/>
-      <c r="J560" s="6" t="s"/>
-      <c r="K560" s="6" t="s"/>
-      <c r="L560" s="6" t="s"/>
-      <c r="M560" s="6" t="s"/>
-      <c r="N560" s="6" t="s"/>
-      <c r="O560" s="6" t="s"/>
-      <c r="P560" s="6" t="s"/>
-      <c r="Q560" s="6" t="s"/>
-      <c r="R560" s="6" t="s"/>
-      <c r="S560" s="6" t="s"/>
-      <c r="T560" s="6" t="s"/>
-      <c r="U560" s="6" t="s"/>
-      <c r="V560" s="6" t="s"/>
-      <c r="W560" s="6" t="s"/>
-      <c r="X560" s="6" t="s"/>
-      <c r="Y560" s="6" t="s"/>
-      <c r="Z560" s="6" t="s"/>
+      <c r="A560" s="19">
+        <v>581</v>
+      </c>
+      <c r="B560" s="19" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C560" s="21" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E560" s="20" t="s"/>
+      <c r="F560" s="20" t="s"/>
+      <c r="G560" s="20" t="s"/>
+      <c r="H560" s="20" t="s"/>
+      <c r="I560" s="20" t="s"/>
+      <c r="J560" s="20" t="s"/>
+      <c r="K560" s="20" t="s"/>
+      <c r="L560" s="20" t="s"/>
+      <c r="M560" s="20" t="s"/>
+      <c r="N560" s="20" t="s"/>
+      <c r="O560" s="20" t="s"/>
+      <c r="P560" s="20" t="s"/>
+      <c r="Q560" s="20" t="s"/>
+      <c r="R560" s="20" t="s"/>
+      <c r="S560" s="20" t="s"/>
+      <c r="T560" s="20" t="s"/>
+      <c r="U560" s="20" t="s"/>
+      <c r="V560" s="20" t="s"/>
+      <c r="W560" s="20" t="s"/>
+      <c r="X560" s="20" t="s"/>
+      <c r="Y560" s="20" t="s"/>
+      <c r="Z560" s="20" t="s"/>
     </row>
     <row r="561" spans="1:26">
-      <c r="A561" s="7" t="s"/>
-      <c r="B561" s="8" t="s"/>
-      <c r="C561" s="9" t="s"/>
-      <c r="D561" s="6" t="s"/>
+      <c r="A561" s="7">
+        <v>582</v>
+      </c>
+      <c r="B561" s="8" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C561" s="21" t="s">
+        <v>1106</v>
+      </c>
       <c r="E561" s="6" t="s"/>
       <c r="F561" s="6" t="s"/>
       <c r="G561" s="6" t="s"/>
@@ -22744,10 +22951,15 @@
       <c r="Z561" s="6" t="s"/>
     </row>
     <row r="562" spans="1:26">
-      <c r="A562" s="7" t="s"/>
-      <c r="B562" s="8" t="s"/>
-      <c r="C562" s="9" t="s"/>
-      <c r="D562" s="6" t="s"/>
+      <c r="A562" s="7">
+        <v>583</v>
+      </c>
+      <c r="B562" s="8" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C562" s="9" t="s">
+        <v>1108</v>
+      </c>
       <c r="E562" s="6" t="s"/>
       <c r="F562" s="6" t="s"/>
       <c r="G562" s="6" t="s"/>
@@ -22772,10 +22984,15 @@
       <c r="Z562" s="6" t="s"/>
     </row>
     <row r="563" spans="1:26">
-      <c r="A563" s="7" t="s"/>
-      <c r="B563" s="8" t="s"/>
-      <c r="C563" s="9" t="s"/>
-      <c r="D563" s="6" t="s"/>
+      <c r="A563" s="7">
+        <v>584</v>
+      </c>
+      <c r="B563" s="8" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C563" s="9" t="s">
+        <v>1110</v>
+      </c>
       <c r="E563" s="6" t="s"/>
       <c r="F563" s="6" t="s"/>
       <c r="G563" s="6" t="s"/>
@@ -22800,10 +23017,13 @@
       <c r="Z563" s="6" t="s"/>
     </row>
     <row r="564" spans="1:26">
-      <c r="A564" s="7" t="s"/>
-      <c r="B564" s="8" t="s"/>
+      <c r="A564" s="7">
+        <v>585</v>
+      </c>
+      <c r="B564" s="8" t="s">
+        <v>1111</v>
+      </c>
       <c r="C564" s="9" t="s"/>
-      <c r="D564" s="6" t="s"/>
       <c r="E564" s="6" t="s"/>
       <c r="F564" s="6" t="s"/>
       <c r="G564" s="6" t="s"/>
@@ -22828,10 +23048,15 @@
       <c r="Z564" s="6" t="s"/>
     </row>
     <row r="565" spans="1:26">
-      <c r="A565" s="7" t="s"/>
-      <c r="B565" s="8" t="s"/>
-      <c r="C565" s="9" t="s"/>
-      <c r="D565" s="6" t="s"/>
+      <c r="A565" s="7">
+        <v>586</v>
+      </c>
+      <c r="B565" s="8" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C565" s="9" t="s">
+        <v>1113</v>
+      </c>
       <c r="E565" s="6" t="s"/>
       <c r="F565" s="6" t="s"/>
       <c r="G565" s="6" t="s"/>
@@ -22855,8 +23080,709 @@
       <c r="Y565" s="6" t="s"/>
       <c r="Z565" s="6" t="s"/>
     </row>
+    <row r="566" spans="1:26">
+      <c r="A566" s="7">
+        <v>587</v>
+      </c>
+      <c r="B566" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C566" s="22" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E566" s="6" t="s"/>
+      <c r="F566" s="6" t="s"/>
+      <c r="G566" s="6" t="s"/>
+      <c r="H566" s="6" t="s"/>
+      <c r="I566" s="6" t="s"/>
+      <c r="J566" s="6" t="s"/>
+      <c r="K566" s="6" t="s"/>
+      <c r="L566" s="6" t="s"/>
+      <c r="M566" s="6" t="s"/>
+      <c r="N566" s="6" t="s"/>
+      <c r="O566" s="6" t="s"/>
+      <c r="P566" s="6" t="s"/>
+      <c r="Q566" s="6" t="s"/>
+      <c r="R566" s="6" t="s"/>
+      <c r="S566" s="6" t="s"/>
+      <c r="T566" s="6" t="s"/>
+      <c r="U566" s="6" t="s"/>
+      <c r="V566" s="6" t="s"/>
+      <c r="W566" s="6" t="s"/>
+      <c r="X566" s="6" t="s"/>
+      <c r="Y566" s="6" t="s"/>
+      <c r="Z566" s="6" t="s"/>
+    </row>
+    <row r="567" spans="1:26">
+      <c r="A567" s="7">
+        <v>588</v>
+      </c>
+      <c r="B567" s="22" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C567" s="22" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E567" s="6" t="s"/>
+      <c r="F567" s="6" t="s"/>
+      <c r="G567" s="6" t="s"/>
+      <c r="H567" s="6" t="s"/>
+      <c r="I567" s="6" t="s"/>
+      <c r="J567" s="6" t="s"/>
+      <c r="K567" s="6" t="s"/>
+      <c r="L567" s="6" t="s"/>
+      <c r="M567" s="6" t="s"/>
+      <c r="N567" s="6" t="s"/>
+      <c r="O567" s="6" t="s"/>
+      <c r="P567" s="6" t="s"/>
+      <c r="Q567" s="6" t="s"/>
+      <c r="R567" s="6" t="s"/>
+      <c r="S567" s="6" t="s"/>
+      <c r="T567" s="6" t="s"/>
+      <c r="U567" s="6" t="s"/>
+      <c r="V567" s="6" t="s"/>
+      <c r="W567" s="6" t="s"/>
+      <c r="X567" s="6" t="s"/>
+      <c r="Y567" s="6" t="s"/>
+      <c r="Z567" s="6" t="s"/>
+    </row>
+    <row r="568" spans="1:26">
+      <c r="A568" s="7">
+        <v>589</v>
+      </c>
+      <c r="B568" s="22" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C568" s="22" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E568" s="6" t="s"/>
+      <c r="F568" s="6" t="s"/>
+      <c r="G568" s="6" t="s"/>
+      <c r="H568" s="6" t="s"/>
+      <c r="I568" s="6" t="s"/>
+      <c r="J568" s="6" t="s"/>
+      <c r="K568" s="6" t="s"/>
+      <c r="L568" s="6" t="s"/>
+      <c r="M568" s="6" t="s"/>
+      <c r="N568" s="6" t="s"/>
+      <c r="O568" s="6" t="s"/>
+      <c r="P568" s="6" t="s"/>
+      <c r="Q568" s="6" t="s"/>
+      <c r="R568" s="6" t="s"/>
+      <c r="S568" s="6" t="s"/>
+      <c r="T568" s="6" t="s"/>
+      <c r="U568" s="6" t="s"/>
+      <c r="V568" s="6" t="s"/>
+      <c r="W568" s="6" t="s"/>
+      <c r="X568" s="6" t="s"/>
+      <c r="Y568" s="6" t="s"/>
+      <c r="Z568" s="6" t="s"/>
+    </row>
+    <row r="569" spans="1:26">
+      <c r="A569" s="7">
+        <v>590</v>
+      </c>
+      <c r="B569" s="22" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C569" s="22" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E569" s="6" t="s"/>
+      <c r="F569" s="6" t="s"/>
+      <c r="G569" s="6" t="s"/>
+      <c r="H569" s="6" t="s"/>
+      <c r="I569" s="6" t="s"/>
+      <c r="J569" s="6" t="s"/>
+      <c r="K569" s="6" t="s"/>
+      <c r="L569" s="6" t="s"/>
+      <c r="M569" s="6" t="s"/>
+      <c r="N569" s="6" t="s"/>
+      <c r="O569" s="6" t="s"/>
+      <c r="P569" s="6" t="s"/>
+      <c r="Q569" s="6" t="s"/>
+      <c r="R569" s="6" t="s"/>
+      <c r="S569" s="6" t="s"/>
+      <c r="T569" s="6" t="s"/>
+      <c r="U569" s="6" t="s"/>
+      <c r="V569" s="6" t="s"/>
+      <c r="W569" s="6" t="s"/>
+      <c r="X569" s="6" t="s"/>
+      <c r="Y569" s="6" t="s"/>
+      <c r="Z569" s="6" t="s"/>
+    </row>
+    <row r="570" spans="1:26">
+      <c r="A570" s="7">
+        <v>591</v>
+      </c>
+      <c r="B570" s="22" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C570" s="22" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E570" s="6" t="s"/>
+      <c r="F570" s="6" t="s"/>
+      <c r="G570" s="6" t="s"/>
+      <c r="H570" s="6" t="s"/>
+      <c r="I570" s="6" t="s"/>
+      <c r="J570" s="6" t="s"/>
+      <c r="K570" s="6" t="s"/>
+      <c r="L570" s="6" t="s"/>
+      <c r="M570" s="6" t="s"/>
+      <c r="N570" s="6" t="s"/>
+      <c r="O570" s="6" t="s"/>
+      <c r="P570" s="6" t="s"/>
+      <c r="Q570" s="6" t="s"/>
+      <c r="R570" s="6" t="s"/>
+      <c r="S570" s="6" t="s"/>
+      <c r="T570" s="6" t="s"/>
+      <c r="U570" s="6" t="s"/>
+      <c r="V570" s="6" t="s"/>
+      <c r="W570" s="6" t="s"/>
+      <c r="X570" s="6" t="s"/>
+      <c r="Y570" s="6" t="s"/>
+      <c r="Z570" s="6" t="s"/>
+    </row>
+    <row r="571" spans="1:26">
+      <c r="A571" s="7">
+        <v>592</v>
+      </c>
+      <c r="B571" s="22" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C571" s="22" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E571" s="6" t="s"/>
+      <c r="F571" s="6" t="s"/>
+      <c r="G571" s="6" t="s"/>
+      <c r="H571" s="6" t="s"/>
+      <c r="I571" s="6" t="s"/>
+      <c r="J571" s="6" t="s"/>
+      <c r="K571" s="6" t="s"/>
+      <c r="L571" s="6" t="s"/>
+      <c r="M571" s="6" t="s"/>
+      <c r="N571" s="6" t="s"/>
+      <c r="O571" s="6" t="s"/>
+      <c r="P571" s="6" t="s"/>
+      <c r="Q571" s="6" t="s"/>
+      <c r="R571" s="6" t="s"/>
+      <c r="S571" s="6" t="s"/>
+      <c r="T571" s="6" t="s"/>
+      <c r="U571" s="6" t="s"/>
+      <c r="V571" s="6" t="s"/>
+      <c r="W571" s="6" t="s"/>
+      <c r="X571" s="6" t="s"/>
+      <c r="Y571" s="6" t="s"/>
+      <c r="Z571" s="6" t="s"/>
+    </row>
+    <row r="572" spans="1:26">
+      <c r="A572" s="7">
+        <v>593</v>
+      </c>
+      <c r="B572" s="22" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C572" s="22" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E572" s="6" t="s"/>
+      <c r="F572" s="6" t="s"/>
+      <c r="G572" s="6" t="s"/>
+      <c r="H572" s="6" t="s"/>
+      <c r="I572" s="6" t="s"/>
+      <c r="J572" s="6" t="s"/>
+      <c r="K572" s="6" t="s"/>
+      <c r="L572" s="6" t="s"/>
+      <c r="M572" s="6" t="s"/>
+      <c r="N572" s="6" t="s"/>
+      <c r="O572" s="6" t="s"/>
+      <c r="P572" s="6" t="s"/>
+      <c r="Q572" s="6" t="s"/>
+      <c r="R572" s="6" t="s"/>
+      <c r="S572" s="6" t="s"/>
+      <c r="T572" s="6" t="s"/>
+      <c r="U572" s="6" t="s"/>
+      <c r="V572" s="6" t="s"/>
+      <c r="W572" s="6" t="s"/>
+      <c r="X572" s="6" t="s"/>
+      <c r="Y572" s="6" t="s"/>
+      <c r="Z572" s="6" t="s"/>
+    </row>
+    <row r="573" spans="1:26">
+      <c r="A573" s="7">
+        <v>594</v>
+      </c>
+      <c r="B573" s="22" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C573" s="22" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E573" s="6" t="s"/>
+      <c r="F573" s="6" t="s"/>
+      <c r="G573" s="6" t="s"/>
+      <c r="H573" s="6" t="s"/>
+      <c r="I573" s="6" t="s"/>
+      <c r="J573" s="6" t="s"/>
+      <c r="K573" s="6" t="s"/>
+      <c r="L573" s="6" t="s"/>
+      <c r="M573" s="6" t="s"/>
+      <c r="N573" s="6" t="s"/>
+      <c r="O573" s="6" t="s"/>
+      <c r="P573" s="6" t="s"/>
+      <c r="Q573" s="6" t="s"/>
+      <c r="R573" s="6" t="s"/>
+      <c r="S573" s="6" t="s"/>
+      <c r="T573" s="6" t="s"/>
+      <c r="U573" s="6" t="s"/>
+      <c r="V573" s="6" t="s"/>
+      <c r="W573" s="6" t="s"/>
+      <c r="X573" s="6" t="s"/>
+      <c r="Y573" s="6" t="s"/>
+      <c r="Z573" s="6" t="s"/>
+    </row>
+    <row r="574" spans="1:26">
+      <c r="A574" s="7">
+        <v>596</v>
+      </c>
+      <c r="B574" s="8" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C574" s="9" t="s"/>
+      <c r="E574" s="6" t="s"/>
+      <c r="F574" s="6" t="s"/>
+      <c r="G574" s="6" t="s"/>
+      <c r="H574" s="6" t="s"/>
+      <c r="I574" s="6" t="s"/>
+      <c r="J574" s="6" t="s"/>
+      <c r="K574" s="6" t="s"/>
+      <c r="L574" s="6" t="s"/>
+      <c r="M574" s="6" t="s"/>
+      <c r="N574" s="6" t="s"/>
+      <c r="O574" s="6" t="s"/>
+      <c r="P574" s="6" t="s"/>
+      <c r="Q574" s="6" t="s"/>
+      <c r="R574" s="6" t="s"/>
+      <c r="S574" s="6" t="s"/>
+      <c r="T574" s="6" t="s"/>
+      <c r="U574" s="6" t="s"/>
+      <c r="V574" s="6" t="s"/>
+      <c r="W574" s="6" t="s"/>
+      <c r="X574" s="6" t="s"/>
+      <c r="Y574" s="6" t="s"/>
+      <c r="Z574" s="6" t="s"/>
+    </row>
+    <row r="575" spans="1:26">
+      <c r="A575" s="7">
+        <v>597</v>
+      </c>
+      <c r="B575" s="8" t="s">
+        <v>941</v>
+      </c>
+      <c r="C575" s="9" t="s"/>
+      <c r="E575" s="6" t="s"/>
+      <c r="F575" s="6" t="s"/>
+      <c r="G575" s="6" t="s"/>
+      <c r="H575" s="6" t="s"/>
+      <c r="I575" s="6" t="s"/>
+      <c r="J575" s="6" t="s"/>
+      <c r="K575" s="6" t="s"/>
+      <c r="L575" s="6" t="s"/>
+      <c r="M575" s="6" t="s"/>
+      <c r="N575" s="6" t="s"/>
+      <c r="O575" s="6" t="s"/>
+      <c r="P575" s="6" t="s"/>
+      <c r="Q575" s="6" t="s"/>
+      <c r="R575" s="6" t="s"/>
+      <c r="S575" s="6" t="s"/>
+      <c r="T575" s="6" t="s"/>
+      <c r="U575" s="6" t="s"/>
+      <c r="V575" s="6" t="s"/>
+      <c r="W575" s="6" t="s"/>
+      <c r="X575" s="6" t="s"/>
+      <c r="Y575" s="6" t="s"/>
+      <c r="Z575" s="6" t="s"/>
+    </row>
+    <row r="576" spans="1:26">
+      <c r="A576" s="7">
+        <v>598</v>
+      </c>
+      <c r="B576" s="8" t="s">
+        <v>943</v>
+      </c>
+      <c r="C576" s="9" t="s"/>
+      <c r="E576" s="6" t="s"/>
+      <c r="F576" s="6" t="s"/>
+      <c r="G576" s="6" t="s"/>
+      <c r="H576" s="6" t="s"/>
+      <c r="I576" s="6" t="s"/>
+      <c r="J576" s="6" t="s"/>
+      <c r="K576" s="6" t="s"/>
+      <c r="L576" s="6" t="s"/>
+      <c r="M576" s="6" t="s"/>
+      <c r="N576" s="6" t="s"/>
+      <c r="O576" s="6" t="s"/>
+      <c r="P576" s="6" t="s"/>
+      <c r="Q576" s="6" t="s"/>
+      <c r="R576" s="6" t="s"/>
+      <c r="S576" s="6" t="s"/>
+      <c r="T576" s="6" t="s"/>
+      <c r="U576" s="6" t="s"/>
+      <c r="V576" s="6" t="s"/>
+      <c r="W576" s="6" t="s"/>
+      <c r="X576" s="6" t="s"/>
+      <c r="Y576" s="6" t="s"/>
+      <c r="Z576" s="6" t="s"/>
+    </row>
+    <row r="577" spans="1:26">
+      <c r="A577" s="7">
+        <v>599</v>
+      </c>
+      <c r="B577" s="8" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C577" s="9" t="s"/>
+      <c r="E577" s="6" t="s"/>
+      <c r="F577" s="6" t="s"/>
+      <c r="G577" s="6" t="s"/>
+      <c r="H577" s="6" t="s"/>
+      <c r="I577" s="6" t="s"/>
+      <c r="J577" s="6" t="s"/>
+      <c r="K577" s="6" t="s"/>
+      <c r="L577" s="6" t="s"/>
+      <c r="M577" s="6" t="s"/>
+      <c r="N577" s="6" t="s"/>
+      <c r="O577" s="6" t="s"/>
+      <c r="P577" s="6" t="s"/>
+      <c r="Q577" s="6" t="s"/>
+      <c r="R577" s="6" t="s"/>
+      <c r="S577" s="6" t="s"/>
+      <c r="T577" s="6" t="s"/>
+      <c r="U577" s="6" t="s"/>
+      <c r="V577" s="6" t="s"/>
+      <c r="W577" s="6" t="s"/>
+      <c r="X577" s="6" t="s"/>
+      <c r="Y577" s="6" t="s"/>
+      <c r="Z577" s="6" t="s"/>
+    </row>
+    <row r="578" spans="1:26">
+      <c r="A578" s="7">
+        <v>10001</v>
+      </c>
+      <c r="B578" s="8" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C578" s="9" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E578" s="6" t="s"/>
+      <c r="F578" s="6" t="s"/>
+      <c r="G578" s="6" t="s"/>
+      <c r="H578" s="6" t="s"/>
+      <c r="I578" s="6" t="s"/>
+      <c r="J578" s="6" t="s"/>
+      <c r="K578" s="6" t="s"/>
+      <c r="L578" s="6" t="s"/>
+      <c r="M578" s="6" t="s"/>
+      <c r="N578" s="6" t="s"/>
+      <c r="O578" s="6" t="s"/>
+      <c r="P578" s="6" t="s"/>
+      <c r="Q578" s="6" t="s"/>
+      <c r="R578" s="6" t="s"/>
+      <c r="S578" s="6" t="s"/>
+      <c r="T578" s="6" t="s"/>
+      <c r="U578" s="6" t="s"/>
+      <c r="V578" s="6" t="s"/>
+      <c r="W578" s="6" t="s"/>
+      <c r="X578" s="6" t="s"/>
+      <c r="Y578" s="6" t="s"/>
+      <c r="Z578" s="6" t="s"/>
+    </row>
+    <row r="579" spans="1:26">
+      <c r="A579" s="7" t="s"/>
+      <c r="B579" s="8" t="s"/>
+      <c r="C579" s="9" t="s"/>
+      <c r="D579" s="6" t="s"/>
+      <c r="E579" s="6" t="s"/>
+      <c r="F579" s="6" t="s"/>
+      <c r="G579" s="6" t="s"/>
+      <c r="H579" s="6" t="s"/>
+      <c r="I579" s="6" t="s"/>
+      <c r="J579" s="6" t="s"/>
+      <c r="K579" s="6" t="s"/>
+      <c r="L579" s="6" t="s"/>
+      <c r="M579" s="6" t="s"/>
+      <c r="N579" s="6" t="s"/>
+      <c r="O579" s="6" t="s"/>
+      <c r="P579" s="6" t="s"/>
+      <c r="Q579" s="6" t="s"/>
+      <c r="R579" s="6" t="s"/>
+      <c r="S579" s="6" t="s"/>
+      <c r="T579" s="6" t="s"/>
+      <c r="U579" s="6" t="s"/>
+      <c r="V579" s="6" t="s"/>
+      <c r="W579" s="6" t="s"/>
+      <c r="X579" s="6" t="s"/>
+      <c r="Y579" s="6" t="s"/>
+      <c r="Z579" s="6" t="s"/>
+    </row>
+    <row r="580" spans="1:26">
+      <c r="A580" s="7" t="s"/>
+      <c r="B580" s="8" t="s"/>
+      <c r="C580" s="9" t="s"/>
+      <c r="D580" s="6" t="s"/>
+      <c r="E580" s="6" t="s"/>
+      <c r="F580" s="6" t="s"/>
+      <c r="G580" s="6" t="s"/>
+      <c r="H580" s="6" t="s"/>
+      <c r="I580" s="6" t="s"/>
+      <c r="J580" s="6" t="s"/>
+      <c r="K580" s="6" t="s"/>
+      <c r="L580" s="6" t="s"/>
+      <c r="M580" s="6" t="s"/>
+      <c r="N580" s="6" t="s"/>
+      <c r="O580" s="6" t="s"/>
+      <c r="P580" s="6" t="s"/>
+      <c r="Q580" s="6" t="s"/>
+      <c r="R580" s="6" t="s"/>
+      <c r="S580" s="6" t="s"/>
+      <c r="T580" s="6" t="s"/>
+      <c r="U580" s="6" t="s"/>
+      <c r="V580" s="6" t="s"/>
+      <c r="W580" s="6" t="s"/>
+      <c r="X580" s="6" t="s"/>
+      <c r="Y580" s="6" t="s"/>
+      <c r="Z580" s="6" t="s"/>
+    </row>
+    <row r="581" spans="1:26">
+      <c r="A581" s="7" t="s"/>
+      <c r="B581" s="8" t="s"/>
+      <c r="C581" s="9" t="s"/>
+      <c r="D581" s="6" t="s"/>
+      <c r="E581" s="6" t="s"/>
+      <c r="F581" s="6" t="s"/>
+      <c r="G581" s="6" t="s"/>
+      <c r="H581" s="6" t="s"/>
+      <c r="I581" s="6" t="s"/>
+      <c r="J581" s="6" t="s"/>
+      <c r="K581" s="6" t="s"/>
+      <c r="L581" s="6" t="s"/>
+      <c r="M581" s="6" t="s"/>
+      <c r="N581" s="6" t="s"/>
+      <c r="O581" s="6" t="s"/>
+      <c r="P581" s="6" t="s"/>
+      <c r="Q581" s="6" t="s"/>
+      <c r="R581" s="6" t="s"/>
+      <c r="S581" s="6" t="s"/>
+      <c r="T581" s="6" t="s"/>
+      <c r="U581" s="6" t="s"/>
+      <c r="V581" s="6" t="s"/>
+      <c r="W581" s="6" t="s"/>
+      <c r="X581" s="6" t="s"/>
+      <c r="Y581" s="6" t="s"/>
+      <c r="Z581" s="6" t="s"/>
+    </row>
+    <row r="582" spans="1:26">
+      <c r="A582" s="7" t="s"/>
+      <c r="B582" s="8" t="s"/>
+      <c r="C582" s="9" t="s"/>
+      <c r="D582" s="6" t="s"/>
+      <c r="E582" s="6" t="s"/>
+      <c r="F582" s="6" t="s"/>
+      <c r="G582" s="6" t="s"/>
+      <c r="H582" s="6" t="s"/>
+      <c r="I582" s="6" t="s"/>
+      <c r="J582" s="6" t="s"/>
+      <c r="K582" s="6" t="s"/>
+      <c r="L582" s="6" t="s"/>
+      <c r="M582" s="6" t="s"/>
+      <c r="N582" s="6" t="s"/>
+      <c r="O582" s="6" t="s"/>
+      <c r="P582" s="6" t="s"/>
+      <c r="Q582" s="6" t="s"/>
+      <c r="R582" s="6" t="s"/>
+      <c r="S582" s="6" t="s"/>
+      <c r="T582" s="6" t="s"/>
+      <c r="U582" s="6" t="s"/>
+      <c r="V582" s="6" t="s"/>
+      <c r="W582" s="6" t="s"/>
+      <c r="X582" s="6" t="s"/>
+      <c r="Y582" s="6" t="s"/>
+      <c r="Z582" s="6" t="s"/>
+    </row>
+    <row r="583" spans="1:26">
+      <c r="A583" s="7" t="s"/>
+      <c r="B583" s="8" t="s"/>
+      <c r="C583" s="9" t="s"/>
+      <c r="D583" s="6" t="s"/>
+      <c r="E583" s="6" t="s"/>
+      <c r="F583" s="6" t="s"/>
+      <c r="G583" s="6" t="s"/>
+      <c r="H583" s="6" t="s"/>
+      <c r="I583" s="6" t="s"/>
+      <c r="J583" s="6" t="s"/>
+      <c r="K583" s="6" t="s"/>
+      <c r="L583" s="6" t="s"/>
+      <c r="M583" s="6" t="s"/>
+      <c r="N583" s="6" t="s"/>
+      <c r="O583" s="6" t="s"/>
+      <c r="P583" s="6" t="s"/>
+      <c r="Q583" s="6" t="s"/>
+      <c r="R583" s="6" t="s"/>
+      <c r="S583" s="6" t="s"/>
+      <c r="T583" s="6" t="s"/>
+      <c r="U583" s="6" t="s"/>
+      <c r="V583" s="6" t="s"/>
+      <c r="W583" s="6" t="s"/>
+      <c r="X583" s="6" t="s"/>
+      <c r="Y583" s="6" t="s"/>
+      <c r="Z583" s="6" t="s"/>
+    </row>
+    <row r="584" spans="1:26">
+      <c r="A584" s="7" t="s"/>
+      <c r="B584" s="8" t="s"/>
+      <c r="C584" s="9" t="s"/>
+      <c r="D584" s="6" t="s"/>
+      <c r="E584" s="6" t="s"/>
+      <c r="F584" s="6" t="s"/>
+      <c r="G584" s="6" t="s"/>
+      <c r="H584" s="6" t="s"/>
+      <c r="I584" s="6" t="s"/>
+      <c r="J584" s="6" t="s"/>
+      <c r="K584" s="6" t="s"/>
+      <c r="L584" s="6" t="s"/>
+      <c r="M584" s="6" t="s"/>
+      <c r="N584" s="6" t="s"/>
+      <c r="O584" s="6" t="s"/>
+      <c r="P584" s="6" t="s"/>
+      <c r="Q584" s="6" t="s"/>
+      <c r="R584" s="6" t="s"/>
+      <c r="S584" s="6" t="s"/>
+      <c r="T584" s="6" t="s"/>
+      <c r="U584" s="6" t="s"/>
+      <c r="V584" s="6" t="s"/>
+      <c r="W584" s="6" t="s"/>
+      <c r="X584" s="6" t="s"/>
+      <c r="Y584" s="6" t="s"/>
+      <c r="Z584" s="6" t="s"/>
+    </row>
+    <row r="585" spans="1:26">
+      <c r="A585" s="7" t="s"/>
+      <c r="B585" s="8" t="s"/>
+      <c r="C585" s="9" t="s"/>
+      <c r="D585" s="6" t="s"/>
+      <c r="E585" s="6" t="s"/>
+      <c r="F585" s="6" t="s"/>
+      <c r="G585" s="6" t="s"/>
+      <c r="H585" s="6" t="s"/>
+      <c r="I585" s="6" t="s"/>
+      <c r="J585" s="6" t="s"/>
+      <c r="K585" s="6" t="s"/>
+      <c r="L585" s="6" t="s"/>
+      <c r="M585" s="6" t="s"/>
+      <c r="N585" s="6" t="s"/>
+      <c r="O585" s="6" t="s"/>
+      <c r="P585" s="6" t="s"/>
+      <c r="Q585" s="6" t="s"/>
+      <c r="R585" s="6" t="s"/>
+      <c r="S585" s="6" t="s"/>
+      <c r="T585" s="6" t="s"/>
+      <c r="U585" s="6" t="s"/>
+      <c r="V585" s="6" t="s"/>
+      <c r="W585" s="6" t="s"/>
+      <c r="X585" s="6" t="s"/>
+      <c r="Y585" s="6" t="s"/>
+      <c r="Z585" s="6" t="s"/>
+    </row>
+    <row r="586" spans="1:26">
+      <c r="A586" s="7" t="s"/>
+      <c r="B586" s="8" t="s"/>
+      <c r="C586" s="9" t="s"/>
+      <c r="D586" s="6" t="s"/>
+      <c r="E586" s="6" t="s"/>
+      <c r="F586" s="6" t="s"/>
+      <c r="G586" s="6" t="s"/>
+      <c r="H586" s="6" t="s"/>
+      <c r="I586" s="6" t="s"/>
+      <c r="J586" s="6" t="s"/>
+      <c r="K586" s="6" t="s"/>
+      <c r="L586" s="6" t="s"/>
+      <c r="M586" s="6" t="s"/>
+      <c r="N586" s="6" t="s"/>
+      <c r="O586" s="6" t="s"/>
+      <c r="P586" s="6" t="s"/>
+      <c r="Q586" s="6" t="s"/>
+      <c r="R586" s="6" t="s"/>
+      <c r="S586" s="6" t="s"/>
+      <c r="T586" s="6" t="s"/>
+      <c r="U586" s="6" t="s"/>
+      <c r="V586" s="6" t="s"/>
+      <c r="W586" s="6" t="s"/>
+      <c r="X586" s="6" t="s"/>
+      <c r="Y586" s="6" t="s"/>
+      <c r="Z586" s="6" t="s"/>
+    </row>
+    <row r="587" spans="1:26">
+      <c r="A587" s="7" t="s"/>
+      <c r="B587" s="8" t="s"/>
+      <c r="C587" s="9" t="s"/>
+      <c r="D587" s="6" t="s"/>
+      <c r="E587" s="6" t="s"/>
+      <c r="F587" s="6" t="s"/>
+      <c r="G587" s="6" t="s"/>
+      <c r="H587" s="6" t="s"/>
+      <c r="I587" s="6" t="s"/>
+      <c r="J587" s="6" t="s"/>
+      <c r="K587" s="6" t="s"/>
+      <c r="L587" s="6" t="s"/>
+      <c r="M587" s="6" t="s"/>
+      <c r="N587" s="6" t="s"/>
+      <c r="O587" s="6" t="s"/>
+      <c r="P587" s="6" t="s"/>
+      <c r="Q587" s="6" t="s"/>
+      <c r="R587" s="6" t="s"/>
+      <c r="S587" s="6" t="s"/>
+      <c r="T587" s="6" t="s"/>
+      <c r="U587" s="6" t="s"/>
+      <c r="V587" s="6" t="s"/>
+      <c r="W587" s="6" t="s"/>
+      <c r="X587" s="6" t="s"/>
+      <c r="Y587" s="6" t="s"/>
+      <c r="Z587" s="6" t="s"/>
+    </row>
+    <row r="588" spans="1:26">
+      <c r="A588" s="7" t="s"/>
+      <c r="B588" s="8" t="s"/>
+      <c r="C588" s="9" t="s"/>
+      <c r="D588" s="6" t="s"/>
+      <c r="E588" s="6" t="s"/>
+      <c r="F588" s="6" t="s"/>
+      <c r="G588" s="6" t="s"/>
+      <c r="H588" s="6" t="s"/>
+      <c r="I588" s="6" t="s"/>
+      <c r="J588" s="6" t="s"/>
+      <c r="K588" s="6" t="s"/>
+      <c r="L588" s="6" t="s"/>
+      <c r="M588" s="6" t="s"/>
+      <c r="N588" s="6" t="s"/>
+      <c r="O588" s="6" t="s"/>
+      <c r="P588" s="6" t="s"/>
+      <c r="Q588" s="6" t="s"/>
+      <c r="R588" s="6" t="s"/>
+      <c r="S588" s="6" t="s"/>
+      <c r="T588" s="6" t="s"/>
+      <c r="U588" s="6" t="s"/>
+      <c r="V588" s="6" t="s"/>
+      <c r="W588" s="6" t="s"/>
+      <c r="X588" s="6" t="s"/>
+      <c r="Y588" s="6" t="s"/>
+      <c r="Z588" s="6" t="s"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C565 D1">
+  <conditionalFormatting sqref="C1:C588 D1">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="，">
       <formula>NOT(ISERROR(SEARCH("，",C1)))</formula>
     </cfRule>
